--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ19367434" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19639565" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19921318" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ20208037" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20490033" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20778717" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ21056724" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21343800" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21654336" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ21941974" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ22222518" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ22498064" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ22781099" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ23070642" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ23346186" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ23635950" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ23927990" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ24239287" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ24529357" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ24801908" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ25078700" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ25364708" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ25784809" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ26169546" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ26490057" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ26803863" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ27132673" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ27507489" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ27834756" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ28144474" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ28455878" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ28763621" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ29082118" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ29385887" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ29704811" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ30026896" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ30346220" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ30651095" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ30977985" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ31286054" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ31599562" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ31914873" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ32207590" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ32590002" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ32971692" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ33302648" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ33614365" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ33911741" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ34246462" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ34564006" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ33331918" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ33571800" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ33889263" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34210050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34506118" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34854272" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35164390" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ35478906" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35827530" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36142245" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ36435647" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ36748617" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ37105849" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ37451580" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ37777217" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38090097" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38438597" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ38770699" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ39078610" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ39408486" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ39707177" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ40020020" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ40314839" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ40622380" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ40910309" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ41233320" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ41553723" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ41887608" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ42178743" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ42491520" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ42791469" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ43189484" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ43528482" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ43811131" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ44197558" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ44757364" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ45122734" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ45591436" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ45898905" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ46189099" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ46492096" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ46773965" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ47065431" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ47356762" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ47655533" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ47960775" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ48269053" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ48564749" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ48871006" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ49177697" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ33331918" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ33571800" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ33889263" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34210050" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ34506118" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ34854272" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35164390" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35478906" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35827530" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ36142245" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ36435647" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ36748617" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ37105849" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ37451580" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ37777217" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38090097" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38438597" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ38770699" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ39078610" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ39408486" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ39707177" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ40020020" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ40314839" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ40622380" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ40910309" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ41233320" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ41553723" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ41887608" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ42178743" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ42491520" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ42791469" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ43189484" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ43528482" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ43811131" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ44197558" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ44757364" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ45122734" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ45591436" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ45898905" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ46189099" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ46492096" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ46773965" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ47065431" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ47356762" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ47655533" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ47960775" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ48269053" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ48564749" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ48871006" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ49177697" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ58698325" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58983258" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ59183081" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ59384492" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ59587498" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59795449" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ00011029" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ00305660" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ00507258" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ00707481" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ00974451" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ01189084" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ01405086" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ01618038" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ01826186" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ02031998" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ02245801" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ02510707" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ02723628" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ02926805" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ03144338" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ03384767" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ03604924" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ03844106" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ04063469" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ04308173" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ04553061" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ04820695" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ05046901" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ05268420" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ05516220" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ05728402" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ05929619" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ06127570" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ06330763" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ06537675" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ06752144" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ06957268" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ07156966" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ07359855" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ07569818" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ07767631" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ07975570" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ08181489" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ08385507" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ08594758" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ08811759" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ09024058" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ09255450" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ09454273" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5481.047278199611</v>
+        <v>5464.585973716517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007176327054194598</v>
+        <v>0.006650151337115538</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.8981770892076</v>
+        <v>135.6240986869397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2515781823201602</v>
+        <v>0.2629858977053007</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.7108710944313</v>
+        <v>227.1251250579097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00991820423672422</v>
+        <v>0.004660807402415265</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1559228201773979</v>
+        <v>0.1819251818866821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4386314322415025</v>
+        <v>0.3218352918569893</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.224553386117844e-05</v>
+        <v>-3.73239794842001e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9042814985248644</v>
+        <v>0.8332512793947207</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.64260513356467</v>
+        <v>-37.46976082870269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05096920235855572</v>
+        <v>0.04919351145629759</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.27817821457441</v>
+        <v>12.07555991160638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120596490911034</v>
+        <v>0.12112055433263</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2195.902779258205</v>
+        <v>-1800.78545154571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4004581051742158</v>
+        <v>0.4323968919782092</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8643635120782</v>
+        <v>552.9985623215086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.662455344656931</v>
+        <v>0.7072400211784975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3797.305600444793</v>
+        <v>1057.706695249187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.739885949383783</v>
+        <v>0.6797846382702728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1148.292810842064</v>
+        <v>-66.19313858598592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6596586684659161</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-67.01595428999758</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02086675027958508</v>
+        <v>0.02036918406483395</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6484.664450669713</v>
+        <v>6354.671307809451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003507807432028207</v>
+        <v>0.004860393353735696</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.22740722896648</v>
+        <v>17.55767521674301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4793906621440255</v>
+        <v>0.8855886118653891</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.2744594224715</v>
+        <v>262.9259115231516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02313939433944344</v>
+        <v>0.0006428526092842738</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2054374318356346</v>
+        <v>0.2862368385077051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2875321439560355</v>
+        <v>0.1364775563704257</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.085977603254505e-05</v>
+        <v>-8.911202841788634e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6676432700321169</v>
+        <v>0.6432813829986455</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.45962157132305</v>
+        <v>-48.75822033315376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008403559207504142</v>
+        <v>0.02209195984240103</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.75223210812941</v>
+        <v>-14.41286383716173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1755633121860136</v>
+        <v>0.2739270096074453</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-253.5974668941972</v>
+        <v>-213.715495194876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9263403634925642</v>
+        <v>0.939228471109455</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.0030494231337</v>
+        <v>-318.8994984519784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.665362730997997</v>
+        <v>0.8254434083432076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21642.02636155455</v>
+        <v>4099.005949187175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1027886586231518</v>
+        <v>0.1590862116813289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5774.082962178266</v>
+        <v>-28.97796405917135</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05904846343311792</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-27.09112818066634</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2951414440551684</v>
+        <v>0.2729591721050008</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4676.318093125615</v>
+        <v>4539.366490819189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02346106404334199</v>
+        <v>0.02565288965123711</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-63.20018876952651</v>
+        <v>-89.9226926360156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6272574778643303</v>
+        <v>0.4655009450307264</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.3930093363988</v>
+        <v>262.6072052845331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00299712648413519</v>
+        <v>0.0003985033470597272</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1378191351139143</v>
+        <v>0.2019983396786912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5044881941937327</v>
+        <v>0.2680360669392512</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.06838276578908e-07</v>
+        <v>-2.890652990370608e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9967709163349552</v>
+        <v>0.8812666515599563</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.06800332764114</v>
+        <v>-32.43703382110753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1283305935659736</v>
+        <v>0.1212344348485467</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.66682548129847</v>
+        <v>17.32444126503395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03834960914105311</v>
+        <v>0.04015508100242001</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3001.888573156151</v>
+        <v>-2241.078842480227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2697063742028487</v>
+        <v>0.3589347535572779</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.79108608530896</v>
+        <v>-210.7955379573277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9668813911064527</v>
+        <v>0.8878446975267112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8150.814605683503</v>
+        <v>1634.463037917265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5041079003419964</v>
+        <v>0.5416056406116623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1767.651882018075</v>
+        <v>-48.86337971315464</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5135460937367464</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-53.0973907152235</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05745653407945683</v>
+        <v>0.06950804786621732</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2768.183624824409</v>
+        <v>2672.10775049586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2084441132939666</v>
+        <v>0.2189432015526821</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.37701339228845</v>
+        <v>32.69532889866494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6485826982837007</v>
+        <v>0.7891995846751296</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306.0858247154605</v>
+        <v>333.3521474517676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001678021952088777</v>
+        <v>9.651752959795854e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4267036152493197</v>
+        <v>0.4571396035841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08857269597744419</v>
+        <v>0.0604454955383211</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.257285491273183e-05</v>
+        <v>-6.388005327713232e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.785578991512511</v>
+        <v>0.7793363640528569</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-52.87094123823449</v>
+        <v>-49.93532518663393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04984851861883404</v>
+        <v>0.0563315509386206</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.71207562288484</v>
+        <v>16.20270125084408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08016511172131896</v>
+        <v>0.06778655949063125</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1698.672144979598</v>
+        <v>-1602.165776146304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5913316011796748</v>
+        <v>0.6088783777333208</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.2879792397543</v>
+        <v>-197.1843376726883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9227336018162761</v>
+        <v>0.8923443524997287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8404.362162229067</v>
+        <v>1293.617377405099</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5645161066125147</v>
+        <v>0.6270885546811822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1837.820555126233</v>
+        <v>-21.06715683367641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5191130802828063</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.61596044314722</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4536567858210162</v>
+        <v>0.4793767823695939</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4360.353624099205</v>
+        <v>3694.209853363908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02149817940140547</v>
+        <v>0.06385550422643332</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>403.7673854203513</v>
+        <v>250.0788796699952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006558841650361999</v>
+        <v>0.07688440422110171</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.9081549037533</v>
+        <v>234.6029997208579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1007103048592032</v>
+        <v>0.004655721692834853</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1213098726423079</v>
+        <v>0.1343283882822738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5212129731132944</v>
+        <v>0.4423555319407958</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001802732780444777</v>
+        <v>5.582194576758112e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2913928784264827</v>
+        <v>0.7501934986692149</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.10894160411536</v>
+        <v>-26.34347715480638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1453609824265596</v>
+        <v>0.1709576220871543</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.63329831350517</v>
+        <v>11.94692352068168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1246870900116142</v>
+        <v>0.1417842806447282</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4653.872948289993</v>
+        <v>-1941.987058178937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05886890505795417</v>
+        <v>0.4086492999534977</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1256.99605173338</v>
+        <v>-73.48026276251539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.379449504629973</v>
+        <v>0.9590558143574436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29668.06589251279</v>
+        <v>-731.8746113534439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0112348037574245</v>
+        <v>0.7894366864688371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1078.93681050985</v>
+        <v>-44.23006695696098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6727168427283614</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-61.39855606191142</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01772761982107591</v>
+        <v>0.09339593618203115</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6541.771059241843</v>
+        <v>6555.98631355315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006389057876956876</v>
+        <v>0.0005948124306923701</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.18003732432953</v>
+        <v>96.5289531508364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3590723909529348</v>
+        <v>0.3705757355081033</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.5583725873338</v>
+        <v>228.0676525663171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001436482323725674</v>
+        <v>0.0006556721177611662</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1641511570030318</v>
+        <v>0.2119908063508791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2920000495470298</v>
+        <v>0.1489558709894501</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001315019126282233</v>
+        <v>-0.0001544108584821933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4136282316085236</v>
+        <v>0.3306033364780704</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.91376526089306</v>
+        <v>-28.00064413526533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1073531515555803</v>
+        <v>0.116972159170257</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.138005644508812</v>
+        <v>-9.093295934530831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4149885732861507</v>
+        <v>0.3590065647552263</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1216.424409445096</v>
+        <v>-372.3465658248278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5639409455327269</v>
+        <v>0.8430441953789728</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1181.879040733704</v>
+        <v>-1379.020842945827</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3859537343063042</v>
+        <v>0.305108735615642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9743.493994225353</v>
+        <v>2591.790710458386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3691268196517298</v>
+        <v>0.2289081448818025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2523.60263169379</v>
+        <v>-44.7229935003771</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2426456078741806</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.75340039049163</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05406651765897594</v>
+        <v>0.05354423807615365</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.807080126486</v>
+        <v>970.83406626551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5838652237700732</v>
+        <v>0.6560843604339684</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.32468321145217</v>
+        <v>7.376221443843491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8364672823761448</v>
+        <v>0.9552252581191053</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.1905615866733</v>
+        <v>281.3066156912802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001743957310514079</v>
+        <v>0.0002693151771712072</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1068296304200947</v>
+        <v>0.1496192124681759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5763246175318436</v>
+        <v>0.3944773968600431</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.503636558862996e-05</v>
+        <v>6.087921107539442e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6844168118133507</v>
+        <v>0.7372338263353211</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.56551304642955</v>
+        <v>-31.27166561905778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1082638238182444</v>
+        <v>0.108345419185807</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.4151682596441</v>
+        <v>25.61057885797489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007544508230305813</v>
+        <v>0.006611045412177327</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1745.000122205128</v>
+        <v>-1053.201802642243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5260763142857496</v>
+        <v>0.668845288655053</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.58199680604</v>
+        <v>380.2699200535531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6878579171908177</v>
+        <v>0.7975465606834393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6878.926027775393</v>
+        <v>5506.788838139757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5575540557507883</v>
+        <v>0.06996996643396186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5499.884250824663</v>
+        <v>-17.87002850992034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07272785085577012</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.89921921711611</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4515836946914296</v>
+        <v>0.536395429061906</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2422.407352674822</v>
+        <v>2201.187136102421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2553611122334898</v>
+        <v>0.2952994099156779</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.87738815612749</v>
+        <v>16.96673717384357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7279691034623978</v>
+        <v>0.8958607197230024</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.123201957667</v>
+        <v>303.9843467830499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001210248495083376</v>
+        <v>0.0001155086719514759</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03182543460464149</v>
+        <v>0.02498411851622379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8654777413033564</v>
+        <v>0.8865727284064475</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.14657977750873e-05</v>
+        <v>4.411903978752203e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6862007127096141</v>
+        <v>0.7990022829545351</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.499799534495</v>
+        <v>-8.805632752937647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6099997954882974</v>
+        <v>0.6661163008978106</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.25308375976562</v>
+        <v>23.44925108594984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009164658096165965</v>
+        <v>0.00833704314413629</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3387.303142393946</v>
+        <v>-2627.090164595048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1652428607338469</v>
+        <v>0.2435168608355026</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-381.2566467222555</v>
+        <v>-737.442082951007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7938433374838747</v>
+        <v>0.5971819464032291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9326.022898041041</v>
+        <v>2646.369527252377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.393859740777738</v>
+        <v>0.3645594080523896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2734.97460590449</v>
+        <v>-35.03571655099358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3509182989195484</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-38.83953673107254</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1857937508066629</v>
+        <v>0.2245536740348365</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4064.283657337832</v>
+        <v>4063.739187782767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03572087199110132</v>
+        <v>0.03402266697985149</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.8163108309529</v>
+        <v>127.0886158277482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2784557264794794</v>
+        <v>0.2930959938227378</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.274068824477</v>
+        <v>255.9080419154662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003471750135953656</v>
+        <v>0.00178597644592916</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3728494297635706</v>
+        <v>0.4339651026301431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1118740934630214</v>
+        <v>0.03447536963074924</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000207731270769148</v>
+        <v>-0.0002480131760776223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.337461214154596</v>
+        <v>0.2198210583853825</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.77152590733893</v>
+        <v>-35.76561457778069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07022200231952686</v>
+        <v>0.05927285826027236</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.72765844375765</v>
+        <v>14.47190053035819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05026807606012672</v>
+        <v>0.05148585766127536</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-208.5959443242718</v>
+        <v>713.9362457747939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9410955228681364</v>
+        <v>0.7492204357275355</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-546.0699403749941</v>
+        <v>-670.4378953368919</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7081375492446735</v>
+        <v>0.6387044837972251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7365.690810980479</v>
+        <v>339.1947087389749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5883506020604814</v>
+        <v>0.884893482532107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>502.8897501128763</v>
+        <v>-47.92590601112141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8329562213207133</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-48.78728184882171</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07360600424838555</v>
+        <v>0.07533994992912033</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3886.299006849693</v>
+        <v>3336.282458445894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0757262251674653</v>
+        <v>0.1287633527850313</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.5099453970691</v>
+        <v>178.5442940141327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09365112245219001</v>
+        <v>0.2417305671224977</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.0464632980829</v>
+        <v>293.1620878163813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01577323485895053</v>
+        <v>0.0002813054850373371</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1500144890686288</v>
+        <v>0.2447952532737112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4577807431631193</v>
+        <v>0.2191382741269328</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.52809273267007e-05</v>
+        <v>-3.474792079869437e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9399079410850235</v>
+        <v>0.8666263520429305</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.79544693253026</v>
+        <v>-34.2240064599536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04661183706547432</v>
+        <v>0.1216147941791834</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.93607661435743</v>
+        <v>13.92650206263622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1441541065576425</v>
+        <v>0.1235973375632455</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1848.341923268619</v>
+        <v>-1285.903356707576</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5597138205901546</v>
+        <v>0.6893438732923074</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1570.973117710618</v>
+        <v>208.4369615453857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.375952823654956</v>
+        <v>0.8960903145436726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25532.93222606376</v>
+        <v>1730.825950267559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1042103655795353</v>
+        <v>0.562342706127275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2292.679861844255</v>
+        <v>-41.84755577463432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4366742211807503</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-50.4229318603023</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09353414406570516</v>
+        <v>0.1640277192269124</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3666.583444978006</v>
+        <v>3553.64077328244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03946299063981175</v>
+        <v>0.04312718100621264</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.04717864218816</v>
+        <v>0.8651358509189322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7948668103005705</v>
+        <v>0.9939178965537387</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.2978337680209</v>
+        <v>232.2060546989497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01190004763064462</v>
+        <v>0.002006591927118892</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.226791442112689</v>
+        <v>0.2831906810387977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2345270208820551</v>
+        <v>0.09863625430448351</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.203276535576589e-05</v>
+        <v>-1.367234587335399e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9510713570167085</v>
+        <v>0.9999437510201709</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.93412563469583</v>
+        <v>-47.50154775213866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03478477823579644</v>
+        <v>0.02731187083036168</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.2936621279484</v>
+        <v>13.92410791974504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06546714008368754</v>
+        <v>0.06971419840281934</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2646.034500432278</v>
+        <v>-2052.502104775443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2711280371274716</v>
+        <v>0.3542276109468445</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.5981430129127</v>
+        <v>-25.14493043945004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8966848661484081</v>
+        <v>0.9858253058245916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7537.446114106657</v>
+        <v>1138.788515205968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4995618857076786</v>
+        <v>0.6311240041090715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1246.71881088669</v>
+        <v>-16.02096742404704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6025626793275625</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-20.49299360083915</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.443503243640377</v>
+        <v>0.5329613716040261</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2802.40182533964</v>
+        <v>2584.89716136049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157826363634676</v>
+        <v>0.1911188405947133</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.52144805428372</v>
+        <v>-1.575868362144661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7686235087096998</v>
+        <v>0.9900558890511899</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.9392680207458</v>
+        <v>287.5793984063886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003227005594846006</v>
+        <v>0.000269914228699629</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1500287021316374</v>
+        <v>0.2947752028564736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5399480688935833</v>
+        <v>0.1631833022674718</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.641254513230496e-06</v>
+        <v>-8.236562584624393e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9903202618031894</v>
+        <v>0.6906327243371346</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.86535828645042</v>
+        <v>-34.22566865444165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1167712803065204</v>
+        <v>0.103336011273538</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.62509443626125</v>
+        <v>22.07161921930691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01451870336131588</v>
+        <v>0.01701929123990448</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2605.12068946208</v>
+        <v>-1130.195360161542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3512480038900394</v>
+        <v>0.6467324260867251</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>421.3391139343853</v>
+        <v>-210.5710713831854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7895801785396204</v>
+        <v>0.8869801658031109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14425.24865446081</v>
+        <v>3479.804433983767</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261877412264057</v>
+        <v>0.2191589488650011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3892.11943129293</v>
+        <v>-37.0492858137452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1725053354441891</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-45.49700566528566</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1122635824179975</v>
+        <v>0.1792003095082599</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6459.216586130868</v>
+        <v>6377.761046341027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008557851187940604</v>
+        <v>0.009278552102418167</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.45274525407231</v>
+        <v>-6.66103177067157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8271911943361658</v>
+        <v>0.9545149896675369</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.4491884095159</v>
+        <v>272.003038356195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002067145336709143</v>
+        <v>0.0002837279733582262</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1265996443214065</v>
+        <v>0.2006398270345851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4752152131557895</v>
+        <v>0.2178279920231032</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.954142605128242e-05</v>
+        <v>1.245595038772536e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8178976030761101</v>
+        <v>0.9414919304780717</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-41.53769755580167</v>
+        <v>-41.56879485153497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03860607784992495</v>
+        <v>0.03843767202001749</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.53536767239453</v>
+        <v>-12.50905650995418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3629545884782165</v>
+        <v>0.3231360109896539</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2892.011635469798</v>
+        <v>-2071.639044598077</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2356403513633937</v>
+        <v>0.3660753383498114</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.49367640403079</v>
+        <v>-386.1757369947222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9856029650460365</v>
+        <v>0.7928111750030218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10712.78760508709</v>
+        <v>4442.747049049602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.310325194389644</v>
+        <v>0.09493116833340796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4498.659673655607</v>
+        <v>-37.73855766466777</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09103120702280913</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.36903508852272</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09877394659206054</v>
+        <v>0.1338238364211237</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3522.974686297627</v>
+        <v>3427.355932869507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.115986136569224</v>
+        <v>0.1178083494188985</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.43182567490223</v>
+        <v>63.43869053747403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5820870718704101</v>
+        <v>0.6272551063130168</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303.5025508174415</v>
+        <v>318.3572250916208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002214277693274861</v>
+        <v>0.0002184703266676633</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1998565742914048</v>
+        <v>0.2276120813495596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3774979516594666</v>
+        <v>0.2682782607693362</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.43559682556293e-05</v>
+        <v>5.219090884026547e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8114440869650801</v>
+        <v>0.8165997005492476</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.99981246997324</v>
+        <v>-38.84424721856471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1267674245650669</v>
+        <v>0.1122264091207719</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.16544345380959</v>
+        <v>12.92717458498475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1436548365843871</v>
+        <v>0.1445007691504613</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1565.901595234272</v>
+        <v>-1196.44693526744</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6008729425799666</v>
+        <v>0.6584564055940847</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.1649756300408</v>
+        <v>9.661861969849269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9434369541038282</v>
+        <v>0.9953631339283411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4170.885531873244</v>
+        <v>1887.429753949767</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7586238679369579</v>
+        <v>0.5270463369714777</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1893.981716770451</v>
+        <v>-37.05043501912465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5305417341877062</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-39.55720281787897</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.20177748159582</v>
+        <v>0.2091496334863333</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6120.652335839856</v>
+        <v>5798.967113701021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006591487051583505</v>
+        <v>0.001952557131038593</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>334.5368912235158</v>
+        <v>269.9657780460636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001259377982379421</v>
+        <v>0.008891955711947095</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.42196065795275</v>
+        <v>116.2365037849817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4051921974091065</v>
+        <v>0.05376922250892634</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1096127145981821</v>
+        <v>0.2203646672217737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4851654761856655</v>
+        <v>0.1709011763775253</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.576250492266328e-05</v>
+        <v>-0.0001021821240933579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6284656834343096</v>
+        <v>0.4769034452095546</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-48.70270596061117</v>
+        <v>-38.1501962874805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005830159765913129</v>
+        <v>0.03147486078305271</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.44818659476432</v>
+        <v>-13.83726194780699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07937993562094352</v>
+        <v>0.1584181593197207</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-679.7440091953731</v>
+        <v>50.91690427696221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7404429482686994</v>
+        <v>0.9811365267699188</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1449.958905601257</v>
+        <v>269.2887598369903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1968455017644448</v>
+        <v>0.7996829658001036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24571.39737568032</v>
+        <v>4613.917333492516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01923197844004891</v>
+        <v>0.04145256125591902</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6018.982013017467</v>
+        <v>-35.5651300432198</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007713938677866197</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-37.31869268508088</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08089354432766011</v>
+        <v>0.1153925144528949</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.119171302668</v>
+        <v>1534.758858617746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2733448303704124</v>
+        <v>0.4435611144608103</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.53250420630002</v>
+        <v>-51.92968750131624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.77812464948911</v>
+        <v>0.689693539319999</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.4876401761094</v>
+        <v>369.6226468650851</v>
       </c>
       <c r="C4" t="n">
-        <v>6.370248774543282e-05</v>
+        <v>9.212086697569699e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06538465910942171</v>
+        <v>0.2171018211894278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6858442833180638</v>
+        <v>0.1823091329899959</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.41235526830172e-05</v>
+        <v>-1.075051805705746e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7322412902660477</v>
+        <v>0.9486865071121507</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.73571881493907</v>
+        <v>-26.76132464491586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09151769027631665</v>
+        <v>0.152710284493354</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.06907345631678</v>
+        <v>23.70519670411631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005679824923263701</v>
+        <v>0.007605874122530854</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4165.292776440485</v>
+        <v>-2009.112160350038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0615555007047013</v>
+        <v>0.3528198836106256</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.7762189999155</v>
+        <v>-315.0680630205745</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6962342708241591</v>
+        <v>0.8209483298761816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27239.29950587451</v>
+        <v>26.90149885860751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01353551593136648</v>
+        <v>0.9921674294920866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-781.7258167187892</v>
+        <v>-9.670866589046724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7619539616043002</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.93794263286924</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4944170708602551</v>
+        <v>0.7281727318036648</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3720.192140935168</v>
+        <v>3694.264973199479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05228974862044135</v>
+        <v>0.04984349274808017</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-60.89312407584841</v>
+        <v>-66.57871480740116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6208322819144625</v>
+        <v>0.5622431663857772</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.053378586036</v>
+        <v>235.5912518612477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001920315175540176</v>
+        <v>0.0007235795057900151</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3245339670189105</v>
+        <v>0.339358176821019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1223125666129916</v>
+        <v>0.05917361055775284</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001606199703395461</v>
+        <v>-0.0001695081728703929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4227034599405002</v>
+        <v>0.3669345354340584</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.29793387040375</v>
+        <v>-34.42889464320067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06620909963373768</v>
+        <v>0.0615725189871489</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.8710756652164</v>
+        <v>17.81008870424297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02881481966809223</v>
+        <v>0.02712816724461737</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1444.16695383423</v>
+        <v>-1274.5148830281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5867236010428509</v>
+        <v>0.5855877998812253</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-837.4510300188508</v>
+        <v>-905.5601082881744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5613685223505489</v>
+        <v>0.4998318899913393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1633.054697459034</v>
+        <v>1237.909364207368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8879398254403987</v>
+        <v>0.6005805646449811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1282.734955258449</v>
+        <v>-27.00847787803581</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5954052268871364</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-28.18936294374031</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3050184377724596</v>
+        <v>0.2957529263820795</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3619.819664002417</v>
+        <v>3530.017817810997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08912904621214784</v>
+        <v>0.09412489857385674</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.9395973818477</v>
+        <v>129.4655361696773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28803080836344</v>
+        <v>0.3391997121263934</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.908901459874</v>
+        <v>286.0975590511435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004252838948274466</v>
+        <v>0.0005578348157353857</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1235490265739743</v>
+        <v>0.1741716900023466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.539125659957403</v>
+        <v>0.3502379464899572</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.417307944242545e-05</v>
+        <v>-9.345543705439299e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7076998738917657</v>
+        <v>0.6310781221597039</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.51638396032882</v>
+        <v>-15.82549908113737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4592138813500186</v>
+        <v>0.4746546775197066</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.39799175177978</v>
+        <v>15.12328062380747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07150590677631977</v>
+        <v>0.07414540265939021</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1592.149154177903</v>
+        <v>-858.992573628484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5542831799279127</v>
+        <v>0.7259639610543105</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-878.640108309638</v>
+        <v>-1141.166627727202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6305805641031976</v>
+        <v>0.5206427956339652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8435.294378380922</v>
+        <v>1334.730666980375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4932283610321323</v>
+        <v>0.6274568129951731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1546.937317798782</v>
+        <v>-47.70398250686106</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5789184902349542</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-49.42357186405441</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08999109212206884</v>
+        <v>0.09771869203909875</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3714.526870391738</v>
+        <v>3222.858245146823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09150322862319751</v>
+        <v>0.1403391695182079</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.45888029417216</v>
+        <v>33.98328347448961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6361383641396594</v>
+        <v>0.799540806238716</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.3771854821028</v>
+        <v>307.8206760491705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003146213911819381</v>
+        <v>0.0003572271233867114</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06443770205346275</v>
+        <v>0.1782415635251149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.754132247484131</v>
+        <v>0.3523228700364814</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.583874956866967e-05</v>
+        <v>2.32975990272638e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7088388975079294</v>
+        <v>0.9080232463500035</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.91368278259787</v>
+        <v>-30.44634891944639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1177946758744724</v>
+        <v>0.1388455865046183</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.4283777894001</v>
+        <v>16.33744752962451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04723925761605679</v>
+        <v>0.06378097007843092</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3958.100155368791</v>
+        <v>-2356.783730822405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1912308692073845</v>
+        <v>0.4008761292526141</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.5139358157962</v>
+        <v>188.2052958996487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6135569493167086</v>
+        <v>0.9014684191559116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16811.50742022581</v>
+        <v>1838.687531143785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1727033839963333</v>
+        <v>0.5396701985899932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1776.81957606446</v>
+        <v>-38.67693927756499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5487944813327366</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-49.25216231671489</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08603266097710122</v>
+        <v>0.1631129891436399</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3333.007159783413</v>
+        <v>3096.392009152867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07593572726446053</v>
+        <v>0.09018682048779741</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.87431620007854</v>
+        <v>-1.57873346285669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8060112359135687</v>
+        <v>0.989102479659678</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.8917355153924</v>
+        <v>244.5489036025027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004741958976624211</v>
+        <v>0.0002692899646017489</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003341188305229614</v>
+        <v>0.04478954028104468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9844185332476336</v>
+        <v>0.7781624813945414</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.154191438339175e-05</v>
+        <v>6.762755719107475e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6445431167973357</v>
+        <v>0.6979812907445938</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.09905521628136</v>
+        <v>-17.80866972249204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3056881394600262</v>
+        <v>0.3332100174497615</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.09408196574536</v>
+        <v>23.58206023367679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00616681077511605</v>
+        <v>0.004767746681241239</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2423.836124334008</v>
+        <v>-1633.74481999464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.333658565445475</v>
+        <v>0.457890647895392</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1038.286160818991</v>
+        <v>-1357.827418690845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5017564430794659</v>
+        <v>0.354555249740042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7847.844376472851</v>
+        <v>3560.082586758412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.494859971497697</v>
+        <v>0.1652823318704854</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3468.368546324009</v>
+        <v>-41.37169504887125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.179834878696681</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.72335838708509</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0668276396388051</v>
+        <v>0.08031261902808481</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3970.944303515427</v>
+        <v>3973.843906696884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04576241890393075</v>
+        <v>0.0433275860471133</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.3575263118167</v>
+        <v>134.4808118521819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2425227056260685</v>
+        <v>0.2706851554725522</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.4263241777569</v>
+        <v>246.9266128263577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01329610470184398</v>
+        <v>0.003036721507175227</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3327275707479178</v>
+        <v>0.3569948070473503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1545807422873567</v>
+        <v>0.1128214624973443</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.979345050342722e-05</v>
+        <v>-8.353053838680634e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6825127916915159</v>
+        <v>0.6999120050891054</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.08669000691342</v>
+        <v>-40.72158544820361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07706724035496404</v>
+        <v>0.08075735655202906</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.87305299305674</v>
+        <v>12.06005747864523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1638340549825341</v>
+        <v>0.1525440909625548</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-614.4185026481</v>
+        <v>-554.8508401043036</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8358448387743018</v>
+        <v>0.8498376160350893</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.02638507589472</v>
+        <v>-274.13233268574</v>
       </c>
       <c r="C10" t="n">
-        <v>0.979394096413771</v>
+        <v>0.8531794648949286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6215.580186035799</v>
+        <v>2518.267280385321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6615356705198115</v>
+        <v>0.3596299881570828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2839.659121750474</v>
+        <v>-46.6452981374143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3237046439157738</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46.49714742754991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1325769922353147</v>
+        <v>0.1272713389034887</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3279.758153611769</v>
+        <v>3123.205084813936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1060094482690279</v>
+        <v>0.1133828853002264</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.55032865668138</v>
+        <v>-13.778445061431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9131900659897194</v>
+        <v>0.9229069613533751</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.946116190984</v>
+        <v>245.1202194227749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004356262349604753</v>
+        <v>0.001103704573814333</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2644773905857678</v>
+        <v>0.3114425275394888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2124456344195555</v>
+        <v>0.08601306937231949</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001294241469719449</v>
+        <v>-0.0001571153390987481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5252001194250226</v>
+        <v>0.412446881995027</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.726040830184</v>
+        <v>-30.34670578683623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1419512798343974</v>
+        <v>0.1422555862279843</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.59988304124719</v>
+        <v>18.78616510135771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03423364724893529</v>
+        <v>0.03057949877676212</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1275.795801852154</v>
+        <v>-810.5077304174287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6168766768720233</v>
+        <v>0.7230275846409593</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-341.3896718995209</v>
+        <v>-624.0343474262518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.836546239984869</v>
+        <v>0.6786849511162096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5488.047966189046</v>
+        <v>1247.757707227264</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6649068473811215</v>
+        <v>0.6213350798455665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1220.003718525406</v>
+        <v>-27.12975365900763</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6327484183017862</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-31.52610125962874</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2706916500239234</v>
+        <v>0.3046257261174103</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2612.971923385317</v>
+        <v>1940.418588676319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3288515473144001</v>
+        <v>0.4492369905649303</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.0738447459881</v>
+        <v>128.9750134841104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2734432495742141</v>
+        <v>0.3755843593239666</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.6568663170749</v>
+        <v>352.9300593140758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001508833361282824</v>
+        <v>8.65097225267491e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1631987014385996</v>
+        <v>0.2499522542793524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4208989360650307</v>
+        <v>0.1674389995262208</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.713048655535709e-05</v>
+        <v>-1.556867605737391e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8972384396809434</v>
+        <v>0.9393569805404527</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.60064590071852</v>
+        <v>-29.63812095630708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2034499865745651</v>
+        <v>0.2421459848913863</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.96330091859135</v>
+        <v>15.00897175623674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09981761706139519</v>
+        <v>0.09810668227889809</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2374.686950042331</v>
+        <v>-1385.174374457216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3764796400631315</v>
+        <v>0.5720945111676132</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.7427217048835</v>
+        <v>103.6486182648596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7097176901434138</v>
+        <v>0.9529157630374847</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11852.15702737599</v>
+        <v>1439.582729815817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.354250926519897</v>
+        <v>0.6141719569161819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1160.489459576525</v>
+        <v>-22.65389393236426</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6864269470537598</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-34.02372425341464</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3418283764106602</v>
+        <v>0.4984057704373733</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4564.971612593461</v>
+        <v>4648.513907331615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06500218305753951</v>
+        <v>0.06982402997605527</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.16656108686561</v>
+        <v>-1.720873424350586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7543826589203761</v>
+        <v>0.9883939127888443</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277.7711223699459</v>
+        <v>327.5038388496079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005915543468859856</v>
+        <v>5.729691867249334e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0682044912107854</v>
+        <v>0.2232476776239618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7000483019669657</v>
+        <v>0.1816123301372758</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.535864061681458e-05</v>
+        <v>-2.224560321931401e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7683325146685644</v>
+        <v>0.8865380955276967</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.88402091270688</v>
+        <v>-34.96371936678562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1023347840075683</v>
+        <v>0.09391771168366271</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.280332901737982</v>
+        <v>-5.741382825044298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7015673042305961</v>
+        <v>0.6199012067590969</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3790.285057436749</v>
+        <v>-1631.912836461917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09258576028154614</v>
+        <v>0.4184255814949821</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.3659428130162</v>
+        <v>-452.8826282713696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9726593393766797</v>
+        <v>0.7388747170121692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21957.02752197206</v>
+        <v>1859.74362382185</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04967581103356988</v>
+        <v>0.4450825890144247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2372.657014727442</v>
+        <v>-17.05919703753817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3161631821393386</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.34563604508679</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5293990733567003</v>
+        <v>0.572812511542506</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4083.354436662929</v>
+        <v>4006.642834695389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06698249049113024</v>
+        <v>0.07878798871781015</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-65.46846883424786</v>
+        <v>-95.62942087030186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5333465684240593</v>
+        <v>0.369262343592388</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.0240776647479</v>
+        <v>397.6622431352395</v>
       </c>
       <c r="C4" t="n">
-        <v>9.01676793918233e-06</v>
+        <v>7.737722215115537e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1131860696861939</v>
+        <v>0.2240010927206016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4818797611766493</v>
+        <v>0.1424692257973756</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.090354446560459e-05</v>
+        <v>-5.136659207748172e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9449961223772468</v>
+        <v>0.7486524341743543</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.1610266365597</v>
+        <v>-31.24456582080562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09333665200832478</v>
+        <v>0.100311810463078</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.024532507748923</v>
+        <v>-5.334109952849762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7766325923906389</v>
+        <v>0.6230740646896663</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2789.202469933925</v>
+        <v>-1399.916510752954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1832133048546217</v>
+        <v>0.4754280650895262</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-105.9257183198661</v>
+        <v>-529.937248251344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9383023356576548</v>
+        <v>0.7012186854540927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17790.60717630055</v>
+        <v>1215.107170396896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09140728240129778</v>
+        <v>0.6207448948502069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>971.1607688205431</v>
+        <v>-3.782632884956037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6855572382530705</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.405291727524336</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.743968074970901</v>
+        <v>0.8853042335266382</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5025.989933002609</v>
+        <v>4960.835730430798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01899043443971755</v>
+        <v>0.0185577960399714</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.7098926040133</v>
+        <v>229.7083576160053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09744990669092686</v>
+        <v>0.09937657046001935</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.2799525527853</v>
+        <v>213.6245013872364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01418267483725801</v>
+        <v>0.006140080000976884</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2313299600070347</v>
+        <v>0.2678527147061762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2701016771049422</v>
+        <v>0.1333526426364011</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001110307947982462</v>
+        <v>-0.0001352274587796763</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5918831167065142</v>
+        <v>0.4819925920238404</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.38756692273842</v>
+        <v>-36.18095339277271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07325201518317272</v>
+        <v>0.07134549230415202</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.90386185612943</v>
+        <v>10.85056586201065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1828815689057388</v>
+        <v>0.1797981188572341</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1012.510451566681</v>
+        <v>-587.8572233251853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7062111144194865</v>
+        <v>0.8021222717671292</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.1220150823979</v>
+        <v>366.1508646771849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7499860128809517</v>
+        <v>0.8213240483428955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4339.733107680799</v>
+        <v>626.4622960456545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7351700343798283</v>
+        <v>0.8119679814986496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>647.7191438654481</v>
+        <v>-62.28404024059815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8079730283089094</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-64.21728869230105</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03744554976548006</v>
+        <v>0.03738976779965193</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3868.417498819258</v>
+        <v>3796.878670349761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05691099872800822</v>
+        <v>0.05447806556856311</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.34725903091055</v>
+        <v>-90.60169189019338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5291578827445236</v>
+        <v>0.4612743505558157</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.2314963118325</v>
+        <v>266.3592690757104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001156000848775284</v>
+        <v>0.0002914737903633373</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1724382653697046</v>
+        <v>0.1886654193616675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.377237303013334</v>
+        <v>0.2847492500442613</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.266383564999627e-05</v>
+        <v>1.744798686115082e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9037823699945842</v>
+        <v>0.9242075823195658</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.00716204125055</v>
+        <v>-32.12219953985183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1157659994350794</v>
+        <v>0.1098385909263037</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.78561509598085</v>
+        <v>18.81007196768817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02014193033591557</v>
+        <v>0.01845522635842098</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1659.364498730833</v>
+        <v>-1397.635689006729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5463829528870997</v>
+        <v>0.5605947258809878</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-657.5135341061577</v>
+        <v>-733.5931150067272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6460848766358194</v>
+        <v>0.5911662734930343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2373.288084625856</v>
+        <v>1776.122095159985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8382185225765493</v>
+        <v>0.4728125210301024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1817.924147992844</v>
+        <v>-36.86377434237517</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4696306496881673</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-38.47346493285156</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.152311848060692</v>
+        <v>0.145789283052352</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2614.74403620529</v>
+        <v>2575.104080553233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1734226531555818</v>
+        <v>0.1890858362565943</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.4510330763708</v>
+        <v>37.61526558030394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3902292745195647</v>
+        <v>0.7634564957767156</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.2615959590088</v>
+        <v>264.9437418600186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0291906404805863</v>
+        <v>0.0005822916329434275</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1028039346377469</v>
+        <v>0.2084872831462208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6336278495370233</v>
+        <v>0.3244994744123181</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.829837551980464e-05</v>
+        <v>3.392642308243582e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8412773656708289</v>
+        <v>0.8621811494318636</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.6622796476019</v>
+        <v>-36.41421466712954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0488493533389097</v>
+        <v>0.09215769125498308</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.17675737799438</v>
+        <v>22.69081980926074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01435475827969603</v>
+        <v>0.01410923753922049</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2253.543335215434</v>
+        <v>-1720.699155732028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.448728561930768</v>
+        <v>0.5685258122947789</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1480.759598645728</v>
+        <v>370.878013257035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3469166414597549</v>
+        <v>0.7977823042183343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23202.43061735627</v>
+        <v>4764.992232951529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1023958729194614</v>
+        <v>0.1159288350246925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6489.196067809793</v>
+        <v>-41.05106009247366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04151440651147557</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.20825708557745</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1218928062488969</v>
+        <v>0.1577322771084029</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4094.407318769267</v>
+        <v>3754.637063299941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03832116000473579</v>
+        <v>0.06162869564040501</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.7021917990472</v>
+        <v>186.0539915421636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05744175282658275</v>
+        <v>0.1461034781124275</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.3523212288363</v>
+        <v>208.247296825865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07104781927167673</v>
+        <v>0.008740928143374935</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04249580644859441</v>
+        <v>0.1767458058608994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8255648833386648</v>
+        <v>0.3352469017310711</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.124967292697048e-05</v>
+        <v>-1.312954957856057e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8228223718456058</v>
+        <v>0.9439043303944901</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.3852499738673</v>
+        <v>-28.06717959923227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1634048309143815</v>
+        <v>0.1792440414234114</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.53230169926834</v>
+        <v>13.75099518487831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07817539150301227</v>
+        <v>0.1030662888450682</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3700.934434928937</v>
+        <v>-2061.903409001916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1391793534741343</v>
+        <v>0.3831155771350243</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.2524076933054</v>
+        <v>-557.0696014464517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9405239342580001</v>
+        <v>0.6906172398302649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19398.62677756525</v>
+        <v>-203.3212872201293</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08002001086664594</v>
+        <v>0.9368663282033155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-262.0472529148528</v>
+        <v>-33.18690068480161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.916482184425868</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-41.67078763656507</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1093500006221953</v>
+        <v>0.2036071630831204</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4653.018085801905</v>
+        <v>4366.161944981428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01310847139906263</v>
+        <v>0.02097952844261195</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.5522805865351</v>
+        <v>179.0085920130427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05249226590070923</v>
+        <v>0.1478000840607717</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.4952537098941</v>
+        <v>217.4891582362384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05967045877130991</v>
+        <v>0.002676187648907114</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06530426719275853</v>
+        <v>0.1205073662698139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7607273607492526</v>
+        <v>0.5133944652914725</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001428175626329535</v>
+        <v>2.723883327137856e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4814761829001782</v>
+        <v>0.8876217840147078</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.02256853026583</v>
+        <v>-24.44588552139376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2001077680189145</v>
+        <v>0.2010369119447415</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.30318023559616</v>
+        <v>13.95130881744305</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05890804000951719</v>
+        <v>0.07008899687973237</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4859.333208878908</v>
+        <v>-2911.342736439627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06471973028686227</v>
+        <v>0.2124394301280958</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.7767474433363</v>
+        <v>-247.3720439850263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6618772062010125</v>
+        <v>0.8597489702920861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19619.85554305093</v>
+        <v>478.8441398727828</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1149855557174039</v>
+        <v>0.8548593345454626</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>643.1473659980111</v>
+        <v>-52.85881103317119</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8022852774493255</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-62.31784475159042</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01815309021045873</v>
+        <v>0.04129344339596564</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2825.01162974249</v>
+        <v>2360.7057692191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1767365244448869</v>
+        <v>0.2646255409418171</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.2458880954547</v>
+        <v>28.19665887587514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6150859832404378</v>
+        <v>0.8216214190501618</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.1227672350249</v>
+        <v>312.1197993137569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008172266110896252</v>
+        <v>0.0001180313697144024</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.116428509075958</v>
+        <v>0.2395214350183855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5775105984543816</v>
+        <v>0.2370598520506819</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.091436528932217e-05</v>
+        <v>-4.842693435171683e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9532631924710611</v>
+        <v>0.7963220209924218</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.62919659617285</v>
+        <v>-25.68549137598294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2148693972471694</v>
+        <v>0.2590187912046962</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.75319593040022</v>
+        <v>17.8466745180258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02686820215412967</v>
+        <v>0.03848542347749208</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2988.566810167371</v>
+        <v>51.12365572507815</v>
       </c>
       <c r="C9" t="n">
-        <v>0.354431515030535</v>
+        <v>0.9851260344135846</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-358.3955401268834</v>
+        <v>-1010.346344246097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8271085610542578</v>
+        <v>0.5377544369949732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23102.93896895282</v>
+        <v>733.393565021461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09226696574234937</v>
+        <v>0.7887967754154616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1043.227466016433</v>
+        <v>-19.75283760845394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6969508524914483</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-30.51866265881901</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.312530570037546</v>
+        <v>0.5125985327128117</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7659.905925625004</v>
+        <v>7617.142568595364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006267341801425329</v>
+        <v>0.0005677699141227703</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-24.89437627201139</v>
+        <v>-46.92942941174601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8497573330591403</v>
+        <v>0.6894592218653004</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.9297995312979</v>
+        <v>249.7957370573561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002326089870486625</v>
+        <v>0.0004851666117895216</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2445188221099553</v>
+        <v>0.2735582442150175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1726831571547911</v>
+        <v>0.09112235065903877</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.081754110433537e-05</v>
+        <v>6.431462598801604e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6880837698718549</v>
+        <v>0.7110840423530687</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.58546862341767</v>
+        <v>-65.09638346549833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005978083253279674</v>
+        <v>0.005038726623501898</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.15828955428008</v>
+        <v>-16.60193490065359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1765485418444135</v>
+        <v>0.158650978530597</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1820.227106402339</v>
+        <v>-1509.220081015792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3981543196379843</v>
+        <v>0.444981511124101</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1751771951324</v>
+        <v>325.9293752948849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7315915546921596</v>
+        <v>0.8110418369524798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4159.762672413293</v>
+        <v>3385.481483288687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6966419890901097</v>
+        <v>0.1479495668846403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3359.294250217711</v>
+        <v>-35.20462591063109</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1557891939380273</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-37.99210297915185</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1283135286261744</v>
+        <v>0.1360599719176468</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3822.062805041086</v>
+        <v>3718.701450658133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0651390389430432</v>
+        <v>0.0739832577196531</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.33062989613313</v>
+        <v>3.871726814468602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.679654858195947</v>
+        <v>0.9763403346300947</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.7859963573524</v>
+        <v>312.5673155039104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004919903899451208</v>
+        <v>0.0001657911063834066</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1726299572756211</v>
+        <v>0.220522986236184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.420636956337066</v>
+        <v>0.3003294489723851</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.965269382146048e-05</v>
+        <v>-2.766172275945193e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8237979940886631</v>
+        <v>0.9016403428228468</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-38.31598005416433</v>
+        <v>-32.52449371132422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07113972875981427</v>
+        <v>0.116608509339868</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.85544516487506</v>
+        <v>15.50297401506265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08067809062665013</v>
+        <v>0.07000935178015086</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2088.312561466249</v>
+        <v>-1945.751639431717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.516283903680497</v>
+        <v>0.5477208688332947</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.9652258118542</v>
+        <v>-40.66617344846509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7473457452012304</v>
+        <v>0.9797166377014005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17721.1473885546</v>
+        <v>1337.262205015196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2161754118241941</v>
+        <v>0.6311327432547844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2353.864021300792</v>
+        <v>-41.46029829002181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4156005715516998</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.12597678449975</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1581104581022948</v>
+        <v>0.1673304437201701</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3564.462634621073</v>
+        <v>3375.473455384992</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04245158602009241</v>
+        <v>0.06767703536785344</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.5978594603538</v>
+        <v>125.5102764724298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1149804527847568</v>
+        <v>0.2956950357484376</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.0633705893389</v>
+        <v>262.7840355713105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00580216382702609</v>
+        <v>0.0003464681636175026</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009302059518126043</v>
+        <v>0.1261054223536626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9565468456765541</v>
+        <v>0.4613788173488241</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.0460786952276e-05</v>
+        <v>-3.659593897619413e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.948088580297679</v>
+        <v>0.8284488678084559</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.717177658478931</v>
+        <v>-7.395994808363639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6493032243147179</v>
+        <v>0.7153060075001638</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.43155472113346</v>
+        <v>17.0054145270826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0136581057788564</v>
+        <v>0.02944860464985158</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3858.07254417732</v>
+        <v>-1931.469565171294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08978513208272665</v>
+        <v>0.3833989768892979</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1134.142677977893</v>
+        <v>-1899.017574583695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4260250259731589</v>
+        <v>0.1992611943024426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25989.15839896932</v>
+        <v>-305.4930004335843</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02033061658080156</v>
+        <v>0.9020524164651967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-414.0140928462574</v>
+        <v>-41.28450048402932</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8598757253190707</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-47.53063410311932</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0419185497377144</v>
+        <v>0.09010994517690037</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2326.073989012543</v>
+        <v>2311.339941986007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2911178029578187</v>
+        <v>0.286691580444103</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.79331762270104</v>
+        <v>96.75208231274044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4504242647083286</v>
+        <v>0.4472428608500512</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.2930789996755</v>
+        <v>239.8487301768832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005847985170286194</v>
+        <v>0.002849018522297551</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2410666483591057</v>
+        <v>0.2483436874066824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2051668025688903</v>
+        <v>0.1451147528822877</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001040377101172296</v>
+        <v>-0.0001076512784892212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5654521755985857</v>
+        <v>0.5369698013868324</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.53982578217772</v>
+        <v>-24.45605437947064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2017783698559168</v>
+        <v>0.1970490093682146</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.2564745393436</v>
+        <v>22.24688781197928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01066512793451642</v>
+        <v>0.009728476869690217</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-898.4217087322395</v>
+        <v>-806.4967367166173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7150092617370707</v>
+        <v>0.7155304883167406</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-567.2085818070045</v>
+        <v>-604.6598916910061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.691791305192629</v>
+        <v>0.6548839432885645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1011.110691108177</v>
+        <v>4439.343378163302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9277860814064891</v>
+        <v>0.1064610623360922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4443.780229387279</v>
+        <v>-39.15924164293654</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1106663342524705</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-39.39536703343134</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1911704775189056</v>
+        <v>0.1864903909288142</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2082.706468775719</v>
+        <v>1719.704743324091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2901555159539714</v>
+        <v>0.3782761521750526</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.99820894350488</v>
+        <v>12.84161997485307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5648289953114318</v>
+        <v>0.912524000393051</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.2529267664636</v>
+        <v>246.930412351137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01714531876763193</v>
+        <v>0.001578217904041158</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01225927666835368</v>
+        <v>0.1213678337108537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9501237840905077</v>
+        <v>0.4886349424296014</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.105350471084776e-05</v>
+        <v>-5.797673816013333e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8164169131259487</v>
+        <v>0.973331159059045</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.45358845001708</v>
+        <v>-14.87252312045536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.427393096808292</v>
+        <v>0.4167603355054089</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.25429111458857</v>
+        <v>20.330340486377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008586983114430954</v>
+        <v>0.008632756263298432</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3690.962055772945</v>
+        <v>-2417.737835913864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1327178727409127</v>
+        <v>0.2726043210658606</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254.965440724475</v>
+        <v>-269.8945226915512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8536362308126835</v>
+        <v>0.8378630014037599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13431.00462069763</v>
+        <v>565.7446142137928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233551337331197</v>
+        <v>0.8178018441267041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>869.0938525173347</v>
+        <v>-11.26474611742475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.723425577104263</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-20.58054150477091</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4419268542656152</v>
+        <v>0.6610165573270095</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4274.748811241908</v>
+        <v>3711.445328425466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02996045108048399</v>
+        <v>0.06828736167621156</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.46076282252866</v>
+        <v>17.76586727936909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4838785480195722</v>
+        <v>0.8936010752992725</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.0966528014575</v>
+        <v>335.5406237826579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007644645579256748</v>
+        <v>0.0001067964555789873</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2434964789611826</v>
+        <v>0.3803003563482388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2149121314027722</v>
+        <v>0.05635745202490585</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001001786581219543</v>
+        <v>3.529331545894438e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5709670514738822</v>
+        <v>0.8473743939871538</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-52.94700636004125</v>
+        <v>-49.32228714019492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009297005385779624</v>
+        <v>0.0197011546234229</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.06138192224299</v>
+        <v>11.90573362149346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.124466791466484</v>
+        <v>0.1488962335383814</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5024.830676695801</v>
+        <v>-1648.195210018377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07681012348448181</v>
+        <v>0.5070330301236959</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-141.6776624461163</v>
+        <v>-949.9007982941948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9229840609599317</v>
+        <v>0.5268311020316796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28869.77163216486</v>
+        <v>41.9179932938232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02750531121077785</v>
+        <v>0.9871057053819092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-54.53463451187417</v>
+        <v>-19.47057766891395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9823394920461175</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-30.23363261421115</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2744747675745776</v>
+        <v>0.4953178307643076</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5922.884049160213</v>
+        <v>5912.468540988438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005557031232565296</v>
+        <v>0.004869690272139839</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.0544709037502</v>
+        <v>159.0288241395848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1396143969094282</v>
+        <v>0.1313558718199601</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.6420391665651</v>
+        <v>186.9642882305449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006326899552857462</v>
+        <v>0.003015150117533584</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2603481774060066</v>
+        <v>0.2652550057534984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.157225013213381</v>
+        <v>0.09784204824157854</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002409524262904654</v>
+        <v>-0.0002435628863893134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2013883596966922</v>
+        <v>0.1772247799544673</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.18781489505569</v>
+        <v>-27.21337434703051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1569154873382936</v>
+        <v>0.1510252068035008</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.727114207816308</v>
+        <v>-7.763275420905007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.499352944078434</v>
+        <v>0.4910191685917877</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>134.7250051796509</v>
+        <v>189.1334853750459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9528376640201009</v>
+        <v>0.9260324566849445</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-938.1764052443189</v>
+        <v>-957.3276985675743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4819646978463089</v>
+        <v>0.4523186985365597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>587.8120226205283</v>
+        <v>4279.558231314544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9549730488549961</v>
+        <v>0.06057588836488263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4282.599371770989</v>
+        <v>-46.41308047784035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06389911647088067</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46.69084361864504</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05030068937289146</v>
+        <v>0.04386235486337146</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5181.018758384384</v>
+        <v>5225.452628517154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01273195567520362</v>
+        <v>0.01190738459167961</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.50228091796507</v>
+        <v>-27.99968605665973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8942167957625713</v>
+        <v>0.8305542039062399</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.6294719266421</v>
+        <v>305.0331314940884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003182233310405019</v>
+        <v>0.0001718525210909412</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1488985658117612</v>
+        <v>0.1925975428265863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4730463006456546</v>
+        <v>0.3429156933819293</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.266005649893479e-06</v>
+        <v>6.982686842570986e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9831817268047709</v>
+        <v>0.972461520126636</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.81897740155286</v>
+        <v>-33.78824583890573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06960324332936473</v>
+        <v>0.09651592920906529</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.30947335947875</v>
+        <v>14.81507247922078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08707079406979518</v>
+        <v>0.07605125376169546</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2763.920714743932</v>
+        <v>-2546.387628904779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3524238472749027</v>
+        <v>0.3896452887183706</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3338771183357</v>
+        <v>-200.4407010132843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8575495742292537</v>
+        <v>0.8920615705636536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13535.6998652929</v>
+        <v>260.1752041141872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3280742412586489</v>
+        <v>0.9246829580877729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1079.405596050779</v>
+        <v>-63.16485154324452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7076964181982027</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-62.42961739613542</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03672351477911551</v>
+        <v>0.03442929200077356</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2203.555007704645</v>
+        <v>2021.785094360155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3117934670189995</v>
+        <v>0.3421967283544621</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.6002436248437</v>
+        <v>54.24153027629785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6177445372364732</v>
+        <v>0.6842379624010507</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.1317649206898</v>
+        <v>305.4931808319381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009082196458047052</v>
+        <v>8.839899666600465e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1451147115216171</v>
+        <v>0.1895410814213927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4545052306153111</v>
+        <v>0.2744444459966359</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.555034840955345e-05</v>
+        <v>3.453951940595796e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7693728847048882</v>
+        <v>0.8506171354065251</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.6260842944782</v>
+        <v>-32.5346931658255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148635954528307</v>
+        <v>0.1563313243508974</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.32123151203662</v>
+        <v>22.14077500768759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01779766619052668</v>
+        <v>0.01750054282500125</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2155.402809437225</v>
+        <v>-1673.405851929506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4073532582576606</v>
+        <v>0.4867158264720479</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>690.6846673341643</v>
+        <v>388.291306045659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6980936943780803</v>
+        <v>0.8158885799310498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6331.924456389039</v>
+        <v>4823.414525110726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6010029502098813</v>
+        <v>0.111415305288204</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4771.394404015687</v>
+        <v>-37.18703803271939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1188302713549355</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-40.88623268176371</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1720001158386476</v>
+        <v>0.1959676354030877</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2643.713119168558</v>
+        <v>2073.399724571296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1844602405767427</v>
+        <v>0.305320974314862</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.23939260783519</v>
+        <v>-61.08284943427671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9337650600358878</v>
+        <v>0.6560030261535714</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.4813589064277</v>
+        <v>342.6964966348797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008814679025322001</v>
+        <v>7.739632364491312e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1444082583444606</v>
+        <v>0.2609480680704132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4319324430620244</v>
+        <v>0.1478380907231986</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.828916600488265e-05</v>
+        <v>-5.724574412452534e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8768120664601784</v>
+        <v>0.7605889472040805</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.38352554800672</v>
+        <v>-29.0608322994837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1000799191182895</v>
+        <v>0.1263465739578104</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.91625778528867</v>
+        <v>21.76814258691274</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01237795149953988</v>
+        <v>0.01572406893940335</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3155.343428105333</v>
+        <v>-1501.148160930805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1937923295028268</v>
+        <v>0.5165728304269843</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-141.1530240358084</v>
+        <v>-632.8444583542434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.922630468843366</v>
+        <v>0.6685535882647504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22314.0464663559</v>
+        <v>2813.022282003441</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06529546206965091</v>
+        <v>0.3366498544240104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2173.554169068213</v>
+        <v>-21.60176671528238</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4456072358445717</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-29.75416883342832</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2546638799051249</v>
+        <v>0.4146324251414721</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3368.312929706804</v>
+        <v>3142.959113582005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09668537024223332</v>
+        <v>0.1163876280255225</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.6765518242163</v>
+        <v>110.5780944267349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2592072666623311</v>
+        <v>0.3679808623134881</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.0810111483503</v>
+        <v>270.7161470908886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005324282790471085</v>
+        <v>0.0004690958731181667</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08525000903192104</v>
+        <v>0.1928729882608268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7178868792643684</v>
+        <v>0.3439112322112043</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.791299980199073e-05</v>
+        <v>-0.0001438566267778419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7195938823413806</v>
+        <v>0.4811427262106178</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.684978379374584</v>
+        <v>-6.905843262859037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7208092773485935</v>
+        <v>0.7472509688718212</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.89352872681207</v>
+        <v>16.58631629908094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04443642013671267</v>
+        <v>0.04738173473325986</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2509.537246146574</v>
+        <v>-1461.340716707136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3611458518246836</v>
+        <v>0.5542796507803759</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1282.972091043083</v>
+        <v>-1941.999938696862</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4528940096019919</v>
+        <v>0.2099269758795345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11141.2193433125</v>
+        <v>2394.044744704212</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3711760578110954</v>
+        <v>0.3751365078610343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2529.006658982803</v>
+        <v>-42.94316724458866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.35109678152153</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-49.98323427584602</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06844522684810737</v>
+        <v>0.0993019181848772</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4821.902200670782</v>
+        <v>4747.227374096872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01481740122023384</v>
+        <v>0.01516846584134452</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.6389061544234</v>
+        <v>182.9665268271906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1381927131671932</v>
+        <v>0.1617243745041535</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.6300271490378</v>
+        <v>252.7217034975515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004667452860419924</v>
+        <v>0.001189474346378058</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1566690435766973</v>
+        <v>0.203910911644887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4133355062523507</v>
+        <v>0.2385509461023799</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.752356879485635e-05</v>
+        <v>-4.003207049892252e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9265219096365078</v>
+        <v>0.82830186192043</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.5114660689719</v>
+        <v>-32.44303644351601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09566812725084975</v>
+        <v>0.09345425238329823</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.40465263981807</v>
+        <v>11.98009786874437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1387641871426985</v>
+        <v>0.1473372707793028</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1848.206817915</v>
+        <v>-1163.652202504122</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5015777328484932</v>
+        <v>0.6369067481674375</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.1777872045761</v>
+        <v>352.6584446109553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6856455545238913</v>
+        <v>0.808824736902965</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7247.392474551656</v>
+        <v>1244.815880348143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5572613680207064</v>
+        <v>0.6310475173543919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1344.764895916891</v>
+        <v>-67.8173049107846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6078316288663188</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-70.94844512277274</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01678877420594311</v>
+        <v>0.01867979219736819</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3118.288731085047</v>
+        <v>2954.647067992993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1686574682374336</v>
+        <v>0.1862337439337919</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.2329886134046</v>
+        <v>79.14959353993163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4260156411698214</v>
+        <v>0.5260733443571514</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.5098169500602</v>
+        <v>277.6164618377567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002823609077969602</v>
+        <v>0.0004270167715911083</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3132308441709847</v>
+        <v>0.3822763779505232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2051937634543655</v>
+        <v>0.09122161045428241</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.996933443854481e-05</v>
+        <v>3.063714360190269e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.801501885700652</v>
+        <v>0.8754598188659801</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-50.93169045566192</v>
+        <v>-51.53019328899931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03166441497215532</v>
+        <v>0.028603885221349</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.53384654816345</v>
+        <v>16.46813802282878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05277959623335726</v>
+        <v>0.05204734341525338</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2140.618629732542</v>
+        <v>-1256.007364465145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4503976086745081</v>
+        <v>0.61710034797735</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.4870967948482</v>
+        <v>381.1237227900201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6971835133625394</v>
+        <v>0.8215492684407436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8590.470967449</v>
+        <v>1690.665925153261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4871366828052729</v>
+        <v>0.531584376581099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1927.061884163411</v>
+        <v>-27.65147761757352</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4824122612862197</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-31.88763028734169</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2927056222456244</v>
+        <v>0.3475997508190674</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6225.046086833358</v>
+        <v>5921.93146542509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00255699362719828</v>
+        <v>0.003693656213362255</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.466332886118721</v>
+        <v>-51.97353134377076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968318973289299</v>
+        <v>0.632293801392195</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.0031163155832</v>
+        <v>196.364514882693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03201054877356799</v>
+        <v>0.002521650721298995</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3007789126926923</v>
+        <v>0.3339100450263416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07745418721100364</v>
+        <v>0.04835588601253715</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001703208681985178</v>
+        <v>-0.0001418240146462209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3363938075207777</v>
+        <v>0.4195816974310325</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-62.49052083501536</v>
+        <v>-57.81870283135587</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001518311258956961</v>
+        <v>0.002514394041059458</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.94266267484294</v>
+        <v>-15.05575777112485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1181854590104568</v>
+        <v>0.1782540232690663</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.041477315008</v>
+        <v>1803.98302582414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5396129726275953</v>
+        <v>0.5170529126990382</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.2820965647563</v>
+        <v>-178.6522804489119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8343623702653619</v>
+        <v>0.884136319340767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13954.82289332777</v>
+        <v>4938.686777277589</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2584523999232201</v>
+        <v>0.0459657194873013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5909.543843761376</v>
+        <v>-2.983284639375391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02494419214522852</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.505049393139494</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8562675603958294</v>
+        <v>0.9047358852400944</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6292.585289675678</v>
+        <v>5865.944114925147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002863588839358641</v>
+        <v>0.004477247649270922</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.69115360974163</v>
+        <v>-38.0069913230287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9019821602463067</v>
+        <v>0.7081788848512904</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.9734650066282</v>
+        <v>225.9984257663591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01516602156356692</v>
+        <v>0.0004580101744735219</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1663592164733007</v>
+        <v>0.2090467248712696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2874538743527246</v>
+        <v>0.1712429530161349</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.985956973926547e-06</v>
+        <v>-1.291989706020435e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9581427092917587</v>
+        <v>0.9325229517453897</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-53.35028931059329</v>
+        <v>-46.74262602093769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01344274363083065</v>
+        <v>0.02331979020544685</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.72093306225436</v>
+        <v>-10.00857780616807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2711578283852019</v>
+        <v>0.3759116392845363</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1359.920935413825</v>
+        <v>-1119.221066523151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5568191295632076</v>
+        <v>0.6280404937744595</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.0946792730037</v>
+        <v>22.29434503217317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6604978869272311</v>
+        <v>0.9844175846050525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13067.68383489141</v>
+        <v>2585.356044203085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2664245067364363</v>
+        <v>0.2808191368679874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3635.095582263293</v>
+        <v>-16.54565009445253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1594027641290793</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-19.69102695789191</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4124925207633752</v>
+        <v>0.4888796678854432</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3820.782305767346</v>
+        <v>3722.54338620925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06526799411645667</v>
+        <v>0.06361608852931516</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.82292065156383</v>
+        <v>-60.52817484797946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7046418023184856</v>
+        <v>0.6328233534966793</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.3238511433512</v>
+        <v>255.54310224371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002654124040486756</v>
+        <v>0.0006189372136909759</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2410752462775029</v>
+        <v>0.2658821168252287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2576167683155747</v>
+        <v>0.1528721494462353</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.398097509518515e-05</v>
+        <v>-7.319346778912356e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7577011797445913</v>
+        <v>0.7165066508215068</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-38.85800834355584</v>
+        <v>-39.01699384992132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0586451348589476</v>
+        <v>0.05450476781187441</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.02559397698569</v>
+        <v>19.04568923575602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02060894523170114</v>
+        <v>0.01895743742192296</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-871.4948903817458</v>
+        <v>-486.8921381445471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7686345301316252</v>
+        <v>0.844962551056728</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>298.2951330663436</v>
+        <v>211.7678422107285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8573709163185994</v>
+        <v>0.8948619859677436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3292.721243954886</v>
+        <v>1216.882533291303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8046467455696181</v>
+        <v>0.6335982590245626</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1288.115051874177</v>
+        <v>-36.02072659053494</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6204366018750951</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-38.08583772617536</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1818564549735013</v>
+        <v>0.1806752304247893</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4061.343278492041</v>
+        <v>4051.26721059279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03102787422985081</v>
+        <v>0.03088074135172741</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.22826436987857</v>
+        <v>88.80979984605619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4198871084560558</v>
+        <v>0.4583762742186925</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.7779350567321</v>
+        <v>241.7987163369113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004905960605124065</v>
+        <v>0.003245383754526288</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2424249567739017</v>
+        <v>0.2977818881281427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2410091127514377</v>
+        <v>0.1320553092874231</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.928108591320593e-05</v>
+        <v>-0.000116654265056397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6533081681132646</v>
+        <v>0.4959510712439601</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.11196991152047</v>
+        <v>-23.25952390048092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2445921913496033</v>
+        <v>0.2769947994539486</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.98563405059373</v>
+        <v>14.43848644786532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05084716336149477</v>
+        <v>0.05787937610885877</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2290.256370056846</v>
+        <v>-1345.574055664511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3511346366363571</v>
+        <v>0.5411900622244816</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1513.260679439712</v>
+        <v>-1821.327196589211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3317994546222843</v>
+        <v>0.2311466970649584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10806.31186348998</v>
+        <v>1338.801149237437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3730446976197097</v>
+        <v>0.5881378180668159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1236.460202177716</v>
+        <v>-41.98250751524701</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6181705262863051</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.72635594167971</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1285880552341665</v>
+        <v>0.1338788956925366</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3282.870537305404</v>
+        <v>2953.850724467187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1792398047161424</v>
+        <v>0.2301741674758479</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.9139457412008</v>
+        <v>167.9589483157495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09601081454485628</v>
+        <v>0.2109663417301805</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.7193736662723</v>
+        <v>329.8401707746955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001229022883773307</v>
+        <v>4.147368202031976e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00877584830517153</v>
+        <v>0.1325570886673449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9637828817295461</v>
+        <v>0.4529182061391308</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001245416943624189</v>
+        <v>7.616545201565421e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5023599827308141</v>
+        <v>0.6804011820091652</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.13794002657919</v>
+        <v>-28.3064717118381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2104890403129261</v>
+        <v>0.2140607045045144</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.44085366715468</v>
+        <v>13.23265042338075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1297076637720312</v>
+        <v>0.1408270931957055</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3643.922313429784</v>
+        <v>-2287.249003020817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1447946282588216</v>
+        <v>0.3256834232284387</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1419.11862152041</v>
+        <v>749.3540079564791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3477767050910684</v>
+        <v>0.606081255668141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16791.98198128583</v>
+        <v>578.7992631982934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1517893930388982</v>
+        <v>0.8331116407901007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>773.3342101815974</v>
+        <v>-40.50430463202967</v>
       </c>
       <c r="C12" t="n">
-        <v>0.775531670747146</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-50.11395829356361</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.119202664939569</v>
+        <v>0.2016846180508245</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2917.334731423067</v>
+        <v>2544.872734928758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1448732006760131</v>
+        <v>0.2011311862022185</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.5671233224725</v>
+        <v>75.16699120721552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3694685756981755</v>
+        <v>0.558772092300198</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.7544902191958</v>
+        <v>249.4149375407736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01677144810198632</v>
+        <v>0.0009947005913225903</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0995266567580845</v>
+        <v>0.1974760595214561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6011201085107414</v>
+        <v>0.2660630391321724</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.328989969546938e-05</v>
+        <v>-1.148557322912034e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9000557026843626</v>
+        <v>0.9505332114235809</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.18158497341788</v>
+        <v>-27.24112427570998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1533812814163438</v>
+        <v>0.1559277823970936</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.44508515163807</v>
+        <v>19.90201713721881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.021886346585397</v>
+        <v>0.02635785545581179</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3309.685366337254</v>
+        <v>-1927.70163017311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1980383895861601</v>
+        <v>0.4108292828693912</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-154.0519349057558</v>
+        <v>-662.9583632095453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9138874037313258</v>
+        <v>0.6320219969588193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15308.08653246869</v>
+        <v>3003.810004427971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1963119125786268</v>
+        <v>0.2755982389209081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2928.575621112172</v>
+        <v>-28.69702142416028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.283614396807062</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-36.39886440359042</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1903635157388078</v>
+        <v>0.2927767354607504</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58698325" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58983258" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ59183081" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ59384492" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ59587498" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59795449" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ00011029" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ00305660" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ00507258" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ00707481" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ00974451" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ01189084" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ01405086" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ01618038" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ01826186" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ02031998" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ02245801" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ02510707" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ02723628" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ02926805" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ03144338" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ03384767" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ03604924" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ03844106" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ04063469" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ04308173" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ04553061" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ04820695" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ05046901" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ05268420" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ05516220" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ05728402" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ05929619" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ06127570" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ06330763" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ06537675" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ06752144" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ06957268" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ07156966" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ07359855" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ07569818" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ07767631" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ07975570" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ08181489" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ08385507" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ08594758" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ08811759" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ09024058" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ09255450" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ09454273" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ35338388" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ35563942" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ35824308" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36075145" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36316770" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ36519946" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ36717514" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ36920350" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37124477" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ37324479" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ37519398" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ37714847" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ37925511" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ38137079" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ38389275" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38611238" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38813865" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ39015734" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ39265280" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ39459565" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ39655417" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ39862186" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ40056728" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ40261756" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ40462457" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ40664903" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ40870602" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ41073953" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ41277971" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ41477182" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ41673552" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ41870424" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ42074638" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ42269508" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ42469808" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ42670374" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ42968835" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ43189391" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ43391898" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ43592520" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ43794620" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ43988753" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ44199151" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ44435607" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ44704796" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ45016578" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ45289204" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ45553748" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ45817306" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ46105717" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35338388" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35563942" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35824308" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36075145" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ36316770" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ36519946" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ36717514" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ36920350" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37124477" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ37324479" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ37519398" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ37714847" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ37925511" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ38137079" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ38389275" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38611238" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38813865" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ39015734" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ39265280" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ39459565" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ39655417" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ39862186" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ40056728" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ40261756" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ40462457" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ40664903" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ40870602" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ41073953" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ41277971" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ41477182" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ41673552" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ41870424" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ42074638" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ42269508" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ42469808" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ42670374" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ42968835" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ43189391" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ43391898" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ43592520" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ43794620" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ43988753" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ44199151" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ44435607" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ44704796" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ45016578" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ45289204" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ45553748" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ45817306" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ46105717" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ47008656" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ47239512" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ47479575" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47699819" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47932519" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48173533" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ48405452" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48623531" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ48851595" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ49063971" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ49312073" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ49548444" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ49770137" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ49997788" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ50239677" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ50469126" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ50708889" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ50947896" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ51185628" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ51421405" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ51662534" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ51886131" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ52114860" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ52346273" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ52574472" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ52816517" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ53047902" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ53289115" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ53530852" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ53775166" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ54016610" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ54243760" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ54499476" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ54746452" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ54969898" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ55207557" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ55440723" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ55673993" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ55915753" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ56172964" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ56410891" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ56635606" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ56851782" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ57092000" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ57334983" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ57582958" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ57830539" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ58080146" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ58320313" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ58565512" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5464.585973716517</v>
+        <v>4957.854703784153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006650151337115538</v>
+        <v>0.0006040432159567179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.6240986869397</v>
+        <v>384.8121505584409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2629858977053007</v>
+        <v>0.001281224628815126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.1251250579097</v>
+        <v>-0.03393260038156548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004660807402415265</v>
+        <v>0.8119175124993105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1819251818866821</v>
+        <v>39.49468651168445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3218352918569893</v>
+        <v>0.9929838110243031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.73239794842001e-05</v>
+        <v>-3389.802922108918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8332512793947207</v>
+        <v>0.04363714804439504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.46976082870269</v>
+        <v>-57.94269560155396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04919351145629759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.07555991160638</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.12112055433263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1800.78545154571</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4323968919782092</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>552.9985623215086</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7072400211784975</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1057.706695249187</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6797846382702728</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-66.19313858598592</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02036918406483395</v>
+        <v>0.7626191887213967</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6354.671307809451</v>
+        <v>4756.774604291946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004860393353735696</v>
+        <v>0.002524303395843146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.55767521674301</v>
+        <v>363.5381773740622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8855886118653891</v>
+        <v>0.004838888772179728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.9259115231516</v>
+        <v>-0.06073374807860325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006428526092842738</v>
+        <v>0.7562223783005922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2862368385077051</v>
+        <v>-1264.266244165869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1364775563704257</v>
+        <v>0.7815872093372993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.911202841788634e-05</v>
+        <v>-2920.887601885248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6432813829986455</v>
+        <v>0.1326625825908303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-48.75822033315376</v>
+        <v>45.43595454953862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02209195984240103</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-14.41286383716173</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2739270096074453</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-213.715495194876</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.939228471109455</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-318.8994984519784</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8254434083432076</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4099.005949187175</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1590862116813289</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-28.97796405917135</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2729591721050008</v>
+        <v>0.8326978335530095</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4539.366490819189</v>
+        <v>4825.773040041029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02565288965123711</v>
+        <v>0.0004405801754632562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-89.9226926360156</v>
+        <v>430.6940289129936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4655009450307264</v>
+        <v>0.0003343621096909612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.6072052845331</v>
+        <v>0.03527102436106133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003985033470597272</v>
+        <v>0.8096980427930829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2019983396786912</v>
+        <v>-1146.897130958672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2680360669392512</v>
+        <v>0.7888556987963091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.890652990370608e-05</v>
+        <v>-3428.015262039588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8812666515599563</v>
+        <v>0.04819553373185339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.43703382110753</v>
+        <v>-158.1305258537538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1212344348485467</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.32444126503395</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04015508100242001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2241.078842480227</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3589347535572779</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-210.7955379573277</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8878446975267112</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1634.463037917265</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5416056406116623</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-48.86337971315464</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06950804786621732</v>
+        <v>0.4408629079876437</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2672.10775049586</v>
+        <v>2407.092733808703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2189432015526821</v>
+        <v>0.03343973981022225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.69532889866494</v>
+        <v>306.4168468886769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7891995846751296</v>
+        <v>0.001975205043918774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.3521474517676</v>
+        <v>-0.006871016065555638</v>
       </c>
       <c r="C4" t="n">
-        <v>9.651752959795854e-05</v>
+        <v>0.9641265551903513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4571396035841</v>
+        <v>9402.078282826787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0604454955383211</v>
+        <v>0.03962215586996972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.388005327713232e-05</v>
+        <v>-1732.619542567543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7793363640528569</v>
+        <v>0.2665982869308945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-49.93532518663393</v>
+        <v>121.035079228166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0563315509386206</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.20270125084408</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06778655949063125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1602.165776146304</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6088783777333208</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-197.1843376726883</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8923443524997287</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1293.617377405099</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6270885546811822</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-21.06715683367641</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4793767823695939</v>
+        <v>0.4377224397581477</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3694.209853363908</v>
+        <v>5267.832360171918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06385550422643332</v>
+        <v>0.0002230841090642669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250.0788796699952</v>
+        <v>249.3770666429778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07688440422110171</v>
+        <v>0.02941928973252812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.6029997208579</v>
+        <v>-0.03488311795090032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004655721692834853</v>
+        <v>0.7998259251207406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1343283882822738</v>
+        <v>-6303.308986690176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4423555319407958</v>
+        <v>0.1711391761206309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.582194576758112e-05</v>
+        <v>-2865.754972094725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7501934986692149</v>
+        <v>0.08173465662612987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.34347715480638</v>
+        <v>242.4741735353429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1709576220871543</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.94692352068168</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1417842806447282</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1941.987058178937</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4086492999534977</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-73.48026276251539</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9590558143574436</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-731.8746113534439</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7894366864688371</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.23006695696098</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09339593618203115</v>
+        <v>0.1909836195956914</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6555.98631355315</v>
+        <v>4941.31547332253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005948124306923701</v>
+        <v>0.0004588730314390213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.5289531508364</v>
+        <v>405.4131592727572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3705757355081033</v>
+        <v>0.0007505603079825488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.0676525663171</v>
+        <v>-0.06216883127691283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006556721177611662</v>
+        <v>0.6580847573761076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2119908063508791</v>
+        <v>-2367.752120902615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1489558709894501</v>
+        <v>0.6037269106200444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001544108584821933</v>
+        <v>-2467.761571564649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3306033364780704</v>
+        <v>0.1352124138960534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.00064413526533</v>
+        <v>-84.69559343774722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.116972159170257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.093295934530831</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3590065647552263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-372.3465658248278</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8430441953789728</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1379.020842945827</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.305108735615642</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2591.790710458386</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2289081448818025</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.7229935003771</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05354423807615365</v>
+        <v>0.6609741222911114</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>970.83406626551</v>
+        <v>4777.632157598012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6560843604339684</v>
+        <v>0.001659592674857257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.376221443843491</v>
+        <v>405.3195663142273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9552252581191053</v>
+        <v>0.0005023694049186786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.3066156912802</v>
+        <v>-0.02938543400934135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002693151771712072</v>
+        <v>0.8252455245987229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1496192124681759</v>
+        <v>610.858634184744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3944773968600431</v>
+        <v>0.8881502593965021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.087921107539442e-05</v>
+        <v>-3917.184765475597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7372338263353211</v>
+        <v>0.02175087721158698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.27166561905778</v>
+        <v>17.33800225427575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.108345419185807</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25.61057885797489</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006611045412177327</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1053.201802642243</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.668845288655053</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>380.2699200535531</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7975465606834393</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5506.788838139757</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06996996643396186</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.87002850992034</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.536395429061906</v>
+        <v>0.928283256398176</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2201.187136102421</v>
+        <v>4617.795726289547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2952994099156779</v>
+        <v>0.001013575293103454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.96673717384357</v>
+        <v>379.7894028055264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8958607197230024</v>
+        <v>0.001245605624658913</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303.9843467830499</v>
+        <v>-0.07499605327771083</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001155086719514759</v>
+        <v>0.5971106044324788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02498411851622379</v>
+        <v>-1399.816545319055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8865727284064475</v>
+        <v>0.7476591903087826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.411903978752203e-05</v>
+        <v>-2399.72438083121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7990022829545351</v>
+        <v>0.16213284652506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.805632752937647</v>
+        <v>6.403838109308765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6661163008978106</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.44925108594984</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00833704314413629</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2627.090164595048</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2435168608355026</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-737.442082951007</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5971819464032291</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2646.369527252377</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3645594080523896</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.03571655099358</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2245536740348365</v>
+        <v>0.9735104369743574</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4063.739187782767</v>
+        <v>5406.390829830492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03402266697985149</v>
+        <v>0.0001121810377757063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.0886158277482</v>
+        <v>265.3615857712496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2930959938227378</v>
+        <v>0.02117680436897428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.9080419154662</v>
+        <v>0.0497413702094324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00178597644592916</v>
+        <v>0.7901333354637883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4339651026301431</v>
+        <v>-4986.272370229626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03447536963074924</v>
+        <v>0.2789473842677542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002480131760776223</v>
+        <v>-3740.315070673244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2198210583853825</v>
+        <v>0.03959957897396844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.76561457778069</v>
+        <v>180.843230174803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05927285826027236</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.47190053035819</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05148585766127536</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>713.9362457747939</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7492204357275355</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-670.4378953368919</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6387044837972251</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>339.1947087389749</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.884893482532107</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-47.92590601112141</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07533994992912033</v>
+        <v>0.3337184420482585</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3336.282458445894</v>
+        <v>2851.068885151829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1287633527850313</v>
+        <v>0.0184059656758804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.5442940141327</v>
+        <v>344.9952142005925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2417305671224977</v>
+        <v>0.001142389567625882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.1620878163813</v>
+        <v>-0.0676355705930667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002813054850373371</v>
+        <v>0.5674720748335709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2447952532737112</v>
+        <v>4942.960386107353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2191382741269328</v>
+        <v>0.2909018904140255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.474792079869437e-05</v>
+        <v>-756.7565728295264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8666263520429305</v>
+        <v>0.620822544616932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.2240064599536</v>
+        <v>112.8305552203576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1216147941791834</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.92650206263622</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1235973375632455</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1285.903356707576</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6893438732923074</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>208.4369615453857</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8960903145436726</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1730.825950267559</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.562342706127275</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.84755577463432</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1640277192269124</v>
+        <v>0.4986174291817167</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3553.64077328244</v>
+        <v>4574.790342373576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04312718100621264</v>
+        <v>0.001997849332968383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8651358509189322</v>
+        <v>377.4119049997314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9939178965537387</v>
+        <v>0.00114850054337378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.2060546989497</v>
+        <v>-0.03452240136953785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002006591927118892</v>
+        <v>0.8025142054858212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2831906810387977</v>
+        <v>881.2122271275093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09863625430448351</v>
+        <v>0.8339493162012703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.367234587335399e-08</v>
+        <v>-2764.207947027864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999437510201709</v>
+        <v>0.09507716838794313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-47.50154775213866</v>
+        <v>-86.85269985823902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02731187083036168</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.92410791974504</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06971419840281934</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2052.502104775443</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3542276109468445</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-25.14493043945004</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9858253058245916</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1138.788515205968</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6311240041090715</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-16.02096742404704</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5329613716040261</v>
+        <v>0.6635122549586996</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2584.89716136049</v>
+        <v>4966.761960142112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1911188405947133</v>
+        <v>0.00121494634268454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.575868362144661</v>
+        <v>441.2785387753389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9900558890511899</v>
+        <v>0.0004033432429743615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.5793984063886</v>
+        <v>0.03829405486604223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000269914228699629</v>
+        <v>0.7957964422572438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2947752028564736</v>
+        <v>-3467.976490744004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1631833022674718</v>
+        <v>0.4565287445864006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.236562584624393e-05</v>
+        <v>-3659.003339698083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6906327243371346</v>
+        <v>0.0490650852247542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.22566865444165</v>
+        <v>-25.89535940604384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103336011273538</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.07161921930691</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01701929123990448</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1130.195360161542</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6467324260867251</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-210.5710713831854</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8869801658031109</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3479.804433983767</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2191589488650011</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-37.0492858137452</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1792003095082599</v>
+        <v>0.9051212100232909</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6377.761046341027</v>
+        <v>4345.772349743867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009278552102418167</v>
+        <v>0.002350966465056529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.66103177067157</v>
+        <v>427.9570167660648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9545149896675369</v>
+        <v>0.0006280161362324855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.003038356195</v>
+        <v>0.008692411004241715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002837279733582262</v>
+        <v>0.9537885719685451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2006398270345851</v>
+        <v>-115.3463981116183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2178279920231032</v>
+        <v>0.9804137443939632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.245595038772536e-05</v>
+        <v>-3279.411267290274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9414919304780717</v>
+        <v>0.05390744597970321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-41.56879485153497</v>
+        <v>-27.38062525854372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03843767202001749</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.50905650995418</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3231360109896539</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2071.639044598077</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3660753383498114</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-386.1757369947222</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7928111750030218</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4442.747049049602</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09493116833340796</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-37.73855766466777</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1338238364211237</v>
+        <v>0.8865810716699549</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3427.355932869507</v>
+        <v>5194.619938384553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1178083494188985</v>
+        <v>5.906771262029475e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.43869053747403</v>
+        <v>299.2377572429347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6272551063130168</v>
+        <v>0.004016646969435008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.3572250916208</v>
+        <v>-0.06997106745498444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002184703266676633</v>
+        <v>0.5602896850391403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2276120813495596</v>
+        <v>-4437.525801420705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2682782607693362</v>
+        <v>0.3006943417433914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.219090884026547e-05</v>
+        <v>-2472.184438311492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8165997005492476</v>
+        <v>0.09185358880110583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-38.84424721856471</v>
+        <v>67.56960693999946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1122264091207719</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.92717458498475</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1445007691504613</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1196.44693526744</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6584564055940847</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9.661861969849269</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9953631339283411</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1887.429753949767</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5270463369714777</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-37.05043501912465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2091496334863333</v>
+        <v>0.7023104791475558</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5798.967113701021</v>
+        <v>2541.502033225437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001952557131038593</v>
+        <v>0.02523291234907252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.9657780460636</v>
+        <v>317.0126458276916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008891955711947095</v>
+        <v>0.001399285879530886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.2365037849817</v>
+        <v>-0.05910542786885578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05376922250892634</v>
+        <v>0.635491427890857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2203646672217737</v>
+        <v>8825.049770016945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1709011763775253</v>
+        <v>0.05536908585860024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001021821240933579</v>
+        <v>-1040.70362774256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4769034452095546</v>
+        <v>0.5109183923756762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-38.1501962874805</v>
+        <v>84.77602935548856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03147486078305271</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.83726194780699</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1584181593197207</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>50.91690427696221</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9811365267699188</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>269.2887598369903</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7996829658001036</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4613.917333492516</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04145256125591902</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.5651300432198</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1153925144528949</v>
+        <v>0.5777241536024156</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1534.758858617746</v>
+        <v>4120.24298485799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4435611144608103</v>
+        <v>0.004197936163475724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-51.92968750131624</v>
+        <v>400.32163561622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.689693539319999</v>
+        <v>0.0003568384549782105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.6226468650851</v>
+        <v>0.008693108111627268</v>
       </c>
       <c r="C4" t="n">
-        <v>9.212086697569699e-06</v>
+        <v>0.9516427456045325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2171018211894278</v>
+        <v>1286.616065212611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1823091329899959</v>
+        <v>0.7619301701301717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.075051805705746e-05</v>
+        <v>-3235.338847818573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9486865071121507</v>
+        <v>0.05192048133981577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.76132464491586</v>
+        <v>64.12058511155419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.152710284493354</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.70519670411631</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.007605874122530854</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2009.112160350038</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3528198836106256</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-315.0680630205745</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8209483298761816</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.90149885860751</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9921674294920866</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.670866589046724</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7281727318036648</v>
+        <v>0.7365919442302084</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3694.264973199479</v>
+        <v>4674.829032609505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04984349274808017</v>
+        <v>0.002146966671164297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-66.57871480740116</v>
+        <v>419.0525132334058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5622431663857772</v>
+        <v>0.001830170330490469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.5912518612477</v>
+        <v>0.06221721167949473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007235795057900151</v>
+        <v>0.7443086909488816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.339358176821019</v>
+        <v>-1867.781074508822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05917361055775284</v>
+        <v>0.6785528259050193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001695081728703929</v>
+        <v>-3739.139359572718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3669345354340584</v>
+        <v>0.04090884297598655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.42889464320067</v>
+        <v>-24.90594051167068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0615725189871489</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.81008870424297</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02712816724461737</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1274.5148830281</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5855877998812253</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-905.5601082881744</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4998318899913393</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1237.909364207368</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6005805646449811</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.00847787803581</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2957529263820795</v>
+        <v>0.9129347839319084</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3530.017817810997</v>
+        <v>4998.870971791948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09412489857385674</v>
+        <v>0.0007941054703900719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.4655361696773</v>
+        <v>429.2959336822029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3391997121263934</v>
+        <v>0.0007520213014570398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.0975590511435</v>
+        <v>-0.04169511055996834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005578348157353857</v>
+        <v>0.7708481367970095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1741716900023466</v>
+        <v>-3262.524031176546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3502379464899572</v>
+        <v>0.4868478996751365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.345543705439299e-05</v>
+        <v>-2757.791081918854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6310781221597039</v>
+        <v>0.119044996763842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.82549908113737</v>
+        <v>-61.89881136125183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4746546775197066</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.12328062380747</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07414540265939021</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-858.992573628484</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7259639610543105</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1141.166627727202</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5206427956339652</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1334.730666980375</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6274568129951731</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-47.70398250686106</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09771869203909875</v>
+        <v>0.7513712119553988</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3222.858245146823</v>
+        <v>6004.218637642212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1403391695182079</v>
+        <v>4.177189981170027e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.98328347448961</v>
+        <v>308.5456338125358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.799540806238716</v>
+        <v>0.005095294058698078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.8206760491705</v>
+        <v>-0.01206971376122229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003572271233867114</v>
+        <v>0.9232732461567729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1782415635251149</v>
+        <v>-7157.896795031074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3523228700364814</v>
+        <v>0.1479823051482405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.32975990272638e-05</v>
+        <v>-4094.543975149278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9080232463500035</v>
+        <v>0.008360869940408196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.44634891944639</v>
+        <v>187.3504496595937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1388455865046183</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.33744752962451</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06378097007843092</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2356.783730822405</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4008761292526141</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>188.2052958996487</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9014684191559116</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1838.687531143785</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5396701985899932</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-38.67693927756499</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1631129891436399</v>
+        <v>0.2889839624339491</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3096.392009152867</v>
+        <v>5094.979205595297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09018682048779741</v>
+        <v>0.0006173264233565501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.57873346285669</v>
+        <v>398.4864521335373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.989102479659678</v>
+        <v>0.001526069734444461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5489036025027</v>
+        <v>-0.04098322401072033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002692899646017489</v>
+        <v>0.7738675521848445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04478954028104468</v>
+        <v>-41.98169143351333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7781624813945414</v>
+        <v>0.9925533410161624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.762755719107475e-05</v>
+        <v>-3694.38729150262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6979812907445938</v>
+        <v>0.03752278632860705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.80866972249204</v>
+        <v>-64.8544989224747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3332100174497615</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.58206023367679</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.004767746681241239</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1633.74481999464</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.457890647895392</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1357.827418690845</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.354555249740042</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3560.082586758412</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652823318704854</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.37169504887125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08031261902808481</v>
+        <v>0.7454599400919211</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3973.843906696884</v>
+        <v>3041.89461720422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0433275860471133</v>
+        <v>0.001802688372919642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.4808118521819</v>
+        <v>273.6402375266998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2706851554725522</v>
+        <v>0.0008206873425779393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.9266128263577</v>
+        <v>-0.0831331334381227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003036721507175227</v>
+        <v>0.4008212082888262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3569948070473503</v>
+        <v>6807.199831526494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1128214624973443</v>
+        <v>0.04269615318441804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.353053838680634e-05</v>
+        <v>-422.5266134412277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6999120050891054</v>
+        <v>0.7169202822072105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.72158544820361</v>
+        <v>-72.57749307726989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08075735655202906</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.06005747864523</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1525440909625548</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-554.8508401043036</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8498376160350893</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-274.13233268574</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8531794648949286</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2518.267280385321</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3596299881570828</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-46.6452981374143</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1272713389034887</v>
+        <v>0.5928771095182401</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3123.205084813936</v>
+        <v>4133.700357512548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1133828853002264</v>
+        <v>0.004152241973042665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13.778445061431</v>
+        <v>365.4381049958561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9229069613533751</v>
+        <v>0.003229860809255955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.1202194227749</v>
+        <v>-0.002223413308609118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001103704573814333</v>
+        <v>0.991100134995677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3114425275394888</v>
+        <v>-854.6604900897373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08601306937231949</v>
+        <v>0.8477739814450937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001571153390987481</v>
+        <v>-2385.040830510194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.412446881995027</v>
+        <v>0.2064970951671637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.34670578683623</v>
+        <v>60.11195965422013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1422555862279843</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.78616510135771</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03057949877676212</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-810.5077304174287</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7230275846409593</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-624.0343474262518</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6786849511162096</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1247.757707227264</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6213350798455665</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.12975365900763</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3046257261174103</v>
+        <v>0.7509639566061665</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1940.418588676319</v>
+        <v>3823.170889498938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4492369905649303</v>
+        <v>0.001062957667812072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.9750134841104</v>
+        <v>222.941043515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3755843593239666</v>
+        <v>0.02121306202399518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.9300593140758</v>
+        <v>-0.06620047576042357</v>
       </c>
       <c r="C4" t="n">
-        <v>8.65097225267491e-05</v>
+        <v>0.5418422694594606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2499522542793524</v>
+        <v>-622.9782381627515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1674389995262208</v>
+        <v>0.8726298967540821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.556867605737391e-05</v>
+        <v>-1642.447549131351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9393569805404527</v>
+        <v>0.2158675827695878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.63812095630708</v>
+        <v>299.1797427983757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2421459848913863</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.00897175623674</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09810668227889809</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1385.174374457216</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5720945111676132</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>103.6486182648596</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9529157630374847</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1439.582729815817</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6141719569161819</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-22.65389393236426</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4984057704373733</v>
+        <v>0.05620489820716701</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4648.513907331615</v>
+        <v>3990.569726197973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06982402997605527</v>
+        <v>0.005020600826186118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.720873424350586</v>
+        <v>448.3568588275735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9883939127888443</v>
+        <v>0.0002711106914748435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.5038388496079</v>
+        <v>-0.001454498698810078</v>
       </c>
       <c r="C4" t="n">
-        <v>5.729691867249334e-05</v>
+        <v>0.9919501830689477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2232476776239618</v>
+        <v>-457.316989463201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1816123301372758</v>
+        <v>0.9230441068662775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.224560321931401e-05</v>
+        <v>-2661.222154572585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8865380955276967</v>
+        <v>0.1402680100762835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.96371936678562</v>
+        <v>14.34835570311941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09391771168366271</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.741382825044298</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6199012067590969</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1631.912836461917</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4184255814949821</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-452.8826282713696</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7388747170121692</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1859.74362382185</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4450825890144247</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.05919703753817</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.572812511542506</v>
+        <v>0.9455541820186817</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4006.642834695389</v>
+        <v>2795.134979588775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07878798871781015</v>
+        <v>0.01555903221959307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-95.62942087030186</v>
+        <v>341.8778969969756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369262343592388</v>
+        <v>0.0003987999799438939</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.6622431352395</v>
+        <v>-0.03890055426578543</v>
       </c>
       <c r="C4" t="n">
-        <v>7.737722215115537e-07</v>
+        <v>0.7338249143781798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2240010927206016</v>
+        <v>8575.700511391282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1424692257973756</v>
+        <v>0.05504898852254446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.136659207748172e-05</v>
+        <v>-1774.62556109246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7486524341743543</v>
+        <v>0.2177171918533171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.24456582080562</v>
+        <v>50.16516948481859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100311810463078</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.334109952849762</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6230740646896663</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1399.916510752954</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4754280650895262</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-529.937248251344</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7012186854540927</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1215.107170396896</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6207448948502069</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.782632884956037</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8853042335266382</v>
+        <v>0.7369855053736291</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4960.835730430798</v>
+        <v>4722.003351776295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0185577960399714</v>
+        <v>0.0003507642461048532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.7083576160053</v>
+        <v>419.518782742463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09937657046001935</v>
+        <v>9.910803660696754e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.6245013872364</v>
+        <v>-0.03898973754686597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006140080000976884</v>
+        <v>0.7606325956290291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2678527147061762</v>
+        <v>10.91739314384904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1333526426364011</v>
+        <v>0.9980227690056123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001352274587796763</v>
+        <v>-2830.307249342573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4819925920238404</v>
+        <v>0.08651170704944088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.18095339277271</v>
+        <v>-114.9575354183164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07134549230415202</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.85056586201065</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1797981188572341</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-587.8572233251853</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8021222717671292</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>366.1508646771849</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8213240483428955</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>626.4622960456545</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8119679814986496</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-62.28404024059815</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03738976779965193</v>
+        <v>0.5537756534867376</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3796.878670349761</v>
+        <v>4254.38773850592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05447806556856311</v>
+        <v>0.002393039025631759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-90.60169189019338</v>
+        <v>399.5122333436623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4612743505558157</v>
+        <v>0.001388919416428781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>266.3592690757104</v>
+        <v>-0.04164601852108879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002914737903633373</v>
+        <v>0.7844424506186237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1886654193616675</v>
+        <v>-480.6719212327444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2847492500442613</v>
+        <v>0.9154580397600572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.744798686115082e-05</v>
+        <v>-2733.130062144402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9242075823195658</v>
+        <v>0.1401927274695614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.12219953985183</v>
+        <v>19.32579287837223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1098385909263037</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.81007196768817</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01845522635842098</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1397.635689006729</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5605947258809878</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-733.5931150067272</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5911662734930343</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1776.122095159985</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4728125210301024</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-36.86377434237517</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.145789283052352</v>
+        <v>0.919386245796687</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2575.104080553233</v>
+        <v>4603.461627146515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1890858362565943</v>
+        <v>0.00230004438748399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.61526558030394</v>
+        <v>360.9179559014108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7634564957767156</v>
+        <v>0.004345321358507414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.9437418600186</v>
+        <v>0.05886866250308043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005822916329434275</v>
+        <v>0.7968433088936565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2084872831462208</v>
+        <v>-899.2654704519719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3244994744123181</v>
+        <v>0.8390146021937869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.392642308243582e-05</v>
+        <v>-3095.165316352008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8621811494318636</v>
+        <v>0.1111202207153788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.41421466712954</v>
+        <v>-19.49380969600626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09215769125498308</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.69081980926074</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01410923753922049</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1720.699155732028</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5685258122947789</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>370.878013257035</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7977823042183343</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4764.992232951529</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1159288350246925</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.05106009247366</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1577322771084029</v>
+        <v>0.925150817087347</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3754.637063299941</v>
+        <v>5725.326934308276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06162869564040501</v>
+        <v>0.0001236551774550799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.0539915421636</v>
+        <v>267.5309966356247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1461034781124275</v>
+        <v>0.02889299888879972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.247296825865</v>
+        <v>-0.02483229183824388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008740928143374935</v>
+        <v>0.8484865025189348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1767458058608994</v>
+        <v>-7580.488287141691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3352469017310711</v>
+        <v>0.09945408891318028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.312954957856057e-05</v>
+        <v>-3556.199217962983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9439043303944901</v>
+        <v>0.02463040616946532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.06717959923227</v>
+        <v>242.3776021951217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1792440414234114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.75099518487831</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1030662888450682</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2061.903409001916</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3831155771350243</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-557.0696014464517</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6906172398302649</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-203.3212872201293</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9368663282033155</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-33.18690068480161</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2036071630831204</v>
+        <v>0.2188602774823192</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4366.161944981428</v>
+        <v>3859.707017390063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02097952844261195</v>
+        <v>0.007986706091011059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.0085920130427</v>
+        <v>441.0525135531215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1478000840607717</v>
+        <v>0.0002812425964062663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.4891582362384</v>
+        <v>0.02707577263348149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002676187648907114</v>
+        <v>0.8553842147901012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1205073662698139</v>
+        <v>3386.54085187092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5133944652914725</v>
+        <v>0.4723724317404532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.723883327137856e-05</v>
+        <v>-3653.682825944865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8876217840147078</v>
+        <v>0.03988328452993531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.44588552139376</v>
+        <v>-8.760387225507088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2010369119447415</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.95130881744305</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07008899687973237</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2911.342736439627</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2124394301280958</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-247.3720439850263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8597489702920861</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>478.8441398727828</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8548593345454626</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-52.85881103317119</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04129344339596564</v>
+        <v>0.9645898891691425</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2360.7057692191</v>
+        <v>4410.043659621842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2646255409418171</v>
+        <v>0.002380177838516593</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.19665887587514</v>
+        <v>403.1489136889055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8216214190501618</v>
+        <v>0.001739909827965881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.1197993137569</v>
+        <v>0.04401268254080415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001180313697144024</v>
+        <v>0.8416282929741662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2395214350183855</v>
+        <v>-1290.76396137757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2370598520506819</v>
+        <v>0.777217101298761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.842693435171683e-05</v>
+        <v>-2995.232017115305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7963220209924218</v>
+        <v>0.1213935337058759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.68549137598294</v>
+        <v>9.440782035776408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2590187912046962</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.8466745180258</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03848542347749208</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>51.12365572507815</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9851260344135846</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1010.346344246097</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5377544369949732</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>733.393565021461</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7887967754154616</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.75283760845394</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5125985327128117</v>
+        <v>0.9607093260140398</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7617.142568595364</v>
+        <v>2103.834079340208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005677699141227703</v>
+        <v>0.01503646314000331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-46.92942941174601</v>
+        <v>276.726707469913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6894592218653004</v>
+        <v>0.0004023029306992659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7957370573561</v>
+        <v>-0.041766778091707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004851666117895216</v>
+        <v>0.6394073876411521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2735582442150175</v>
+        <v>7283.624570581489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09112235065903877</v>
+        <v>0.01528040182325056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.431462598801604e-05</v>
+        <v>-45.75126377138497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7110840423530687</v>
+        <v>0.9663370448189248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-65.09638346549833</v>
+        <v>96.28047846812279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005038726623501898</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-16.60193490065359</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.158650978530597</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1509.220081015792</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.444981511124101</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>325.9293752948849</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8110418369524798</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3385.481483288687</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1479495668846403</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.20462591063109</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1360599719176468</v>
+        <v>0.4439531937992052</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3718.701450658133</v>
+        <v>6144.075379463251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0739832577196531</v>
+        <v>9.455204327361067e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.871726814468602</v>
+        <v>219.7034385704933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9763403346300947</v>
+        <v>0.06075131233034344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.5673155039104</v>
+        <v>-0.0747665046044993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001657911063834066</v>
+        <v>0.5747562498517881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.220522986236184</v>
+        <v>-6868.138173831278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3003294489723851</v>
+        <v>0.1959465809961467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.766172275945193e-05</v>
+        <v>-3493.411938468453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9016403428228468</v>
+        <v>0.03027432618565216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.52449371132422</v>
+        <v>205.8249580985121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.116608509339868</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.50297401506265</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07000935178015086</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1945.751639431717</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5477208688332947</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-40.66617344846509</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9797166377014005</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1337.262205015196</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6311327432547844</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.46029829002181</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1673304437201701</v>
+        <v>0.3655870104043443</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3375.473455384992</v>
+        <v>4457.190319175438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06767703536785344</v>
+        <v>0.0006455504130922283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.5102764724298</v>
+        <v>391.2575280966398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2956950357484376</v>
+        <v>0.0002627792283670262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.7840355713105</v>
+        <v>-0.08805291615574809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003464681636175026</v>
+        <v>0.485543042962003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1261054223536626</v>
+        <v>-305.6235676993565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4613788173488241</v>
+        <v>0.9477719253697896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.659593897619413e-05</v>
+        <v>-1386.046585404924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8284488678084559</v>
+        <v>0.3809702960109174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.395994808363639</v>
+        <v>-116.7312818734988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7153060075001638</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.0054145270826</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02944860464985158</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1931.469565171294</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3833989768892979</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1899.017574583695</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1992611943024426</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-305.4930004335843</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9020524164651967</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.28450048402932</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09010994517690037</v>
+        <v>0.5044638903054666</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2311.339941986007</v>
+        <v>5905.244366698023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.286691580444103</v>
+        <v>1.88873018033456e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.75208231274044</v>
+        <v>504.8581417661986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4472428608500512</v>
+        <v>1.505738164084738e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8487301768832</v>
+        <v>-0.05786795628869471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002849018522297551</v>
+        <v>0.6580507539617089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2483436874066824</v>
+        <v>-7468.803376016984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1451147528822877</v>
+        <v>0.08841115472189244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001076512784892212</v>
+        <v>-2972.85762404777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5369698013868324</v>
+        <v>0.08210446150534774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.45605437947064</v>
+        <v>-139.1427659101994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1970490093682146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.24688781197928</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.009728476869690217</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-806.4967367166173</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7155304883167406</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-604.6598916910061</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6548839432885645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4439.343378163302</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1064610623360922</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-39.15924164293654</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1864903909288142</v>
+        <v>0.4191221409919098</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1719.704743324091</v>
+        <v>4645.604960667026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3782761521750526</v>
+        <v>0.002149555501631522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.84161997485307</v>
+        <v>378.3127385531069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.912524000393051</v>
+        <v>0.002304050789963949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.930412351137</v>
+        <v>0.02993559816148228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001578217904041158</v>
+        <v>0.8565669404712267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1213678337108537</v>
+        <v>374.0739570936403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4886349424296014</v>
+        <v>0.9358377957067995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.797673816013333e-06</v>
+        <v>-3639.197569001909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.973331159059045</v>
+        <v>0.05425017156010413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.87252312045536</v>
+        <v>-19.56708726969362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4167603355054089</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.330340486377</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008632756263298432</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2417.737835913864</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2726043210658606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-269.8945226915512</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8378630014037599</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>565.7446142137928</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8178018441267041</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.26474611742475</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6610165573270095</v>
+        <v>0.9244552057154982</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3711.445328425466</v>
+        <v>5991.075763908045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06828736167621156</v>
+        <v>9.923390986595571e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.76586727936909</v>
+        <v>317.4811410931854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8936010752992725</v>
+        <v>0.005719658397843892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.5406237826579</v>
+        <v>-0.0332655067023009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001067964555789873</v>
+        <v>0.7964894281939716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3803003563482388</v>
+        <v>-6961.760284278418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05635745202490585</v>
+        <v>0.1194158776408981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.529331545894438e-05</v>
+        <v>-3848.883981688667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8473743939871538</v>
+        <v>0.01567640338829574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-49.32228714019492</v>
+        <v>84.06087906680825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0197011546234229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.90573362149346</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1488962335383814</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1648.195210018377</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5070330301236959</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-949.9007982941948</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5268311020316796</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>41.9179932938232</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9871057053819092</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.47057766891395</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4953178307643076</v>
+        <v>0.6693955956929846</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5912.468540988438</v>
+        <v>3536.119821285535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004869690272139839</v>
+        <v>0.003502335491782433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.0288241395848</v>
+        <v>321.6472756360948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1313558718199601</v>
+        <v>0.001264816361199802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.9642882305449</v>
+        <v>-0.06951117272096108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003015150117533584</v>
+        <v>0.5459180828980867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2652550057534984</v>
+        <v>3960.096413245178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09784204824157854</v>
+        <v>0.3001015520090012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002435628863893134</v>
+        <v>-1655.976150163346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1772247799544673</v>
+        <v>0.2522661020620326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.21337434703051</v>
+        <v>101.115105657227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1510252068035008</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.763275420905007</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4910191685917877</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>189.1334853750459</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9260324566849445</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-957.3276985675743</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4523186985365597</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4279.558231314544</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06057588836488263</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-46.41308047784035</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04386235486337146</v>
+        <v>0.5094927700504888</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5225.452628517154</v>
+        <v>4201.896676608823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01190738459167961</v>
+        <v>0.001125549602644392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-27.99968605665973</v>
+        <v>404.0179092101565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8305542039062399</v>
+        <v>0.0002478744232631953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.0331314940884</v>
+        <v>-0.05151916531674777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001718525210909412</v>
+        <v>0.762041709091835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1925975428265863</v>
+        <v>2107.534467446038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3429156933819293</v>
+        <v>0.6470182398383331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.982686842570986e-06</v>
+        <v>-2351.452496257099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.972461520126636</v>
+        <v>0.1543854483646475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.78824583890573</v>
+        <v>-130.2410332535012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09651592920906529</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.81507247922078</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07605125376169546</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2546.387628904779</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3896452887183706</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-200.4407010132843</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8920615705636536</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>260.1752041141872</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9246829580877729</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-63.16485154324452</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03442929200077356</v>
+        <v>0.4933051413220377</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2021.785094360155</v>
+        <v>3984.648604527589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3421967283544621</v>
+        <v>0.004313305878961067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.24153027629785</v>
+        <v>392.4368014298549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6842379624010507</v>
+        <v>0.00201741831883838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.4931808319381</v>
+        <v>-0.04497505764571749</v>
       </c>
       <c r="C4" t="n">
-        <v>8.839899666600465e-05</v>
+        <v>0.7611168277186141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1895410814213927</v>
+        <v>-1639.47216978046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2744444459966359</v>
+        <v>0.7382431188348175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.453951940595796e-05</v>
+        <v>-1480.161041340392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8506171354065251</v>
+        <v>0.4208284034627634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.5346931658255</v>
+        <v>69.20416674740892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1563313243508974</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.14077500768759</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01750054282500125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1673.405851929506</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4867158264720479</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>388.291306045659</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8158885799310498</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4823.414525110726</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.111415305288204</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-37.18703803271939</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1959676354030877</v>
+        <v>0.7256373817731623</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2073.399724571296</v>
+        <v>5101.345346700837</v>
       </c>
       <c r="C2" t="n">
-        <v>0.305320974314862</v>
+        <v>0.0004324114911328762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-61.08284943427671</v>
+        <v>327.7877767241331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6560030261535714</v>
+        <v>0.005619546421487053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.6964966348797</v>
+        <v>-0.04167289898309068</v>
       </c>
       <c r="C4" t="n">
-        <v>7.739632364491312e-05</v>
+        <v>0.812412937151912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2609480680704132</v>
+        <v>-5801.456863973302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1478380907231986</v>
+        <v>0.3231140067467738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.724574412452534e-05</v>
+        <v>-2451.377031550076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7605889472040805</v>
+        <v>0.158305552521385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.0608322994837</v>
+        <v>128.175769605376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1263465739578104</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.76814258691274</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01572406893940335</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1501.148160930805</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5165728304269843</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-632.8444583542434</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6685535882647504</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2813.022282003441</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3366498544240104</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-21.60176671528238</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4146324251414721</v>
+        <v>0.5804174559837907</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3142.959113582005</v>
+        <v>5095.930290950912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1163876280255225</v>
+        <v>0.000633686968395083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.5780944267349</v>
+        <v>407.5705172802393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3679808623134881</v>
+        <v>0.0007508255202522832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.7161470908886</v>
+        <v>-0.0004657659571351835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004690958731181667</v>
+        <v>0.9974417843282459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1928729882608268</v>
+        <v>-2283.783305687137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3439112322112043</v>
+        <v>0.6074319211357626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001438566267778419</v>
+        <v>-3301.873431310466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4811427262106178</v>
+        <v>0.0597388072303973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.905843262859037</v>
+        <v>-53.02709741871084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7472509688718212</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.58631629908094</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04738173473325986</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1461.340716707136</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5542796507803759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1941.999938696862</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2099269758795345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2394.044744704212</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3751365078610343</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-42.94316724458866</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0993019181848772</v>
+        <v>0.7830282125178304</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4747.227374096872</v>
+        <v>4189.576534661924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01516846584134452</v>
+        <v>0.00314885546506361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182.9665268271906</v>
+        <v>387.9847893240162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1617243745041535</v>
+        <v>0.001468154452124955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.7217034975515</v>
+        <v>-0.01306306276966701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001189474346378058</v>
+        <v>0.9270474598279133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.203910911644887</v>
+        <v>-506.7323310790925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2385509461023799</v>
+        <v>0.9141700592506086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.003207049892252e-05</v>
+        <v>-2570.845962201226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.82830186192043</v>
+        <v>0.1508271622083738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.44303644351601</v>
+        <v>34.06956186041057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09345425238329823</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.98009786874437</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1473372707793028</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1163.652202504122</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6369067481674375</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>352.6584446109553</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.808824736902965</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1244.815880348143</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6310475173543919</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-67.8173049107846</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01867979219736819</v>
+        <v>0.8613758765309107</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2954.647067992993</v>
+        <v>4741.886692588789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1862337439337919</v>
+        <v>0.0005517911551237245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.14959353993163</v>
+        <v>368.8751571804916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5260733443571514</v>
+        <v>0.0008914287867102963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277.6164618377567</v>
+        <v>-0.009083601161171295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004270167715911083</v>
+        <v>0.949484790587641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3822763779505232</v>
+        <v>255.750878159186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09122161045428241</v>
+        <v>0.9516621291556058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.063714360190269e-05</v>
+        <v>-3198.599402757113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8754598188659801</v>
+        <v>0.06236752711093747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-51.53019328899931</v>
+        <v>-97.01635534741177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.028603885221349</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.46813802282878</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05204734341525338</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1256.007364465145</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.61710034797735</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>381.1237227900201</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8215492684407436</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1690.665925153261</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.531584376581099</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.65147761757352</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3475997508190674</v>
+        <v>0.5845540570025204</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5921.93146542509</v>
+        <v>3829.750312254107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003693656213362255</v>
+        <v>0.00832447916839104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-51.97353134377076</v>
+        <v>417.2591703285941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.632293801392195</v>
+        <v>0.001599991019911662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.364514882693</v>
+        <v>0.04704381667654001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002521650721298995</v>
+        <v>0.8273659896101555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3339100450263416</v>
+        <v>1321.869740248661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04835588601253715</v>
+        <v>0.7712347521504768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001418240146462209</v>
+        <v>-3162.667337155826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4195816974310325</v>
+        <v>0.121018557309411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.81870283135587</v>
+        <v>56.00018818613961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002514394041059458</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-15.05575777112485</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1782540232690663</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1803.98302582414</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5170529126990382</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-178.6522804489119</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.884136319340767</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4938.686777277589</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0459657194873013</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.983284639375391</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9047358852400944</v>
+        <v>0.7776766760473189</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5865.944114925147</v>
+        <v>2674.768764445383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004477247649270922</v>
+        <v>0.02203759906522248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38.0069913230287</v>
+        <v>342.3137965079706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7081788848512904</v>
+        <v>0.0008411614318324333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.9984257663591</v>
+        <v>-0.06814851557626628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004580101744735219</v>
+        <v>0.5560497098322157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2090467248712696</v>
+        <v>4988.988426173304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1712429530161349</v>
+        <v>0.1725109024071091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.291989706020435e-05</v>
+        <v>-1150.742760399031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9325229517453897</v>
+        <v>0.4107377648684225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-46.74262602093769</v>
+        <v>212.9590622358233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02331979020544685</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-10.00857780616807</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3759116392845363</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1119.221066523151</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6280404937744595</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>22.29434503217317</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9844175846050525</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2585.356044203085</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2808191368679874</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-16.54565009445253</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4888796678854432</v>
+        <v>0.1789120933213934</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3722.54338620925</v>
+        <v>2125.745147663336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06361608852931516</v>
+        <v>0.02296791552963363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-60.52817484797946</v>
+        <v>306.8996738539215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6328233534966793</v>
+        <v>9.292976084376038e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.54310224371</v>
+        <v>-0.05297963681198478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006189372136909759</v>
+        <v>0.5634537297722011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2658821168252287</v>
+        <v>7925.376538644052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1528721494462353</v>
+        <v>0.01411448532900224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.319346778912356e-05</v>
+        <v>133.8947638912018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7165066508215068</v>
+        <v>0.9083560145118386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.01699384992132</v>
+        <v>47.55657061911495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05450476781187441</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.04568923575602</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01895743742192296</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-486.8921381445471</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.844962551056728</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>211.7678422107285</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8948619859677436</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1216.882533291303</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6335982590245626</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-36.02072659053494</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1806752304247893</v>
+        <v>0.7107444559590459</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4051.26721059279</v>
+        <v>4391.858227030441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03088074135172741</v>
+        <v>0.002398773986746163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.80979984605619</v>
+        <v>406.3425947221094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4583762742186925</v>
+        <v>0.001575900460069785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.7987163369113</v>
+        <v>0.03431645808903733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003245383754526288</v>
+        <v>0.8227696899046574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2977818881281427</v>
+        <v>255.9087074640411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1320553092874231</v>
+        <v>0.9564951407460858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000116654265056397</v>
+        <v>-3848.533500207805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4959510712439601</v>
+        <v>0.03715403379735099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.25952390048092</v>
+        <v>-8.801037048581748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2769947994539486</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.43848644786532</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05787937610885877</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1345.574055664511</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5411900622244816</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1821.327196589211</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2311466970649584</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1338.801149237437</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5881378180668159</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.98250751524701</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1338788956925366</v>
+        <v>0.9633677028477821</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2953.850724467187</v>
+        <v>5168.308629495878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2301741674758479</v>
+        <v>0.0001062783215118232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.9589483157495</v>
+        <v>426.7958210950434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2109663417301805</v>
+        <v>0.0001883608683767498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.8401707746955</v>
+        <v>-0.1027263362994829</v>
       </c>
       <c r="C4" t="n">
-        <v>4.147368202031976e-05</v>
+        <v>0.4362141843469201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1325570886673449</v>
+        <v>-2985.061771893016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4529182061391308</v>
+        <v>0.5520680668886589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.616545201565421e-05</v>
+        <v>-2103.502828286533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6804011820091652</v>
+        <v>0.1980062300267628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.3064717118381</v>
+        <v>-80.31226709265422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2140607045045144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.23265042338075</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1408270931957055</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2287.249003020817</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3256834232284387</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>749.3540079564791</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.606081255668141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>578.7992631982934</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8331116407901007</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40.50430463202967</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2016846180508245</v>
+        <v>0.6566177256989238</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2544.872734928758</v>
+        <v>5289.976743637386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2011311862022185</v>
+        <v>0.0002965463418471547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.16699120721552</v>
+        <v>348.3921125711436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.558772092300198</v>
+        <v>0.003041677431358211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.4149375407736</v>
+        <v>0.01689161248513418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009947005913225903</v>
+        <v>0.9033425535082376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1974760595214561</v>
+        <v>-6399.887807946732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2660630391321724</v>
+        <v>0.1610547014475349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.148557322912034e-05</v>
+        <v>-3468.698313496834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9505332114235809</v>
+        <v>0.03196128800752443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.24112427570998</v>
+        <v>150.6878824152308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1559277823970936</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.90201713721881</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02635785545581179</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1927.70163017311</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4108292828693912</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-662.9583632095453</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6320219969588193</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3003.810004427971</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2755982389209081</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-28.69702142416028</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2927767354607504</v>
+        <v>0.4447614051970658</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ47008656" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ47239512" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47479575" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47699819" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47932519" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48173533" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48405452" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48623531" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ48851595" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ49063971" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ49312073" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ49548444" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ49770137" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ49997788" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ50239677" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ50469126" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ50708889" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ50947896" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ51185628" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ51421405" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51662534" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51886131" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ52114860" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ52346273" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ52574472" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ52816517" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ53047902" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ53289115" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ53530852" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ53775166" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ54016610" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ54243760" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ54499476" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ54746452" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ54969898" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ55207557" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ55440723" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ55673993" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ55915753" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ56172964" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ56410891" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ56635606" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ56851782" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ57092000" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ57334983" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ57582958" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ57830539" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ58080146" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ58320313" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ58565512" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ40174767" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40311614" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40438464" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ40572827" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ40709252" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ40855352" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ40988514" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41124494" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ41266323" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41405215" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ41563274" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ41705652" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ41855283" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ41988881" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ42121747" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ42255152" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ42401521" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ42539680" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ42674036" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ42805701" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ42955831" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ43087999" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ43221927" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ43356202" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ43506328" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ43647257" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ43777853" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ43924217" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ44056308" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ44206141" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ44340476" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ44487725" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ44627513" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ44772782" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ44925990" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ45090714" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ45295513" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ45448216" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ45589538" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ45731586" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ45891643" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ46038126" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ46172515" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ46316427" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ46470976" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ46603772" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ46739516" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ46888360" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ47021844" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ47155486" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4957.854703784153</v>
+        <v>3173.922261568667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006040432159567179</v>
+        <v>0.003339777201530179</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.8121505584409</v>
+        <v>269.6744579110843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001281224628815126</v>
+        <v>0.002058583319584886</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03393260038156548</v>
+        <v>-0.03761162728227381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8119175124993105</v>
+        <v>0.7169339989835549</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.49468651168445</v>
+        <v>1187.546964963128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9929838110243031</v>
+        <v>0.7724979157259086</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3389.802922108918</v>
+        <v>-1069.420966179764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04363714804439504</v>
+        <v>0.3798364092146217</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.94269560155396</v>
+        <v>248.6247336817686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7626191887213967</v>
+        <v>0.07358182954551389</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4756.774604291946</v>
+        <v>3289.460777073346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002524303395843146</v>
+        <v>0.008321475266993244</v>
       </c>
     </row>
     <row r="3">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>363.5381773740622</v>
+        <v>411.8838291153412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004838888772179728</v>
+        <v>0.0003827279122038092</v>
       </c>
     </row>
     <row r="4">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06073374807860325</v>
+        <v>0.03487494942095764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7562223783005922</v>
+        <v>0.8409609980332761</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1264.266244165869</v>
+        <v>130.3217160787244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7815872093372993</v>
+        <v>0.9733183602049784</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2920.887601885248</v>
+        <v>-2222.242563354173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1326625825908303</v>
+        <v>0.1799870983815929</v>
       </c>
     </row>
     <row r="7">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.43595454953862</v>
+        <v>119.764823855487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8326978335530095</v>
+        <v>0.498991038074948</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4825.773040041029</v>
+        <v>2577.93919299561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004405801754632562</v>
+        <v>0.02881348832385701</v>
       </c>
     </row>
     <row r="3">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.6940289129936</v>
+        <v>306.8751164740611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003343621096909612</v>
+        <v>0.0009812649653238516</v>
       </c>
     </row>
     <row r="4">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03527102436106133</v>
+        <v>-0.05119660892556293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8096980427930829</v>
+        <v>0.6420445648833989</v>
       </c>
     </row>
     <row r="5">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1146.897130958672</v>
+        <v>4261.818882748141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7888556987963091</v>
+        <v>0.2220155170917823</v>
       </c>
     </row>
     <row r="6">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3428.015262039588</v>
+        <v>-450.0159926962269</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04819553373185339</v>
+        <v>0.7393215854021324</v>
       </c>
     </row>
     <row r="7">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-158.1305258537538</v>
+        <v>222.3797852536512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4408629079876437</v>
+        <v>0.1538056492560258</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2407.092733808703</v>
+        <v>4588.081675088734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03343973981022225</v>
+        <v>0.0001500559600097003</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.4168468886769</v>
+        <v>390.4541305730015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001975205043918774</v>
+        <v>0.0003070976023600481</v>
       </c>
     </row>
     <row r="4">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.006871016065555638</v>
+        <v>0.1223594294986723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9641265551903513</v>
+        <v>0.4808670203115069</v>
       </c>
     </row>
     <row r="5">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9402.078282826787</v>
+        <v>-8087.028208557153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03962215586996972</v>
+        <v>0.04553837721490127</v>
       </c>
     </row>
     <row r="6">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1732.619542567543</v>
+        <v>-3198.208774943044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2665982869308945</v>
+        <v>0.04959212525386777</v>
       </c>
     </row>
     <row r="7">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.035079228166</v>
+        <v>255.4921989423206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4377224397581477</v>
+        <v>0.1668409223213032</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5267.832360171918</v>
+        <v>3943.003474775375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002230841090642669</v>
+        <v>0.0007367490737214037</v>
       </c>
     </row>
     <row r="3">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.3770666429778</v>
+        <v>394.4059367527681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02941928973252812</v>
+        <v>0.0002281353661312707</v>
       </c>
     </row>
     <row r="4">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03488311795090032</v>
+        <v>-0.01306825397232261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7998259251207406</v>
+        <v>0.9197304996623792</v>
       </c>
     </row>
     <row r="5">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6303.308986690176</v>
+        <v>432.7745936892552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1711391761206309</v>
+        <v>0.9146809502874005</v>
       </c>
     </row>
     <row r="6">
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2865.754972094725</v>
+        <v>-2640.28814857134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08173465662612987</v>
+        <v>0.08183680258376108</v>
       </c>
     </row>
     <row r="7">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.4741735353429</v>
+        <v>27.94683403762397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1909836195956914</v>
+        <v>0.8649705531321845</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4941.31547332253</v>
+        <v>3847.529644244107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004588730314390213</v>
+        <v>0.0006457542782267896</v>
       </c>
     </row>
     <row r="3">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.4131592727572</v>
+        <v>409.0755983351266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007505603079825488</v>
+        <v>0.0002430922605916261</v>
       </c>
     </row>
     <row r="4">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06216883127691283</v>
+        <v>0.001875592979965368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6580847573761076</v>
+        <v>0.9886052494362305</v>
       </c>
     </row>
     <row r="5">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2367.752120902615</v>
+        <v>-1448.216613080576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6037269106200444</v>
+        <v>0.7099227912331192</v>
       </c>
     </row>
     <row r="6">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2467.761571564649</v>
+        <v>-1716.388267041463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1352124138960534</v>
+        <v>0.2634227181553629</v>
       </c>
     </row>
     <row r="7">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-84.69559343774722</v>
+        <v>-27.26604381538405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6609741222911114</v>
+        <v>0.8712836597484565</v>
       </c>
     </row>
   </sheetData>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4777.632157598012</v>
+        <v>3922.165181698778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001659592674857257</v>
+        <v>0.001431225179084726</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.3195663142273</v>
+        <v>433.9298172232988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005023694049186786</v>
+        <v>0.000227264618159008</v>
       </c>
     </row>
     <row r="4">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02938543400934135</v>
+        <v>0.01095298992954838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8252455245987229</v>
+        <v>0.938110391529531</v>
       </c>
     </row>
     <row r="5">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>610.858634184744</v>
+        <v>-2595.475090250532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8881502593965021</v>
+        <v>0.516514966194483</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3917.184765475597</v>
+        <v>-2042.218379184397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02175087721158698</v>
+        <v>0.196449027840716</v>
       </c>
     </row>
     <row r="7">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.33800225427575</v>
+        <v>20.00276658501622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.928283256398176</v>
+        <v>0.9075140795118082</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4617.795726289547</v>
+        <v>4799.70128492527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001013575293103454</v>
+        <v>2.045585314162566e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.7894028055264</v>
+        <v>320.1754684255921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001245605624658913</v>
+        <v>0.001216007534648453</v>
       </c>
     </row>
     <row r="4">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07499605327771083</v>
+        <v>-0.007134427898932816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5971106044324788</v>
+        <v>0.9533908365558335</v>
       </c>
     </row>
     <row r="5">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1399.816545319055</v>
+        <v>-4305.498544279556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7476591903087826</v>
+        <v>0.2273831247781238</v>
       </c>
     </row>
     <row r="6">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2399.72438083121</v>
+        <v>-2261.68879979678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16213284652506</v>
+        <v>0.08754316607261534</v>
       </c>
     </row>
     <row r="7">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.403838109308765</v>
+        <v>-12.19428549805056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9735104369743574</v>
+        <v>0.9408850213209166</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5406.390829830492</v>
+        <v>4005.689958446823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001121810377757063</v>
+        <v>0.0008334222587021526</v>
       </c>
     </row>
     <row r="3">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265.3615857712496</v>
+        <v>442.6068059249079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02117680436897428</v>
+        <v>0.000279957518974727</v>
       </c>
     </row>
     <row r="4">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0497413702094324</v>
+        <v>0.02093152437020052</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7901333354637883</v>
+        <v>0.8780088339749854</v>
       </c>
     </row>
     <row r="5">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4986.272370229626</v>
+        <v>123.2010732349308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2789473842677542</v>
+        <v>0.9778978348287485</v>
       </c>
     </row>
     <row r="6">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3740.315070673244</v>
+        <v>-3058.264052121062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03959957897396844</v>
+        <v>0.05039956868161563</v>
       </c>
     </row>
     <row r="7">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.843230174803</v>
+        <v>-18.19552665065909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3337184420482585</v>
+        <v>0.9206072481282926</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2851.068885151829</v>
+        <v>3188.487442940706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0184059656758804</v>
+        <v>0.001658353250956412</v>
       </c>
     </row>
     <row r="3">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.9952142005925</v>
+        <v>335.881329415216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001142389567625882</v>
+        <v>0.0003832619397420334</v>
       </c>
     </row>
     <row r="4">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0676355705930667</v>
+        <v>-0.09207312262357337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5674720748335709</v>
+        <v>0.4227327015413673</v>
       </c>
     </row>
     <row r="5">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4942.960386107353</v>
+        <v>2082.246887145775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2909018904140255</v>
+        <v>0.563278381654101</v>
       </c>
     </row>
     <row r="6">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-756.7565728295264</v>
+        <v>-172.5029027419221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.620822544616932</v>
+        <v>0.9056413496662994</v>
       </c>
     </row>
     <row r="7">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8305552203576</v>
+        <v>101.2795331603229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4986174291817167</v>
+        <v>0.4780249598814054</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4574.790342373576</v>
+        <v>4187.888319933189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001997849332968383</v>
+        <v>0.001680279885255544</v>
       </c>
     </row>
     <row r="3">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.4119049997314</v>
+        <v>397.8859831883941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00114850054337378</v>
+        <v>0.0003377077712132225</v>
       </c>
     </row>
     <row r="4">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03452240136953785</v>
+        <v>0.08220668947277526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8025142054858212</v>
+        <v>0.6728527862557746</v>
       </c>
     </row>
     <row r="5">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.2122271275093</v>
+        <v>-2888.330018032781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8339493162012703</v>
+        <v>0.4618599723019063</v>
       </c>
     </row>
     <row r="6">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2764.207947027864</v>
+        <v>-2746.688598547583</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09507716838794313</v>
+        <v>0.1301628836519089</v>
       </c>
     </row>
     <row r="7">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-86.85269985823902</v>
+        <v>97.85907756619389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6635122549586996</v>
+        <v>0.5912687146872944</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4966.761960142112</v>
+        <v>4014.02722564077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00121494634268454</v>
+        <v>0.000779770049648567</v>
       </c>
     </row>
     <row r="3">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.2785387753389</v>
+        <v>438.2654120258663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004033432429743615</v>
+        <v>0.0002249634611574444</v>
       </c>
     </row>
     <row r="4">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03829405486604223</v>
+        <v>0.05520373239982446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7957964422572438</v>
+        <v>0.7055917687218225</v>
       </c>
     </row>
     <row r="5">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3467.976490744004</v>
+        <v>-2630.060637482402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4565287445864006</v>
+        <v>0.4974998733249678</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3659.003339698083</v>
+        <v>-2719.517370757029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0490650852247542</v>
+        <v>0.09483681414393669</v>
       </c>
     </row>
     <row r="7">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.89535940604384</v>
+        <v>38.24106207091816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9051212100232909</v>
+        <v>0.8244374260486471</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4345.772349743867</v>
+        <v>3700.163990757687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002350966465056529</v>
+        <v>0.003513197055421587</v>
       </c>
     </row>
     <row r="3">
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>427.9570167660648</v>
+        <v>400.6308531530759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006280161362324855</v>
+        <v>0.0002581851644935059</v>
       </c>
     </row>
     <row r="4">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008692411004241715</v>
+        <v>0.01129869443104058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9537885719685451</v>
+        <v>0.9289890189383596</v>
       </c>
     </row>
     <row r="5">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-115.3463981116183</v>
+        <v>-1829.732758149367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9804137443939632</v>
+        <v>0.6444344750466435</v>
       </c>
     </row>
     <row r="6">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3279.411267290274</v>
+        <v>-2104.235159856998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05390744597970321</v>
+        <v>0.1566215324231907</v>
       </c>
     </row>
     <row r="7">
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.38062525854372</v>
+        <v>162.5062904144228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8865810716699549</v>
+        <v>0.3516588470834802</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5194.619938384553</v>
+        <v>4254.837221330505</v>
       </c>
       <c r="C2" t="n">
-        <v>5.906771262029475e-05</v>
+        <v>0.0004805155963144707</v>
       </c>
     </row>
     <row r="3">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.2377572429347</v>
+        <v>424.5623954549475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004016646969435008</v>
+        <v>0.0001131619055692279</v>
       </c>
     </row>
     <row r="4">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06997106745498444</v>
+        <v>0.013241669960429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5602896850391403</v>
+        <v>0.9232148100768864</v>
       </c>
     </row>
     <row r="5">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4437.525801420705</v>
+        <v>-533.2936924327564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3006943417433914</v>
+        <v>0.8999623677946096</v>
       </c>
     </row>
     <row r="6">
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2472.184438311492</v>
+        <v>-2781.241052353893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09185358880110583</v>
+        <v>0.09347566115766422</v>
       </c>
     </row>
     <row r="7">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.56960693999946</v>
+        <v>-17.65689663208917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7023104791475558</v>
+        <v>0.9172225192180121</v>
       </c>
     </row>
   </sheetData>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2541.502033225437</v>
+        <v>4256.329016319666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02523291234907252</v>
+        <v>0.0003931432107545029</v>
       </c>
     </row>
     <row r="3">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.0126458276916</v>
+        <v>400.1781057449433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001399285879530886</v>
+        <v>0.000160737725670938</v>
       </c>
     </row>
     <row r="4">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05910542786885578</v>
+        <v>-0.01089184902054771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.635491427890857</v>
+        <v>0.9294712661489202</v>
       </c>
     </row>
     <row r="5">
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8825.049770016945</v>
+        <v>-669.1400263425894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05536908585860024</v>
+        <v>0.8577651895479079</v>
       </c>
     </row>
     <row r="6">
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040.70362774256</v>
+        <v>-2336.45054024408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5109183923756762</v>
+        <v>0.0949659962476284</v>
       </c>
     </row>
     <row r="7">
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.77602935548856</v>
+        <v>-103.8616724972218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5777241536024156</v>
+        <v>0.5602377216441201</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4120.24298485799</v>
+        <v>2946.026826957393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004197936163475724</v>
+        <v>0.005214570964413966</v>
       </c>
     </row>
     <row r="3">
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.32163561622</v>
+        <v>337.0430457620206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003568384549782105</v>
+        <v>0.0004306832641146256</v>
       </c>
     </row>
     <row r="4">
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008693108111627268</v>
+        <v>0.005146857595451082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9516427456045325</v>
+        <v>0.9729807379207629</v>
       </c>
     </row>
     <row r="5">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1286.616065212611</v>
+        <v>3668.698039598501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7619301701301717</v>
+        <v>0.3391661793121153</v>
       </c>
     </row>
     <row r="6">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3235.338847818573</v>
+        <v>-1346.929493752174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05192048133981577</v>
+        <v>0.343640372235117</v>
       </c>
     </row>
     <row r="7">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.12058511155419</v>
+        <v>128.9482162017235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7365919442302084</v>
+        <v>0.3858191346505664</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4674.829032609505</v>
+        <v>3368.288996802975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002146966671164297</v>
+        <v>0.008653495021078173</v>
       </c>
     </row>
     <row r="3">
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>419.0525132334058</v>
+        <v>418.3201341782733</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001830170330490469</v>
+        <v>0.0002573615227919355</v>
       </c>
     </row>
     <row r="4">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06221721167949473</v>
+        <v>0.004014589788602363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7443086909488816</v>
+        <v>0.9768975610391877</v>
       </c>
     </row>
     <row r="5">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1867.781074508822</v>
+        <v>-585.3038995933684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6785528259050193</v>
+        <v>0.8810708478197321</v>
       </c>
     </row>
     <row r="6">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3739.139359572718</v>
+        <v>-1957.51044092912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04090884297598655</v>
+        <v>0.2198546800456259</v>
       </c>
     </row>
     <row r="7">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.90594051167068</v>
+        <v>127.3761757436589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9129347839319084</v>
+        <v>0.4817830660591275</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4998.870971791948</v>
+        <v>5124.556688383976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007941054703900719</v>
+        <v>1.886731820256054e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>429.2959336822029</v>
+        <v>206.1014674397373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007520213014570398</v>
+        <v>0.07967577674812749</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04169511055996834</v>
+        <v>-0.05257512184678079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7708481367970095</v>
+        <v>0.6809548900043494</v>
       </c>
     </row>
     <row r="5">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3262.524031176546</v>
+        <v>-8208.055703160908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4868478996751365</v>
+        <v>0.03340560046211493</v>
       </c>
     </row>
     <row r="6">
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2757.791081918854</v>
+        <v>-1963.040956259149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.119044996763842</v>
+        <v>0.1819238285018757</v>
       </c>
     </row>
     <row r="7">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-61.89881136125183</v>
+        <v>352.0680030167313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7513712119553988</v>
+        <v>0.06019545147617691</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6004.218637642212</v>
+        <v>3047.243578830094</v>
       </c>
       <c r="C2" t="n">
-        <v>4.177189981170027e-05</v>
+        <v>0.001743033729780229</v>
       </c>
     </row>
     <row r="3">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308.5456338125358</v>
+        <v>368.745834582745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005095294058698078</v>
+        <v>0.0001031334068464055</v>
       </c>
     </row>
     <row r="4">
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01206971376122229</v>
+        <v>-0.0002336657042689011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9232732461567729</v>
+        <v>0.9982152061337672</v>
       </c>
     </row>
     <row r="5">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7157.896795031074</v>
+        <v>3292.62640564191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1479823051482405</v>
+        <v>0.3051611459481748</v>
       </c>
     </row>
     <row r="6">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4094.543975149278</v>
+        <v>-2112.531121058182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008360869940408196</v>
+        <v>0.1084818464096508</v>
       </c>
     </row>
     <row r="7">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.3504496595937</v>
+        <v>116.7143196415438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2889839624339491</v>
+        <v>0.4284410553419931</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5094.979205595297</v>
+        <v>4049.625502377291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006173264233565501</v>
+        <v>0.001260612292420736</v>
       </c>
     </row>
     <row r="3">
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.4864521335373</v>
+        <v>388.8146390999967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001526069734444461</v>
+        <v>0.0007448704691485181</v>
       </c>
     </row>
     <row r="4">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04098322401072033</v>
+        <v>-0.01854267370999485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7738675521848445</v>
+        <v>0.9045497759610391</v>
       </c>
     </row>
     <row r="5">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-41.98169143351333</v>
+        <v>-2546.97212815348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9925533410161624</v>
+        <v>0.5249007081328272</v>
       </c>
     </row>
     <row r="6">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3694.38729150262</v>
+        <v>-1627.821395867915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03752278632860705</v>
+        <v>0.3320622621108829</v>
       </c>
     </row>
     <row r="7">
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.8544989224747</v>
+        <v>74.14455099840632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7454599400919211</v>
+        <v>0.6753167652320826</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3041.89461720422</v>
+        <v>3967.822734032109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001802688372919642</v>
+        <v>0.0003553700795849836</v>
       </c>
     </row>
     <row r="3">
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.6402375266998</v>
+        <v>452.9386161473705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008206873425779393</v>
+        <v>3.772575801798177e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0831331334381227</v>
+        <v>0.01570149704249238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4008212082888262</v>
+        <v>0.9262865763745911</v>
       </c>
     </row>
     <row r="5">
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6807.199831526494</v>
+        <v>-2534.447900628027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04269615318441804</v>
+        <v>0.5009387375326213</v>
       </c>
     </row>
     <row r="6">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422.5266134412277</v>
+        <v>-1709.734479978661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7169202822072105</v>
+        <v>0.2834404955480546</v>
       </c>
     </row>
     <row r="7">
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-72.57749307726989</v>
+        <v>-40.38668091934704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5928771095182401</v>
+        <v>0.8114266442638379</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4133.700357512548</v>
+        <v>4532.538418680449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004152241973042665</v>
+        <v>0.0009269317169946027</v>
       </c>
     </row>
     <row r="3">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365.4381049958561</v>
+        <v>344.089357240389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003229860809255955</v>
+        <v>0.001783126333810399</v>
       </c>
     </row>
     <row r="4">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.002223413308609118</v>
+        <v>0.003000883050540859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.991100134995677</v>
+        <v>0.9813402281153503</v>
       </c>
     </row>
     <row r="5">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-854.6604900897373</v>
+        <v>-5478.93743040013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8477739814450937</v>
+        <v>0.2288454761194821</v>
       </c>
     </row>
     <row r="6">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2385.040830510194</v>
+        <v>-2422.56013591717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2064970951671637</v>
+        <v>0.1106956854604512</v>
       </c>
     </row>
     <row r="7">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.11195965422013</v>
+        <v>179.8485220713289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7509639566061665</v>
+        <v>0.3075073013059678</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3823.170889498938</v>
+        <v>4835.038413161849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001062957667812072</v>
+        <v>0.0001227097649387301</v>
       </c>
     </row>
     <row r="3">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.941043515</v>
+        <v>482.720260405162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02121306202399518</v>
+        <v>5.122070892919494e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06620047576042357</v>
+        <v>-0.04490412809685443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5418422694594606</v>
+        <v>0.7307762512984546</v>
       </c>
     </row>
     <row r="5">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-622.9782381627515</v>
+        <v>-6034.75010362888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8726298967540821</v>
+        <v>0.1337375521938981</v>
       </c>
     </row>
     <row r="6">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1642.447549131351</v>
+        <v>-1806.562127279392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2158675827695878</v>
+        <v>0.2417061650800149</v>
       </c>
     </row>
     <row r="7">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.1797427983757</v>
+        <v>-76.14070664273333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05620489820716701</v>
+        <v>0.6835199215559085</v>
       </c>
     </row>
   </sheetData>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3990.569726197973</v>
+        <v>4214.710210995318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005020600826186118</v>
+        <v>0.0009666905126246259</v>
       </c>
     </row>
     <row r="3">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448.3568588275735</v>
+        <v>342.4800833321264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002711106914748435</v>
+        <v>0.001603033965349254</v>
       </c>
     </row>
     <row r="4">
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001454498698810078</v>
+        <v>-0.03298950113051612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9919501830689477</v>
+        <v>0.8048909605256461</v>
       </c>
     </row>
     <row r="5">
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-457.316989463201</v>
+        <v>-557.8067127352406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230441068662775</v>
+        <v>0.8914969049076356</v>
       </c>
     </row>
     <row r="6">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2661.222154572585</v>
+        <v>-2011.442652036206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1402680100762835</v>
+        <v>0.1895704651688233</v>
       </c>
     </row>
     <row r="7">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.34835570311941</v>
+        <v>37.52476174150752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9455541820186817</v>
+        <v>0.8288559718725718</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2795.134979588775</v>
+        <v>4709.284166855852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01555903221959307</v>
+        <v>3.504130581663036e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.8778969969756</v>
+        <v>493.8544711783857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003987999799438939</v>
+        <v>4.951449346631099e-06</v>
       </c>
     </row>
     <row r="4">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03890055426578543</v>
+        <v>-0.0253218311977937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7338249143781798</v>
+        <v>0.8891565534566562</v>
       </c>
     </row>
     <row r="5">
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8575.700511391282</v>
+        <v>-3873.034575345702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05504898852254446</v>
+        <v>0.3488583462434548</v>
       </c>
     </row>
     <row r="6">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1774.62556109246</v>
+        <v>-2494.871057403526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2177171918533171</v>
+        <v>0.143055955953636</v>
       </c>
     </row>
     <row r="7">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.16516948481859</v>
+        <v>-96.26806870642332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7369855053736291</v>
+        <v>0.5374668375525216</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4722.003351776295</v>
+        <v>5114.887958859377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003507642461048532</v>
+        <v>5.60993350428206e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>419.518782742463</v>
+        <v>246.7592298264784</v>
       </c>
       <c r="C3" t="n">
-        <v>9.910803660696754e-05</v>
+        <v>0.02972428276199849</v>
       </c>
     </row>
     <row r="4">
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03898973754686597</v>
+        <v>-0.02267951347294958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7606325956290291</v>
+        <v>0.8599598298052554</v>
       </c>
     </row>
     <row r="5">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.91739314384904</v>
+        <v>-8458.673340428166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9980227690056123</v>
+        <v>0.05628425179975476</v>
       </c>
     </row>
     <row r="6">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2830.307249342573</v>
+        <v>-2486.03715604516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08651170704944088</v>
+        <v>0.09446734049977615</v>
       </c>
     </row>
     <row r="7">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-114.9575354183164</v>
+        <v>312.1608325867714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5537756534867376</v>
+        <v>0.08895920409243389</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4254.38773850592</v>
+        <v>4185.55609849341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002393039025631759</v>
+        <v>0.001660710805958784</v>
       </c>
     </row>
     <row r="3">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399.5122333436623</v>
+        <v>364.8532718599388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001388919416428781</v>
+        <v>0.0009151777803698771</v>
       </c>
     </row>
     <row r="4">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04164601852108879</v>
+        <v>-0.01787376211588875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7844424506186237</v>
+        <v>0.9019123091305072</v>
       </c>
     </row>
     <row r="5">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-480.6719212327444</v>
+        <v>-320.8920304041403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9154580397600572</v>
+        <v>0.9375820781587554</v>
       </c>
     </row>
     <row r="6">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2733.130062144402</v>
+        <v>-2331.382794078548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401927274695614</v>
+        <v>0.1541183083062009</v>
       </c>
     </row>
     <row r="7">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.32579287837223</v>
+        <v>70.17884737652423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.919386245796687</v>
+        <v>0.7011994156978267</v>
       </c>
     </row>
   </sheetData>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4603.461627146515</v>
+        <v>2057.170036590167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00230004438748399</v>
+        <v>0.04141678425273271</v>
       </c>
     </row>
     <row r="3">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>360.9179559014108</v>
+        <v>309.9062157340868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004345321358507414</v>
+        <v>0.001043532108279021</v>
       </c>
     </row>
     <row r="4">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05886866250308043</v>
+        <v>-0.010475133305346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7968433088936565</v>
+        <v>0.9209698858649407</v>
       </c>
     </row>
     <row r="5">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-899.2654704519719</v>
+        <v>3434.157507849513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8390146021937869</v>
+        <v>0.2836645753518752</v>
       </c>
     </row>
     <row r="6">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3095.165316352008</v>
+        <v>-318.6463691846493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1111202207153788</v>
+        <v>0.8015050178468812</v>
       </c>
     </row>
     <row r="7">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.49380969600626</v>
+        <v>274.5898115942479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.925150817087347</v>
+        <v>0.0685985442044349</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5725.326934308276</v>
+        <v>3734.65697568535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001236551774550799</v>
+        <v>0.00143466572346011</v>
       </c>
     </row>
     <row r="3">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267.5309966356247</v>
+        <v>419.7788666180593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02889299888879972</v>
+        <v>8.481961402742261e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02483229183824388</v>
+        <v>0.02085206589094223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8484865025189348</v>
+        <v>0.8708446554592416</v>
       </c>
     </row>
     <row r="5">
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7580.488287141691</v>
+        <v>-407.4976790674264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09945408891318028</v>
+        <v>0.9135568417593667</v>
       </c>
     </row>
     <row r="6">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3556.199217962983</v>
+        <v>-2045.328004547116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02463040616946532</v>
+        <v>0.170677424514051</v>
       </c>
     </row>
     <row r="7">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.3776021951217</v>
+        <v>-28.92471113050141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2188602774823192</v>
+        <v>0.865997224005415</v>
       </c>
     </row>
   </sheetData>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3859.707017390063</v>
+        <v>1860.646913973439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007986706091011059</v>
+        <v>0.07428376114968104</v>
       </c>
     </row>
     <row r="3">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.0525135531215</v>
+        <v>361.8968159901753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002812425964062663</v>
+        <v>8.657036367833691e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02707577263348149</v>
+        <v>-0.01522091758576366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8553842147901012</v>
+        <v>0.8913217699542118</v>
       </c>
     </row>
     <row r="5">
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3386.54085187092</v>
+        <v>4257.486621129388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4723724317404532</v>
+        <v>0.2073965663028321</v>
       </c>
     </row>
     <row r="6">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3653.682825944865</v>
+        <v>-455.8729027537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03988328452993531</v>
+        <v>0.731203902850958</v>
       </c>
     </row>
     <row r="7">
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.760387225507088</v>
+        <v>281.1838893075659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9645898891691425</v>
+        <v>0.07353126744023798</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4410.043659621842</v>
+        <v>4163.4020660197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002380177838516593</v>
+        <v>0.0005002671426522425</v>
       </c>
     </row>
     <row r="3">
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>403.1489136889055</v>
+        <v>505.5092062600232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001739909827965881</v>
+        <v>3.993462967451521e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04401268254080415</v>
+        <v>0.06934245316415455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8416282929741662</v>
+        <v>0.6259066479191292</v>
       </c>
     </row>
     <row r="5">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1290.76396137757</v>
+        <v>-4191.461004724895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.777217101298761</v>
+        <v>0.2976105149075247</v>
       </c>
     </row>
     <row r="6">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2995.232017115305</v>
+        <v>-2769.835480719475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1213935337058759</v>
+        <v>0.08129903464295637</v>
       </c>
     </row>
     <row r="7">
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.440782035776408</v>
+        <v>-16.38312926542244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9607093260140398</v>
+        <v>0.9277114080507669</v>
       </c>
     </row>
   </sheetData>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2103.834079340208</v>
+        <v>4373.522786194814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01503646314000331</v>
+        <v>0.0006684098753492277</v>
       </c>
     </row>
     <row r="3">
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.726707469913</v>
+        <v>361.3235517519629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004023029306992659</v>
+        <v>0.001043477794057351</v>
       </c>
     </row>
     <row r="4">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.041766778091707</v>
+        <v>-0.02757755976155805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6394073876411521</v>
+        <v>0.8446309965224347</v>
       </c>
     </row>
     <row r="5">
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7283.624570581489</v>
+        <v>1511.891144029754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01528040182325056</v>
+        <v>0.7278395403534144</v>
       </c>
     </row>
     <row r="6">
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45.75126377138497</v>
+        <v>-2890.042772445463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9663370448189248</v>
+        <v>0.07319797481954093</v>
       </c>
     </row>
     <row r="7">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.28047846812279</v>
+        <v>-7.073988914476018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4439531937992052</v>
+        <v>0.9669207684925414</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6144.075379463251</v>
+        <v>4669.684320183439</v>
       </c>
       <c r="C2" t="n">
-        <v>9.455204327361067e-05</v>
+        <v>0.0003050004841044774</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>219.7034385704933</v>
+        <v>336.1244279031448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06075131233034344</v>
+        <v>0.002803242955598348</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0747665046044993</v>
+        <v>-0.0179431820333015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5747562498517881</v>
+        <v>0.8908656358314097</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6868.138173831278</v>
+        <v>-2352.556507504972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1959465809961467</v>
+        <v>0.5403430924877699</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3493.411938468453</v>
+        <v>-2684.036723352458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03027432618565216</v>
+        <v>0.08632040632982171</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.8249580985121</v>
+        <v>76.21000047963727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3655870104043443</v>
+        <v>0.6774669467244274</v>
       </c>
     </row>
   </sheetData>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4457.190319175438</v>
+        <v>3313.668699909255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006455504130922283</v>
+        <v>0.006189563055787392</v>
       </c>
     </row>
     <row r="3">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.2575280966398</v>
+        <v>386.0520485292154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002627792283670262</v>
+        <v>0.0002195865455142221</v>
       </c>
     </row>
     <row r="4">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08805291615574809</v>
+        <v>-0.001094443901863917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.485543042962003</v>
+        <v>0.9929880110905204</v>
       </c>
     </row>
     <row r="5">
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-305.6235676993565</v>
+        <v>-471.3639473252233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9477719253697896</v>
+        <v>0.8955766872162874</v>
       </c>
     </row>
     <row r="6">
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1386.046585404924</v>
+        <v>-1103.55037673945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3809702960109174</v>
+        <v>0.4486075643105142</v>
       </c>
     </row>
     <row r="7">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-116.7312818734988</v>
+        <v>97.52087125084756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5044638903054666</v>
+        <v>0.5981909738574378</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5905.244366698023</v>
+        <v>4419.460843108634</v>
       </c>
       <c r="C2" t="n">
-        <v>1.88873018033456e-05</v>
+        <v>4.679406263862633e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.8581417661986</v>
+        <v>346.3853096726014</v>
       </c>
       <c r="C3" t="n">
-        <v>1.505738164084738e-05</v>
+        <v>0.0003450566330748775</v>
       </c>
     </row>
     <row r="4">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05786795628869471</v>
+        <v>-0.03047200896643676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6580507539617089</v>
+        <v>0.8337579101729359</v>
       </c>
     </row>
     <row r="5">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7468.803376016984</v>
+        <v>-5905.019540733431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08841115472189244</v>
+        <v>0.1160876673961277</v>
       </c>
     </row>
     <row r="6">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2972.85762404777</v>
+        <v>-1149.248093936152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08210446150534774</v>
+        <v>0.4159259441518225</v>
       </c>
     </row>
     <row r="7">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-139.1427659101994</v>
+        <v>97.27578213216762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4191221409919098</v>
+        <v>0.5099406252481067</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4645.604960667026</v>
+        <v>4399.311738464056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002149555501631522</v>
+        <v>0.001099474705922743</v>
       </c>
     </row>
     <row r="3">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378.3127385531069</v>
+        <v>354.1970690290743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002304050789963949</v>
+        <v>0.001847755427799696</v>
       </c>
     </row>
     <row r="4">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02993559816148228</v>
+        <v>0.01536905442168131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8565669404712267</v>
+        <v>0.9310516135431298</v>
       </c>
     </row>
     <row r="5">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.0739570936403</v>
+        <v>-1998.913523542661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9358377957067995</v>
+        <v>0.6163671714422576</v>
       </c>
     </row>
     <row r="6">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3639.197569001909</v>
+        <v>-2468.769971736354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05425017156010413</v>
+        <v>0.1600919774881089</v>
       </c>
     </row>
     <row r="7">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.56708726969362</v>
+        <v>46.83644245322516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9244552057154982</v>
+        <v>0.7927223264232259</v>
       </c>
     </row>
   </sheetData>
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5991.075763908045</v>
+        <v>5159.111892514286</v>
       </c>
       <c r="C2" t="n">
-        <v>9.923390986595571e-05</v>
+        <v>1.63403701508935e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.4811410931854</v>
+        <v>319.970450712201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005719658397843892</v>
+        <v>0.001422375240300378</v>
       </c>
     </row>
     <row r="4">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0332655067023009</v>
+        <v>-0.03114490014926846</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7964894281939716</v>
+        <v>0.803366283749064</v>
       </c>
     </row>
     <row r="5">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6961.760284278418</v>
+        <v>-3531.355444072732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1194158776408981</v>
+        <v>0.3997396457833932</v>
       </c>
     </row>
     <row r="6">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3848.883981688667</v>
+        <v>-3193.151295684647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01567640338829574</v>
+        <v>0.02740904418868074</v>
       </c>
     </row>
     <row r="7">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.06087906680825</v>
+        <v>102.9385994176405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6693955956929846</v>
+        <v>0.5300402929368908</v>
       </c>
     </row>
   </sheetData>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3536.119821285535</v>
+        <v>3366.944515096394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003502335491782433</v>
+        <v>0.009611940634636256</v>
       </c>
     </row>
     <row r="3">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>321.6472756360948</v>
+        <v>432.7561110580156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001264816361199802</v>
+        <v>0.0002418678441093518</v>
       </c>
     </row>
     <row r="4">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06951117272096108</v>
+        <v>0.02688892490381953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5459180828980867</v>
+        <v>0.8532237248929259</v>
       </c>
     </row>
     <row r="5">
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3960.096413245178</v>
+        <v>-2917.316856681015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3001015520090012</v>
+        <v>0.4746499036685593</v>
       </c>
     </row>
     <row r="6">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1655.976150163346</v>
+        <v>-1537.739375478255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2522661020620326</v>
+        <v>0.3615092231122123</v>
       </c>
     </row>
     <row r="7">
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.115105657227</v>
+        <v>182.2797545301629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5094927700504888</v>
+        <v>0.3379385587999387</v>
       </c>
     </row>
   </sheetData>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4201.896676608823</v>
+        <v>2646.767092089751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001125549602644392</v>
+        <v>0.01643298320454878</v>
       </c>
     </row>
     <row r="3">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>404.0179092101565</v>
+        <v>359.9138414690693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002478744232631953</v>
+        <v>0.0004061245709313428</v>
       </c>
     </row>
     <row r="4">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05151916531674777</v>
+        <v>-0.008045500348085377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.762041709091835</v>
+        <v>0.9453559054254537</v>
       </c>
     </row>
     <row r="5">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.534467446038</v>
+        <v>4100.103972534635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6470182398383331</v>
+        <v>0.3058126626299373</v>
       </c>
     </row>
     <row r="6">
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2351.452496257099</v>
+        <v>-1173.578881663494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1543854483646475</v>
+        <v>0.4128263021821122</v>
       </c>
     </row>
     <row r="7">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-130.2410332535012</v>
+        <v>148.7174455717923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4933051413220377</v>
+        <v>0.3587733564113226</v>
       </c>
     </row>
   </sheetData>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3984.648604527589</v>
+        <v>3677.94569576354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004313305878961067</v>
+        <v>0.0003619727806667985</v>
       </c>
     </row>
     <row r="3">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.4368014298549</v>
+        <v>431.6978448942607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00201741831883838</v>
+        <v>4.124393487635334e-05</v>
       </c>
     </row>
     <row r="4">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04497505764571749</v>
+        <v>-0.02711667303571705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7611168277186141</v>
+        <v>0.8170547367575195</v>
       </c>
     </row>
     <row r="5">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1639.47216978046</v>
+        <v>-1256.423218865143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7382431188348175</v>
+        <v>0.7101079199198588</v>
       </c>
     </row>
     <row r="6">
@@ -5005,10 +5005,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1480.161041340392</v>
+        <v>-1352.23966061484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4208284034627634</v>
+        <v>0.3171081068368393</v>
       </c>
     </row>
     <row r="7">
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.20416674740892</v>
+        <v>-56.70467157588848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7256373817731623</v>
+        <v>0.7173401490484139</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5101.345346700837</v>
+        <v>4359.135205277869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004324114911328762</v>
+        <v>7.844870334948838e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.7877767241331</v>
+        <v>419.8739997077155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005619546421487053</v>
+        <v>3.037931975925411e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04167289898309068</v>
+        <v>-0.04598011082501795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.812412937151912</v>
+        <v>0.7111495586093852</v>
       </c>
     </row>
     <row r="5">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5801.456863973302</v>
+        <v>-65.21179083225616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3231140067467738</v>
+        <v>0.9857571653917536</v>
       </c>
     </row>
     <row r="6">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2451.377031550076</v>
+        <v>-2346.930755190016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158305552521385</v>
+        <v>0.1050533976406322</v>
       </c>
     </row>
     <row r="7">
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.175769605376</v>
+        <v>-125.8093497594249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5804174559837907</v>
+        <v>0.4197418495054125</v>
       </c>
     </row>
   </sheetData>
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5095.930290950912</v>
+        <v>4151.503535740726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000633686968395083</v>
+        <v>0.0009194697941998235</v>
       </c>
     </row>
     <row r="3">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.5705172802393</v>
+        <v>402.92960282715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007508255202522832</v>
+        <v>0.0002492620158671491</v>
       </c>
     </row>
     <row r="4">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0004657659571351835</v>
+        <v>0.0243735519263573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9974417843282459</v>
+        <v>0.8647808617968679</v>
       </c>
     </row>
     <row r="5">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2283.783305687137</v>
+        <v>-2643.102815741083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6074319211357626</v>
+        <v>0.4970017445992531</v>
       </c>
     </row>
     <row r="6">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3301.873431310466</v>
+        <v>-2631.686889595034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0597388072303973</v>
+        <v>0.08727779158794238</v>
       </c>
     </row>
     <row r="7">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-53.02709741871084</v>
+        <v>116.7915140100295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7830282125178304</v>
+        <v>0.5089457635353408</v>
       </c>
     </row>
   </sheetData>
@@ -5295,10 +5295,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4189.576534661924</v>
+        <v>3427.161846406865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00314885546506361</v>
+        <v>0.0003736051603060196</v>
       </c>
     </row>
     <row r="3">
@@ -5308,10 +5308,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>387.9847893240162</v>
+        <v>192.4299678796947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001468154452124955</v>
+        <v>0.04571432654701851</v>
       </c>
     </row>
     <row r="4">
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01306306276966701</v>
+        <v>-0.08707694388249618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9270474598279133</v>
+        <v>0.4080098403035382</v>
       </c>
     </row>
     <row r="5">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-506.7323310790925</v>
+        <v>149.7260827291611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9141700592506086</v>
+        <v>0.9686246692727255</v>
       </c>
     </row>
     <row r="6">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2570.845962201226</v>
+        <v>-592.1897983621793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1508271622083738</v>
+        <v>0.6366378618082809</v>
       </c>
     </row>
     <row r="7">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.06956186041057</v>
+        <v>365.6932900579331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8613758765309107</v>
+        <v>0.01730984759660415</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4741.886692588789</v>
+        <v>3046.123714373591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005517911551237245</v>
+        <v>0.01759704434783022</v>
       </c>
     </row>
     <row r="3">
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>368.8751571804916</v>
+        <v>449.4180561038846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008914287867102963</v>
+        <v>7.516295777624717e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5435,10 +5435,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.009083601161171295</v>
+        <v>0.05438529754295043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.949484790587641</v>
+        <v>0.6799424423285382</v>
       </c>
     </row>
     <row r="5">
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.750878159186</v>
+        <v>-1631.857958225148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9516621291556058</v>
+        <v>0.687689540056408</v>
       </c>
     </row>
     <row r="6">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3198.599402757113</v>
+        <v>-1864.427612584816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06236752711093747</v>
+        <v>0.2186662611489537</v>
       </c>
     </row>
     <row r="7">
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-97.01635534741177</v>
+        <v>151.1612896927486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5845540570025204</v>
+        <v>0.4225493471188932</v>
       </c>
     </row>
   </sheetData>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3829.750312254107</v>
+        <v>4436.763459688028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00832447916839104</v>
+        <v>0.0002871805877015257</v>
       </c>
     </row>
     <row r="3">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.2591703285941</v>
+        <v>383.9646668691686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001599991019911662</v>
+        <v>0.0004783293293781963</v>
       </c>
     </row>
     <row r="4">
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04704381667654001</v>
+        <v>0.00158009960780231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8273659896101555</v>
+        <v>0.9931861671086633</v>
       </c>
     </row>
     <row r="5">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1321.869740248661</v>
+        <v>418.5624325357894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7712347521504768</v>
+        <v>0.9169398536773746</v>
       </c>
     </row>
     <row r="6">
@@ -5575,10 +5575,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3162.667337155826</v>
+        <v>-3289.303268031902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121018557309411</v>
+        <v>0.05440590158711938</v>
       </c>
     </row>
     <row r="7">
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.00018818613961</v>
+        <v>-10.57938800407226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7776766760473189</v>
+        <v>0.9500555004151103</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2674.768764445383</v>
+        <v>4608.158774175741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02203759906522248</v>
+        <v>0.00047405671034566</v>
       </c>
     </row>
     <row r="3">
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.3137965079706</v>
+        <v>357.2119811601939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008411614318324333</v>
+        <v>0.001531083261067212</v>
       </c>
     </row>
     <row r="4">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06814851557626628</v>
+        <v>-0.01675950149625438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5560497098322157</v>
+        <v>0.9251623530607037</v>
       </c>
     </row>
     <row r="5">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4988.988426173304</v>
+        <v>-2690.798781555284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1725109024071091</v>
+        <v>0.4955591856774374</v>
       </c>
     </row>
     <row r="6">
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1150.742760399031</v>
+        <v>-2061.976488130361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4107377648684225</v>
+        <v>0.251933897634553</v>
       </c>
     </row>
     <row r="7">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.9590622358233</v>
+        <v>6.754584664342353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1789120933213934</v>
+        <v>0.9692945340320385</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2125.745147663336</v>
+        <v>2823.234737905925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02296791552963363</v>
+        <v>0.01205218223549078</v>
       </c>
     </row>
     <row r="3">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.8996738539215</v>
+        <v>323.378529149458</v>
       </c>
       <c r="C3" t="n">
-        <v>9.292976084376038e-05</v>
+        <v>0.002085977801130727</v>
       </c>
     </row>
     <row r="4">
@@ -5777,10 +5777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05297963681198478</v>
+        <v>-0.01774808201275069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5634537297722011</v>
+        <v>0.8764806912961838</v>
       </c>
     </row>
     <row r="5">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7925.376538644052</v>
+        <v>2378.1151172421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01411448532900224</v>
+        <v>0.5050797088996126</v>
       </c>
     </row>
     <row r="6">
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.8947638912018</v>
+        <v>-936.9392154864565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9083560145118386</v>
+        <v>0.5135142364976404</v>
       </c>
     </row>
     <row r="7">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.55657061911495</v>
+        <v>181.8855177468948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7107444559590459</v>
+        <v>0.262825695275804</v>
       </c>
     </row>
   </sheetData>
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4391.858227030441</v>
+        <v>3862.753411036465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002398773986746163</v>
+        <v>0.0006437640047117748</v>
       </c>
     </row>
     <row r="3">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>406.3425947221094</v>
+        <v>421.9592527727255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001575900460069785</v>
+        <v>5.965101889797877e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03431645808903733</v>
+        <v>-0.007831335719899059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8227696899046574</v>
+        <v>0.9532931264717999</v>
       </c>
     </row>
     <row r="5">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.9087074640411</v>
+        <v>-733.2208608541187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9564951407460858</v>
+        <v>0.8561300133597951</v>
       </c>
     </row>
     <row r="6">
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3848.533500207805</v>
+        <v>-1808.615129406714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03715403379735099</v>
+        <v>0.2164516488472887</v>
       </c>
     </row>
     <row r="7">
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.801037048581748</v>
+        <v>-39.09003081112252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9633677028477821</v>
+        <v>0.8107982112381874</v>
       </c>
     </row>
   </sheetData>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5168.308629495878</v>
+        <v>3870.060333225178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001062783215118232</v>
+        <v>0.002845867653565556</v>
       </c>
     </row>
     <row r="3">
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>426.7958210950434</v>
+        <v>391.6178018176861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001883608683767498</v>
+        <v>0.0005340090260719702</v>
       </c>
     </row>
     <row r="4">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1027263362994829</v>
+        <v>0.0100169067136785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4362141843469201</v>
+        <v>0.9414807173960501</v>
       </c>
     </row>
     <row r="5">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2985.061771893016</v>
+        <v>-2221.670159599205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5520680668886589</v>
+        <v>0.5948896441014803</v>
       </c>
     </row>
     <row r="6">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2103.502828286533</v>
+        <v>-1828.895956648642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1980062300267628</v>
+        <v>0.2487324438477688</v>
       </c>
     </row>
     <row r="7">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-80.31226709265422</v>
+        <v>82.59258913883684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6566177256989238</v>
+        <v>0.6812140447974505</v>
       </c>
     </row>
   </sheetData>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5289.976743637386</v>
+        <v>5617.651438742895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002965463418471547</v>
+        <v>4.220126499915053e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.3921125711436</v>
+        <v>300.1997241810815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003041677431358211</v>
+        <v>0.003476266310118113</v>
       </c>
     </row>
     <row r="4">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01689161248513418</v>
+        <v>-0.04478502660829037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9033425535082376</v>
+        <v>0.7272927426009325</v>
       </c>
     </row>
     <row r="5">
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6399.887807946732</v>
+        <v>-6553.347576144711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1610547014475349</v>
+        <v>0.1088995635758917</v>
       </c>
     </row>
     <row r="6">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3468.698313496834</v>
+        <v>-2944.466314847828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03196128800752443</v>
+        <v>0.0540810152436085</v>
       </c>
     </row>
     <row r="7">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.6878824152308</v>
+        <v>132.6314540111534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4447614051970658</v>
+        <v>0.4029659380816767</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40174767" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40311614" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40438464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ40572827" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ40709252" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ40855352" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ40988514" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41124494" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ41266323" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ41405215" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ41563274" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ41705652" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ41855283" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ41988881" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ42121747" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ42255152" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ42401521" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ42539680" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ42674036" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ42805701" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ42955831" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ43087999" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ43221927" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ43356202" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ43506328" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ43647257" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ43777853" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ43924217" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ44056308" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ44206141" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ44340476" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ44487725" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ44627513" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ44772782" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ44925990" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ45090714" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ45295513" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ45448216" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ45589538" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ45731586" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ45891643" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ46038126" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ46172515" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ46316427" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ46470976" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ46603772" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ46739516" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ46888360" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ47021844" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ47155486" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ31009191" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31184543" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31355082" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31530524" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31695386" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ31856862" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32045637" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32205038" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ32376500" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32548870" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ32715928" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ32884893" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ33050591" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ33221685" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ33384946" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ33554234" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ33714713" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ33885810" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ34054513" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ34225130" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ34394879" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ34559896" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ34717772" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ34884361" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ35056080" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ35223854" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ35389863" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ35560547" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ35726947" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ35892688" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ36058714" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ36225727" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ36387751" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ36551774" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ36716793" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ36880516" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ37043538" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ37374607" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ37546632" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ37711915" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ37878426" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ38041101" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ38219695" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ38404864" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ38564369" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ38720718" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ38883565" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ39046040" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ39209061" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ39376870" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3173.922261568667</v>
+        <v>1872.166111738599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003339777201530179</v>
+        <v>0.372718673831553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.6744579110843</v>
+        <v>31.74580838187364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002058583319584886</v>
+        <v>0.8104570823207083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03761162728227381</v>
+        <v>315.7297702710899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7169339989835549</v>
+        <v>0.0002088986759169722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.546964963128</v>
+        <v>-0.07840363701468595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7724979157259086</v>
+        <v>0.6805419696906506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1069.420966179764</v>
+        <v>0.0002009574733865106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3798364092146217</v>
+        <v>0.3446428903729978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248.6247336817686</v>
+        <v>24.46595436325359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07358182954551389</v>
+        <v>0.004646474273331105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6942.302130291928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03485730743943848</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-961.8078079558979</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4722214450077369</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1096.258413897507</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7669117460399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-7.028097166465741</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8186662514819713</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3289.460777073346</v>
+        <v>41.68143796386039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008321475266993244</v>
+        <v>0.9873629104212049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411.8838291153412</v>
+        <v>-140.8255730053487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003827279122038092</v>
+        <v>0.4328676531011753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03487494942095764</v>
+        <v>477.7804381519273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8409609980332761</v>
+        <v>3.737622681337416e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130.3217160787244</v>
+        <v>0.2192877570272908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9733183602049784</v>
+        <v>0.3840966973210609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2222.242563354173</v>
+        <v>4.517984897807066e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1799870983815929</v>
+        <v>0.8699401246155065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.764823855487</v>
+        <v>15.77709134136725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.498991038074948</v>
+        <v>0.1397494027298397</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6932.281119032512</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0612402982362812</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4130.305125694226</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01669261871108546</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4524.265565653363</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2437132879004647</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.33755372437074</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1336646651176334</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2577.93919299561</v>
+        <v>1.44183451776189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02881348832385701</v>
+        <v>0.9995099134787057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.8751164740611</v>
+        <v>21.49852949563501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009812649653238516</v>
+        <v>0.8830074191874613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05119660892556293</v>
+        <v>363.7915226129014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6420445648833989</v>
+        <v>7.981077784094413e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4261.818882748141</v>
+        <v>-0.1292525402399865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2220155170917823</v>
+        <v>0.5170430215653939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-450.0159926962269</v>
+        <v>0.0002455880312436614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7393215854021324</v>
+        <v>0.2479049197073929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.3797852536512</v>
+        <v>26.58672359955734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1538056492560258</v>
+        <v>0.003376792249955664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5770.670342690536</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04976482574012036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>226.5109869984585</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8691795222978493</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6522.361586481631</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05318087697384401</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.002885559367474144</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9999307213248867</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4588.081675088734</v>
+        <v>631.5523973554982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001500559600097003</v>
+        <v>0.7984601416614536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.4541305730015</v>
+        <v>-78.25142424176966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003070976023600481</v>
+        <v>0.6901063472952662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1223594294986723</v>
+        <v>444.0969295311297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4808670203115069</v>
+        <v>5.278255090517608e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8087.028208557153</v>
+        <v>0.2300836923239598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04553837721490127</v>
+        <v>0.3444983933743625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3198.208774943044</v>
+        <v>7.304505980438238e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04959212525386777</v>
+        <v>0.7535361295755608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255.4921989423206</v>
+        <v>22.9130089357922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1668409223213032</v>
+        <v>0.03955893435583295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5949.244737862326</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0747141908404087</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4196.309416516606</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01246794922883908</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3390.346204518667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3978716343280945</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.30734040853959</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1297224660832226</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3943.003474775375</v>
+        <v>242.7364133747124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007367490737214037</v>
+        <v>0.9243517889809179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394.4059367527681</v>
+        <v>-232.1789589288621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002281353661312707</v>
+        <v>0.1828747562316429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01306825397232261</v>
+        <v>413.4384611336546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9197304996623792</v>
+        <v>0.0001686824988040861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.7745936892552</v>
+        <v>0.2390404928657716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9146809502874005</v>
+        <v>0.3544072911908095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2640.28814857134</v>
+        <v>-0.0001310605653609061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08183680258376108</v>
+        <v>0.6681988953446167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.94683403762397</v>
+        <v>20.35184625531246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8649705531321845</v>
+        <v>0.05609255365746274</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4146.308516104728</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2949853293128548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3903.792522023613</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01807018705883395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3051.043453043154</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4540650500621938</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56.96351509701014</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.123711360457027</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3847.529644244107</v>
+        <v>1850.460982188355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006457542782267896</v>
+        <v>0.5398893177396121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.0755983351266</v>
+        <v>-203.3797815542734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002430922605916261</v>
+        <v>0.2283648396363534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001875592979965368</v>
+        <v>448.275130412097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9886052494362305</v>
+        <v>0.0001526641233356922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1448.216613080576</v>
+        <v>0.06853385778947552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7099227912331192</v>
+        <v>0.7587164363501686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1716.388267041463</v>
+        <v>9.272568670850225e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2634227181553629</v>
+        <v>0.7011076180592828</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.26604381538405</v>
+        <v>-9.421267488229612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8712836597484565</v>
+        <v>0.5706013686200901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6324.246863910927</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05211090655695062</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3692.375912471114</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02549446082260195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4261.993340443138</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2936263304594028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.28181380443208</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03967638140556161</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3922.165181698778</v>
+        <v>649.4872857380633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001431225179084726</v>
+        <v>0.8073487993641143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433.9298172232988</v>
+        <v>-155.6777484619776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000227264618159008</v>
+        <v>0.3755528824620789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01095298992954838</v>
+        <v>438.7369173902866</v>
       </c>
       <c r="C4" t="n">
-        <v>0.938110391529531</v>
+        <v>0.0001819222886919017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2595.475090250532</v>
+        <v>0.1690005276797143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516514966194483</v>
+        <v>0.559316366998788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2042.218379184397</v>
+        <v>-4.110254988739528e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196449027840716</v>
+        <v>0.8972587851503881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.00276658501622</v>
+        <v>19.43438774543237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9075140795118082</v>
+        <v>0.085226178758359</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5080.703339748304</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2128382808418247</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3211.423849772053</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06461156692001786</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>396.095010786059</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9242236546789081</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.07927328427036</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1971016321552268</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4799.70128492527</v>
+        <v>4430.912792495471</v>
       </c>
       <c r="C2" t="n">
-        <v>2.045585314162566e-05</v>
+        <v>0.0847881266717327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.1754684255921</v>
+        <v>-145.8687804675523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001216007534648453</v>
+        <v>0.377160535640983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.007134427898932816</v>
+        <v>296.7892400171569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9533908365558335</v>
+        <v>0.002961837824623859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4305.498544279556</v>
+        <v>0.04486695043431499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2273831247781238</v>
+        <v>0.8418896091605839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2261.68879979678</v>
+        <v>1.66536815813539e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08754316607261534</v>
+        <v>0.9460708811341183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.19428549805056</v>
+        <v>-7.282843845219203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9408850213209166</v>
+        <v>0.6211099490174555</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5204.537366922692</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1062901728032467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3713.359762331457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.009128608136211407</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-353.0565280341798</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9229055250823395</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.34269921090993</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1574740740394918</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4005.689958446823</v>
+        <v>596.5787309953412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008334222587021526</v>
+        <v>0.8150402368412291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>442.6068059249079</v>
+        <v>-360.4725779088378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000279957518974727</v>
+        <v>0.05993677268213687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02093152437020052</v>
+        <v>510.7314700560646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8780088339749854</v>
+        <v>2.021800417106272e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>123.2010732349308</v>
+        <v>0.2758981041033818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9778978348287485</v>
+        <v>0.2750403309000383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3058.264052121062</v>
+        <v>-9.711023978352498e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05039956868161563</v>
+        <v>0.7388348405411074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.19552665065909</v>
+        <v>24.56714827450799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9206072481282926</v>
+        <v>0.02974257914073129</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5761.90290268134</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.153634063852742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4975.665990612157</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002587098737995409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2820.291472928977</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4893478305931436</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.74718404947822</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1631329885202212</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3188.487442940706</v>
+        <v>-1918.597476355149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001658353250956412</v>
+        <v>0.3817392107132845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.881329415216</v>
+        <v>-120.2931817093111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003832619397420334</v>
+        <v>0.3738193397138745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09207312262357337</v>
+        <v>436.7070619657433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4227327015413673</v>
+        <v>4.280517716151219e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.246887145775</v>
+        <v>-0.07965785351428933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.563278381654101</v>
+        <v>0.6998000598670795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172.5029027419221</v>
+        <v>0.0001896087581925824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9056413496662994</v>
+        <v>0.3986524929418095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.2795331603229</v>
+        <v>29.73876472163757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4780249598814054</v>
+        <v>0.0010604800012845</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3893.211663620872</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1553376801011496</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>111.0981196877065</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9398267897367758</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2802.612666695056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3954761322166197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.79823710188344</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1616275066595929</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4187.888319933189</v>
+        <v>-495.787068323214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001680279885255544</v>
+        <v>0.8668070381287265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397.8859831883941</v>
+        <v>-156.4183458509147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003377077712132225</v>
+        <v>0.415159525064165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08220668947277526</v>
+        <v>451.1770457950454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6728527862557746</v>
+        <v>0.0001150904626765399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2888.330018032781</v>
+        <v>0.2065598225152377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4618599723019063</v>
+        <v>0.4775277451706533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2746.688598547583</v>
+        <v>9.212486378772295e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1301628836519089</v>
+        <v>0.7415146613918684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.85907756619389</v>
+        <v>21.27193568801191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5912687146872944</v>
+        <v>0.06931248361280824</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6493.011097052562</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09992889493287163</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3571.547856248249</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05799537704695751</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1788.750814530393</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6693158678226321</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.31757927059046</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.115993155902668</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4014.02722564077</v>
+        <v>1094.099444302254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000779770049648567</v>
+        <v>0.7065022895132447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438.2654120258663</v>
+        <v>-130.4805516371183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002249634611574444</v>
+        <v>0.4755191420747201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05520373239982446</v>
+        <v>450.3268531756436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7055917687218225</v>
+        <v>0.0002237363197370443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2630.060637482402</v>
+        <v>0.1927214548724754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4974998733249678</v>
+        <v>0.5070121721190007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2719.517370757029</v>
+        <v>-6.214486550508306e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09483681414393669</v>
+        <v>0.8379479415836415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.24106207091816</v>
+        <v>18.17571079031769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8244374260486471</v>
+        <v>0.1183739881325162</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3899.160341709304</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3143332394697818</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3318.36229102382</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06806406101721654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>144.2422307225434</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.972910027391471</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.83284340817718</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3764272638621488</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3700.163990757687</v>
+        <v>1324.659407097182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003513197055421587</v>
+        <v>0.6414838233661081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.6308531530759</v>
+        <v>-26.15494083484933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002581851644935059</v>
+        <v>0.8847570897473096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01129869443104058</v>
+        <v>428.1294834018064</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9289890189383596</v>
+        <v>0.0002042921913501584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1829.732758149367</v>
+        <v>0.02709847499333419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6444344750466435</v>
+        <v>0.9111699465745153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2104.235159856998</v>
+        <v>0.0001260684490870467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1566215324231907</v>
+        <v>0.6347816528042893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.5062904144228</v>
+        <v>15.64504899793502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3516588470834802</v>
+        <v>0.1556889198603843</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6146.343923353305</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08458081053832137</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2616.472693644426</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1125016944672169</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1550.485208406155</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7158003238184028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.86244521071589</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4448726632731087</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4254.837221330505</v>
+        <v>-2326.753562566196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004805155963144707</v>
+        <v>0.3864597449259797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>424.5623954549475</v>
+        <v>-277.9284281228973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001131619055692279</v>
+        <v>0.09415633383031125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013241669960429</v>
+        <v>531.5074869517725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9232148100768864</v>
+        <v>1.554195974219e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-533.2936924327564</v>
+        <v>0.1506202346972266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8999623677946096</v>
+        <v>0.4964378312572064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2781.241052353893</v>
+        <v>0.0001376000618519312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09347566115766422</v>
+        <v>0.5727303643297091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.65689663208917</v>
+        <v>21.00918368577584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9172225192180121</v>
+        <v>0.05311559613314103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5709.748448854093</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1131797173008415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3779.938618540723</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02639440505925049</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3765.178801646462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3606718406682006</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>99.55379889552563</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.009792006157260412</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4256.329016319666</v>
+        <v>4193.275004624158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003931432107545029</v>
+        <v>0.188600629503331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.1781057449433</v>
+        <v>-272.702386717158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000160737725670938</v>
+        <v>0.1623249516304844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01089184902054771</v>
+        <v>343.4949010626433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9294712661489202</v>
+        <v>0.002460308113365882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-669.1400263425894</v>
+        <v>-0.002232694729747825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8577651895479079</v>
+        <v>0.9923925251443668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2336.45054024408</v>
+        <v>4.662760653670821e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0949659962476284</v>
+        <v>0.8529820385636671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-103.8616724972218</v>
+        <v>-8.247872792189302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5602377216441201</v>
+        <v>0.6357844613064061</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5649.187976895455</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1027731006173559</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3627.499515884968</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02109874012281216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4078.469656832319</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3238897542188707</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.45820025467011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.263637386621466</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2946.026826957393</v>
+        <v>536.8095052813906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005214570964413966</v>
+        <v>0.7992034903512533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337.0430457620206</v>
+        <v>-185.8169604376799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004306832641146256</v>
+        <v>0.2159023879991537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005146857595451082</v>
+        <v>415.7698800037541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9729807379207629</v>
+        <v>1.503035652954463e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3668.698039598501</v>
+        <v>0.05916215801361074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3391661793121153</v>
+        <v>0.7943973996990892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1346.929493752174</v>
+        <v>0.0001721848829699374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.343640372235117</v>
+        <v>0.4590381394182506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.9482162017235</v>
+        <v>32.95985243829185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3858191346505664</v>
+        <v>0.0008665231259845646</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6841.476614996827</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04640276659645792</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1686.54250229363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2460112055947331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3915.030735939144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2485503489021125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.763293043669403</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9297715675817022</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3368.288996802975</v>
+        <v>-666.9202123356717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008653495021078173</v>
+        <v>0.8026042453258198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>418.3201341782733</v>
+        <v>-45.8351722163076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002573615227919355</v>
+        <v>0.7957736932301764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004014589788602363</v>
+        <v>414.4966584978084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9768975610391877</v>
+        <v>0.0002092180835998138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-585.3038995933684</v>
+        <v>0.4377320569776131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8810708478197321</v>
+        <v>0.1287957769459205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1957.51044092912</v>
+        <v>-0.0003902564042174841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2198546800456259</v>
+        <v>0.2561778844887342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.3761757436589</v>
+        <v>21.1096221747861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4817830660591275</v>
+        <v>0.05380406602041131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2327.365467858301</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5459455024965284</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4022.977238660426</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01836843558500863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1637.383154009218</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6714781314719775</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.20486783377829</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07362875880240091</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5124.556688383976</v>
+        <v>2683.601466065375</v>
       </c>
       <c r="C2" t="n">
-        <v>1.886731820256054e-05</v>
+        <v>0.2866720958259532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.1014674397373</v>
+        <v>166.402046839185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07967577674812749</v>
+        <v>0.3753323653293179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05257512184678079</v>
+        <v>243.8244566648898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6809548900043494</v>
+        <v>0.04174540139491601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8208.055703160908</v>
+        <v>-0.02492601775601933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03340560046211493</v>
+        <v>0.9146844008077955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1963.040956259149</v>
+        <v>8.453930038007971e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1819238285018757</v>
+        <v>0.7201109096675158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.0680030167313</v>
+        <v>15.71471529522938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06019545147617691</v>
+        <v>0.1109111088326683</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5590.394922553744</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08220433421865779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2317.415948731375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1436850528629284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-4791.84547581737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2303420092867415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.41150471624344</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4009951562926121</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3047.243578830094</v>
+        <v>-105.1934041250988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001743033729780229</v>
+        <v>0.9541347064271187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>368.745834582745</v>
+        <v>-111.3012590938424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001031334068464055</v>
+        <v>0.4459284642040103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0002336657042689011</v>
+        <v>408.9116723320305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982152061337672</v>
+        <v>8.410660051760287e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3292.62640564191</v>
+        <v>0.3591099266637942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3051611459481748</v>
+        <v>0.1171548560233526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2112.531121058182</v>
+        <v>-0.0003037717385642846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1084818464096508</v>
+        <v>0.2607540224285118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.7143196415438</v>
+        <v>26.33722730576706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4284410553419931</v>
+        <v>0.001708747188892126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1928.127748501762</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4819453203077434</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3293.77798462769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02547184076580536</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3930.059237601061</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1855488778056634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.55504929517508</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3064889450761696</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4049.625502377291</v>
+        <v>686.6285395572218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001260612292420736</v>
+        <v>0.7987502258483425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388.8146390999967</v>
+        <v>-135.6881825182351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007448704691485181</v>
+        <v>0.4542942910059273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01854267370999485</v>
+        <v>409.7726123987574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9045497759610391</v>
+        <v>0.0005687122226031268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2546.97212815348</v>
+        <v>0.06691047742617087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5249007081328272</v>
+        <v>0.8184140214281527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1627.821395867915</v>
+        <v>4.710348277498947e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3320622621108829</v>
+        <v>0.8732161914018801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.14455099840632</v>
+        <v>19.40128028023523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6753167652320826</v>
+        <v>0.08838482713585583</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5795.874545155239</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1343401254880697</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2782.945562519569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1271432899439189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>812.2856494182852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8467190354595029</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>51.56774522118965</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1774930066849267</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3967.822734032109</v>
+        <v>1670.223299382933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003553700795849836</v>
+        <v>0.6081954480339438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.9386161473705</v>
+        <v>-130.7119638506674</v>
       </c>
       <c r="C3" t="n">
-        <v>3.772575801798177e-05</v>
+        <v>0.4513406962755619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01570149704249238</v>
+        <v>460.4519387930948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9262865763745911</v>
+        <v>8.96263438849361e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2534.447900628027</v>
+        <v>0.1005086356344278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5009387375326213</v>
+        <v>0.6773406375564545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1709.734479978661</v>
+        <v>6.700505642906951e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2834404955480546</v>
+        <v>0.7825400313093581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.38668091934704</v>
+        <v>-9.827441309102825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8114266442638379</v>
+        <v>0.6399976449165387</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4663.273426820426</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1451307290930085</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2777.955010926613</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09072182572109444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>832.5879901388453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8291448215798836</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.55377736779356</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06412871372098933</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4532.538418680449</v>
+        <v>869.5104079646499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009269317169946027</v>
+        <v>0.7543989437381534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.089357240389</v>
+        <v>-16.85418567096311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001783126333810399</v>
+        <v>0.9230460168926822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003000883050540859</v>
+        <v>387.2339272749979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9813402281153503</v>
+        <v>0.0004560110301970487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5478.93743040013</v>
+        <v>0.1065525692049177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2288454761194821</v>
+        <v>0.6396786948660318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2422.56013591717</v>
+        <v>8.791826649820684e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1106956854604512</v>
+        <v>0.729597626530135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8485220713289</v>
+        <v>16.06644432455977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3075073013059678</v>
+        <v>0.1248600957179219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6735.944732095565</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06380496720831373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3455.242258681496</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02985125119282058</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>171.2249019759456</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9703032832474063</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>51.23954370664421</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1673870807792007</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4835.038413161849</v>
+        <v>-2423.204164117515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001227097649387301</v>
+        <v>0.3290476204058733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482.720260405162</v>
+        <v>-449.9390393262613</v>
       </c>
       <c r="C3" t="n">
-        <v>5.122070892919494e-05</v>
+        <v>0.0120187492917443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04490412809685443</v>
+        <v>592.4023729143729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7307762512984546</v>
+        <v>5.758696238760974e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6034.75010362888</v>
+        <v>0.1327437740659531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1337375521938981</v>
+        <v>0.5176824025156352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1806.562127279392</v>
+        <v>8.512440935934981e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2417061650800149</v>
+        <v>0.7026209443061031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-76.14070664273333</v>
+        <v>30.45307892972452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6835199215559085</v>
+        <v>0.002290326481806509</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6030.400404152111</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04004632461168461</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2466.952559269406</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08060966518675043</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2917.342164464686</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3975699212204074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>103.9196906249405</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003930761559799491</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4214.710210995318</v>
+        <v>677.792974357468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009666905126246259</v>
+        <v>0.8128254747611655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.4800833321264</v>
+        <v>-261.7780157626456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001603033965349254</v>
+        <v>0.1649689557531731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03298950113051612</v>
+        <v>411.6310897312148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8048909605256461</v>
+        <v>0.0002732752379462483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-557.8067127352406</v>
+        <v>0.04681531361690819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8914969049076356</v>
+        <v>0.8546847484113507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2011.442652036206</v>
+        <v>0.0001419059081715095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1895704651688233</v>
+        <v>0.6251715295082445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.52476174150752</v>
+        <v>23.54657181740755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8288559718725718</v>
+        <v>0.04229082038165228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7720.594508093118</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08356897858598202</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2741.7017428283</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09523154224681324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1702.876422179426</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6776786316625178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.66327128529691</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2611975747911826</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4709.284166855852</v>
+        <v>-2117.58121362128</v>
       </c>
       <c r="C2" t="n">
-        <v>3.504130581663036e-05</v>
+        <v>0.3519918683553361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493.8544711783857</v>
+        <v>-465.3678442347961</v>
       </c>
       <c r="C3" t="n">
-        <v>4.951449346631099e-06</v>
+        <v>0.003012028031894508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0253218311977937</v>
+        <v>592.6800994444131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8891565534566562</v>
+        <v>3.003126688154724e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3873.034575345702</v>
+        <v>0.242163767064306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3488583462434548</v>
+        <v>0.294405483793279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2494.871057403526</v>
+        <v>-4.231849759887265e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143055955953636</v>
+        <v>0.8619603261892772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-96.26806870642332</v>
+        <v>29.7294369431816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5374668375525216</v>
+        <v>0.001628584456942532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5980.172493492631</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0863206182855807</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3182.601704684391</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04070898599631025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1596.490474113518</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6514466334336377</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98.92583901409921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003537192275664658</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5114.887958859377</v>
+        <v>1834.907301494685</v>
       </c>
       <c r="C2" t="n">
-        <v>5.60993350428206e-05</v>
+        <v>0.4682217351254675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.7592298264784</v>
+        <v>64.8343310156435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02972428276199849</v>
+        <v>0.7304834929878428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02267951347294958</v>
+        <v>301.0763041906392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8599598298052554</v>
+        <v>0.008513662605549515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8458.673340428166</v>
+        <v>0.06778302139643877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05628425179975476</v>
+        <v>0.7782011418286463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2486.03715604516</v>
+        <v>6.136400123670611e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09446734049977615</v>
+        <v>0.8227236907162533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312.1608325867714</v>
+        <v>19.39009767297672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08895920409243389</v>
+        <v>0.08659848200387468</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5801.870541973083</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09977624534923728</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3433.845954088676</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02728837924266328</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-4098.652260597753</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3463048148237033</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.02434263748584</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2225656967126807</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4185.55609849341</v>
+        <v>-490.9747716410529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001660710805958784</v>
+        <v>0.8638606794497817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>364.8532718599388</v>
+        <v>-147.0376207436337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009151777803698771</v>
+        <v>0.433791066781527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01787376211588875</v>
+        <v>447.7851376862392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9019123091305072</v>
+        <v>9.839704270976183e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-320.8920304041403</v>
+        <v>0.01432966332960361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9375820781587554</v>
+        <v>0.9572878490253904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2331.382794078548</v>
+        <v>0.0002169191839671718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1541183083062009</v>
+        <v>0.4514161967403317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.17884737652423</v>
+        <v>19.49897398968704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7011994156978267</v>
+        <v>0.08431815525513307</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6026.979219700694</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1142577322272407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3099.823273875851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07430064616195606</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3442.066759938039</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4165091923125379</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.30672960430194</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.128133777623747</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.170036590167</v>
+        <v>446.9461658732116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04141678425273271</v>
+        <v>0.8336876736668315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.9062157340868</v>
+        <v>101.6973918211987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001043532108279021</v>
+        <v>0.4721519669621764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.010475133305346</v>
+        <v>327.0458876762015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9209698858649407</v>
+        <v>0.0003797283094596905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3434.157507849513</v>
+        <v>0.03566059032264933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2836645753518752</v>
+        <v>0.856297918360151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-318.6463691846493</v>
+        <v>3.978058652073069e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8015050178468812</v>
+        <v>0.8533218258475275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>274.5898115942479</v>
+        <v>24.07834177954055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0685985442044349</v>
+        <v>0.006127440025026481</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4121.93979515831</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1420567987743739</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-281.627289066548</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.832972034502661</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4396.429942336695</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1568921989703269</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.724762805648538</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9004005858965698</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3734.65697568535</v>
+        <v>4029.066779417881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00143466572346011</v>
+        <v>0.1838900806141747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>419.7788666180593</v>
+        <v>-194.2691384112942</v>
       </c>
       <c r="C3" t="n">
-        <v>8.481961402742261e-05</v>
+        <v>0.2758506647153036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02085206589094223</v>
+        <v>380.2276305920092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8708446554592416</v>
+        <v>0.0005196473072964021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-407.4976790674264</v>
+        <v>0.06033216750693576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9135568417593667</v>
+        <v>0.793559297455153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2045.328004547116</v>
+        <v>2.540164368827416e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.170677424514051</v>
+        <v>0.9170593905219935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.92471113050141</v>
+        <v>-13.86667138762493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.865997224005415</v>
+        <v>0.426216504441572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6076.497094611201</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0760580804803874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4115.868811615219</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01405000559678015</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5477.957312026449</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1886559693509722</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.75253430604726</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1697103302574355</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.646913973439</v>
+        <v>-909.7845221806815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07428376114968104</v>
+        <v>0.6705497677124119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>361.8968159901753</v>
+        <v>57.14290669606942</v>
       </c>
       <c r="C3" t="n">
-        <v>8.657036367833691e-05</v>
+        <v>0.698434834001862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01522091758576366</v>
+        <v>390.2249605974726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8913217699542118</v>
+        <v>1.782919233943824e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4257.486621129388</v>
+        <v>0.1495037631048343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2073965663028321</v>
+        <v>0.4480275402148479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-455.8729027537</v>
+        <v>-5.176720477526129e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.731203902850958</v>
+        <v>0.8097996926198823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.1838893075659</v>
+        <v>23.82158982736615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07353126744023798</v>
+        <v>0.007568068123855728</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4247.628989732631</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.119478749034804</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1187.4863887554</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3958921913642693</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6440.575105243413</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05290859025066028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.60181818746938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4126598145085165</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4163.4020660197</v>
+        <v>830.9889564278749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005002671426522425</v>
+        <v>0.734249859147873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.5092062600232</v>
+        <v>-372.4904130975505</v>
       </c>
       <c r="C3" t="n">
-        <v>3.993462967451521e-05</v>
+        <v>0.05837224165887715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06934245316415455</v>
+        <v>545.1800572023799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6259066479191292</v>
+        <v>7.209592163322323e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4191.461004724895</v>
+        <v>0.1643433595858822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2976105149075247</v>
+        <v>0.5038133769362461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2769.835480719475</v>
+        <v>7.127324771774872e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08129903464295637</v>
+        <v>0.7824772621433107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.38312926542244</v>
+        <v>21.08317285268944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9277114080507669</v>
+        <v>0.04939566604603141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7360.241187362432</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05461469022189553</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4252.19236117578</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01336493503137454</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1410.614560086204</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7402406593537262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>51.03400017511247</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1463120782283716</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4373.522786194814</v>
+        <v>-1507.235088883019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006684098753492277</v>
+        <v>0.6071117842153089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>361.3235517519629</v>
+        <v>-212.7794120408572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001043477794057351</v>
+        <v>0.2395448021089695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02757755976155805</v>
+        <v>424.3584920214606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8446309965224347</v>
+        <v>0.0001527315352339219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1511.891144029754</v>
+        <v>0.102028211502833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7278395403534144</v>
+        <v>0.7300248457437846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2890.042772445463</v>
+        <v>4.77577386589329e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07319797481954093</v>
+        <v>0.8885861821929872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.073988914476018</v>
+        <v>28.54675717683082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9669207684925414</v>
+        <v>0.02094353809589557</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1884.980715588425</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6782129230827305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3282.82242460675</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05224138188506094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3954.192441315674</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3732163593242641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.66880500365123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09830123708039473</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4669.684320183439</v>
+        <v>1095.046921993794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003050004841044774</v>
+        <v>0.6951604151125692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.1244279031448</v>
+        <v>-175.4041434234178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002803242955598348</v>
+        <v>0.3593446086608559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0179431820333015</v>
+        <v>380.5599857675977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8908656358314097</v>
+        <v>0.001320079166583471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2352.556507504972</v>
+        <v>0.1106339290123124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5403430924877699</v>
+        <v>0.6447883621309015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2684.036723352458</v>
+        <v>3.674472133294499e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08632040632982171</v>
+        <v>0.8903868612616102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.21000047963727</v>
+        <v>21.8859927231655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6774669467244274</v>
+        <v>0.0569253515315747</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5766.056046162055</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1158543721146518</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3392.710436986966</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04186666462353152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>593.6908676403541</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.880801937249879</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.99484917593927</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2375980865789511</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3313.668699909255</v>
+        <v>3674.413957641217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006189563055787392</v>
+        <v>0.218653813459011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>386.0520485292154</v>
+        <v>-32.78671250205684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002195865455142221</v>
+        <v>0.8628655546027089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001094443901863917</v>
+        <v>365.1795045212266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9929880110905204</v>
+        <v>0.0006707866735915775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-471.3639473252233</v>
+        <v>-0.06272674294810732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8955766872162874</v>
+        <v>0.7942388455841324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1103.55037673945</v>
+        <v>0.0001627120549385055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4486075643105142</v>
+        <v>0.5309352156817185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.52087125084756</v>
+        <v>-15.59819670547619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5981909738574378</v>
+        <v>0.3554503506355949</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6937.027024497148</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05283422418223152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2665.90979041688</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09284266031191322</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4633.423430245642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2264065182039837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.46443670848772</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2133722131152323</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4419.460843108634</v>
+        <v>2271.805982839825</v>
       </c>
       <c r="C2" t="n">
-        <v>4.679406263862633e-05</v>
+        <v>0.3990801724556292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346.3853096726014</v>
+        <v>-3.734940257709553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003450566330748775</v>
+        <v>0.9786054706673253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03047200896643676</v>
+        <v>351.7064049015745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8337579101729359</v>
+        <v>0.0002592109384849372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5905.019540733431</v>
+        <v>0.01307616482284851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1160876673961277</v>
+        <v>0.9502001181076101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149.248093936152</v>
+        <v>9.231957466944766e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4159259441518225</v>
+        <v>0.661193432048254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.27578213216762</v>
+        <v>-8.253375119455818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5099406252481067</v>
+        <v>0.547007623563226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5473.26029915873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05070349522570727</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2585.718422165804</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06484739278871224</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2670.891893207857</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4506339253726934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.84708037187164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02717829390197486</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4399.311738464056</v>
+        <v>321.7803797009901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001099474705922743</v>
+        <v>0.9044619029664495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.1970690290743</v>
+        <v>-249.0420583259141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001847755427799696</v>
+        <v>0.1818800340684212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01536905442168131</v>
+        <v>391.8239856392865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9310516135431298</v>
+        <v>0.0007311897086010465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1998.913523542661</v>
+        <v>0.2190802948523359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6163671714422576</v>
+        <v>0.402012236344695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2468.769971736354</v>
+        <v>5.597208544235626e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1600919774881089</v>
+        <v>0.9983442752353525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.83644245322516</v>
+        <v>22.72301323236733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7927223264232259</v>
+        <v>0.04443731186896355</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5915.536785753341</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1104264596991067</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3946.46187519226</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03007775887208323</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1470.375230928144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.712279250934778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.88753711999181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09458001852858389</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5159.111892514286</v>
+        <v>1096.569091248351</v>
       </c>
       <c r="C2" t="n">
-        <v>1.63403701508935e-05</v>
+        <v>0.6599221068028797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.970450712201</v>
+        <v>-159.8673634419247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001422375240300378</v>
+        <v>0.3752177288811426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03114490014926846</v>
+        <v>400.3890092719507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.803366283749064</v>
+        <v>0.0001173065984968897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3531.355444072732</v>
+        <v>-0.05658007783732678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3997396457833932</v>
+        <v>0.8077519551481736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3193.151295684647</v>
+        <v>0.0002452813685051336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02740904418868074</v>
+        <v>0.3496638611163548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.9385994176405</v>
+        <v>24.08804943218176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5300402929368908</v>
+        <v>0.03410323863314813</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5443.017116858504</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1479081307460099</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3442.986076983523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02369034910200848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>512.3803953922634</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9066744885827411</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.25310806850955</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2925322561604927</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3366.944515096394</v>
+        <v>-3224.424055116301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009611940634636256</v>
+        <v>0.2494246622480741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.7561110580156</v>
+        <v>-109.8282725354507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002418678441093518</v>
+        <v>0.5620862168761358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02688892490381953</v>
+        <v>524.5880851144811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8532237248929259</v>
+        <v>1.173342297994533e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2917.316856681015</v>
+        <v>0.1205098482137665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4746499036685593</v>
+        <v>0.6490655266423613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1537.739375478255</v>
+        <v>0.0001218809683543298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3615092231122123</v>
+        <v>0.6601603626382013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.2797545301629</v>
+        <v>23.26964150873564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3379385587999387</v>
+        <v>0.03906686544146461</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6121.836767051745</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09210507174042164</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1972.822020790035</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.24664748695098</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1295.4046879876</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7410901996033844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98.66233184190285</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01408308093599728</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2646.767092089751</v>
+        <v>83.74670004407926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01643298320454878</v>
+        <v>0.9729039464505058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.9138414690693</v>
+        <v>-61.89240234732651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004061245709313428</v>
+        <v>0.691869905431703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.008045500348085377</v>
+        <v>402.221625283015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9453559054254537</v>
+        <v>5.990098532922888e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4100.103972534635</v>
+        <v>0.09066571099007489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3058126626299373</v>
+        <v>0.6683837880484332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1173.578881663494</v>
+        <v>4.439066567217996e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4128263021821122</v>
+        <v>0.8408347606657384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.7174455717923</v>
+        <v>25.04025948087912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3587733564113226</v>
+        <v>0.007582017598423267</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5227.915982914085</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.108710154876596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1675.318808362596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2733825442659499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4750.991580322812</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2100577142559713</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.7655552989424</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5455354283888054</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3677.94569576354</v>
+        <v>4293.521688937848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003619727806667985</v>
+        <v>0.1204867099556707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>431.6978448942607</v>
+        <v>-94.49075258335301</v>
       </c>
       <c r="C3" t="n">
-        <v>4.124393487635334e-05</v>
+        <v>0.5542324953803441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02711667303571705</v>
+        <v>367.5296463175825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8170547367575195</v>
+        <v>0.0008039108051833193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1256.423218865143</v>
+        <v>0.1067239761540118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7101079199198588</v>
+        <v>0.662459030906589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1352.23966061484</v>
+        <v>-0.0001498147212836597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3171081068368393</v>
+        <v>0.6029837827317852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-56.70467157588848</v>
+        <v>-10.87610816003973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7173401490484139</v>
+        <v>0.4801923583613568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3708.839374973923</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2530773774193341</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3031.724077261839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04843131659583147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1945.654935671484</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5895742713817635</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.11778707180079</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3743545848522458</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4359.135205277869</v>
+        <v>663.3310114878032</v>
       </c>
       <c r="C2" t="n">
-        <v>7.844870334948838e-05</v>
+        <v>0.8215503687784341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>419.8739997077155</v>
+        <v>-241.639549152325</v>
       </c>
       <c r="C3" t="n">
-        <v>3.037931975925411e-05</v>
+        <v>0.1184186374866045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04598011082501795</v>
+        <v>466.9005191616734</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7111495586093852</v>
+        <v>1.166188969752961e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-65.21179083225616</v>
+        <v>0.109082227751033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9857571653917536</v>
+        <v>0.6195614302545724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2346.930755190016</v>
+        <v>1.274320860107918e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1050533976406322</v>
+        <v>0.9599071830497408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-125.8093497594249</v>
+        <v>-1.717827730747649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4197418495054125</v>
+        <v>0.9150965808623029</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4472.123872518169</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.162799707501516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3854.598829554696</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01386706382639406</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3813.301230972018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3015998076143959</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.6076256977217</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01496241181914941</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4151.503535740726</v>
+        <v>1372.08285654174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009194697941998235</v>
+        <v>0.6345797823934547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>402.92960282715</v>
+        <v>-121.8856720617394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002492620158671491</v>
+        <v>0.5377000290425731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0243735519263573</v>
+        <v>413.9102279031266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8647808617968679</v>
+        <v>0.0004033074581894776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2643.102815741083</v>
+        <v>0.07601450270612026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4970017445992531</v>
+        <v>0.7879888227181671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2631.686889595034</v>
+        <v>5.57361561224918e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08727779158794238</v>
+        <v>0.8505094492505022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.7915140100295</v>
+        <v>17.60173404001236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5089457635353408</v>
+        <v>0.1350366913397559</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5512.157214124902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1863519415937428</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3208.039821889157</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06303814241288275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>854.3809031819164</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8461094491326628</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.26157894124781</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3138609330484657</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3427.161846406865</v>
+        <v>1941.359920310966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003736051603060196</v>
+        <v>0.307589563213795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.4299678796947</v>
+        <v>88.70985213798593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04571432654701851</v>
+        <v>0.5459409043561338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08707694388249618</v>
+        <v>262.3463416784732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4080098403035382</v>
+        <v>0.005142061787476599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.7260827291611</v>
+        <v>-0.0342952743064262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9686246692727255</v>
+        <v>0.8484909775193756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-592.1897983621793</v>
+        <v>8.218503214978015e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6366378618082809</v>
+        <v>0.6759385205569546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6932900579331</v>
+        <v>25.89457115300465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01730984759660415</v>
+        <v>0.00203191539515109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5279.540584032316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06108159421527503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1087.683158253792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4043663396749597</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>611.4235869039967</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8548337330551252</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.265961890019035</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9043856384311324</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3046.123714373591</v>
+        <v>-9.12404871893159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01759704434783022</v>
+        <v>0.9974053598735693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.4180561038846</v>
+        <v>-16.3046411890532</v>
       </c>
       <c r="C3" t="n">
-        <v>7.516295777624717e-05</v>
+        <v>0.9314342041583887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05438529754295043</v>
+        <v>464.7787377681028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6799424423285382</v>
+        <v>5.433648083372334e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1631.857958225148</v>
+        <v>0.1011199876965451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.687689540056408</v>
+        <v>0.688644998904376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1864.427612584816</v>
+        <v>0.0001065933025882558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2186662611489537</v>
+        <v>0.7009776266793049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.1612896927486</v>
+        <v>17.99866946812617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4225493471188932</v>
+        <v>0.1075367089347537</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6063.09455999238</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1140055468788125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2472.093192266312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1339525891023733</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2365.836297453754</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5865779960869928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.14151228026439</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3411998988585602</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4436.763459688028</v>
+        <v>-1013.021410139561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002871805877015257</v>
+        <v>0.6879725469830802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383.9646668691686</v>
+        <v>-256.9725191709415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004783293293781963</v>
+        <v>0.1375080527445719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00158009960780231</v>
+        <v>464.3025202807855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9931861671086633</v>
+        <v>5.544316332443641e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>418.5624325357894</v>
+        <v>0.2007498468764697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9169398536773746</v>
+        <v>0.4323314256620989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3289.303268031902</v>
+        <v>6.021435500812126e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05440590158711938</v>
+        <v>0.8399566246194636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.57938800407226</v>
+        <v>27.40902270261583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9500555004151103</v>
+        <v>0.01777508462089077</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4456.01724173356</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2064063720517433</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4324.752333991303</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01205966856847306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4082.352138241164</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3086570744467702</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.91326065399934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07160897008192198</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4608.158774175741</v>
+        <v>-55.87938885036419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00047405671034566</v>
+        <v>0.9829670872746723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357.2119811601939</v>
+        <v>-253.2811542439948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001531083261067212</v>
+        <v>0.155325469362519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01675950149625438</v>
+        <v>410.6914100830539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9251623530607037</v>
+        <v>0.0002861264612023738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2690.798781555284</v>
+        <v>0.1903582101060532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4955591856774374</v>
+        <v>0.477085213263801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2061.976488130361</v>
+        <v>2.291676272112613e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251933897634553</v>
+        <v>0.9353413781920544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.754584664342353</v>
+        <v>23.81462198333583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9692945340320385</v>
+        <v>0.03237884310750052</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5892.771675751592</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09047462508789708</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3305.374780466565</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06984158905051334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>742.4118475636114</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.848227515946452</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.51134347350197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09120448079833493</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2823.234737905925</v>
+        <v>-287.3308011384706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01205218223549078</v>
+        <v>0.9002978743010644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.378529149458</v>
+        <v>-12.40128075877914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002085977801130727</v>
+        <v>0.9358241853006027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01774808201275069</v>
+        <v>367.5846084860144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8764806912961838</v>
+        <v>0.0003874012479845541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2378.1151172421</v>
+        <v>0.09702997518709602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5050797088996126</v>
+        <v>0.6181290189881239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-936.9392154864565</v>
+        <v>2.423161408429122e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5135142364976404</v>
+        <v>0.9106138333344085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.8855177468948</v>
+        <v>26.93163792332142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.262825695275804</v>
+        <v>0.004460609612471245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4661.679338454749</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1024032246708872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1250.555301279207</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3938911576367954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3878.218496653014</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2472538980670624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20.10270610233723</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5216504519896119</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3862.753411036465</v>
+        <v>1435.06140829643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006437640047117748</v>
+        <v>0.6470148584319015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>421.9592527727255</v>
+        <v>-163.4455809109709</v>
       </c>
       <c r="C3" t="n">
-        <v>5.965101889797877e-05</v>
+        <v>0.3297974781697381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.007831335719899059</v>
+        <v>437.2181895847107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9532931264717999</v>
+        <v>0.0001622410191593301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-733.2208608541187</v>
+        <v>0.07292126734625884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8561300133597951</v>
+        <v>0.7914464672989017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1808.615129406714</v>
+        <v>3.158575382220522e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2164516488472887</v>
+        <v>0.916906511053477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.09003081112252</v>
+        <v>-3.542558307892516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8107982112381874</v>
+        <v>0.8344020166237746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4817.847714410407</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2503742490404581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2892.390663331634</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07469046463983033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2362.709267297985</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.574320249380937</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.73803324825515</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06319003106193528</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3870.060333225178</v>
+        <v>-166.4326675045777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002845867653565556</v>
+        <v>0.9474336798646086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.6178018176861</v>
+        <v>-325.6130595432478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005340090260719702</v>
+        <v>0.1248561108908802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0100169067136785</v>
+        <v>390.0956022884699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9414807173960501</v>
+        <v>0.0003251767638004472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2221.670159599205</v>
+        <v>0.2036665193957737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5948896441014803</v>
+        <v>0.4069410602970235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1828.895956648642</v>
+        <v>-5.152382799310722e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2487324438477688</v>
+        <v>0.8497903077888566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.59258913883684</v>
+        <v>23.79546021241243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6812140447974505</v>
+        <v>0.03646990877863157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6047.203010259343</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09145417381382637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3863.376983781112</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02664610422128066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3575.208473588911</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4035085229644727</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.04195155971729</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05330319315190531</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5617.651438742895</v>
+        <v>1874.051248458579</v>
       </c>
       <c r="C2" t="n">
-        <v>4.220126499915053e-06</v>
+        <v>0.4592897757754468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300.1997241810815</v>
+        <v>-72.10274433975144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003476266310118113</v>
+        <v>0.6778284091729927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04478502660829037</v>
+        <v>364.6349740551007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7272927426009325</v>
+        <v>0.0007941016246285674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6553.347576144711</v>
+        <v>-0.06449807173577171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1088995635758917</v>
+        <v>0.790289908390542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2944.466314847828</v>
+        <v>0.0001703711343833195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540810152436085</v>
+        <v>0.4940115475657306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.6314540111534</v>
+        <v>22.40479756301136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4029659380816767</v>
+        <v>0.04013474766190305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3780.272935499274</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2698843932207142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2830.240200742652</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08987171900584062</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3231.71617257728</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4528060840032103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.02575077416925</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.405005031872449</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Clermont.xlsx
+++ b/outputs/ML_Results/dist_LR/Clermont.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31009191" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31184543" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31355082" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31530524" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31695386" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ31856862" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32045637" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32205038" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32376500" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ32548870" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ32715928" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ32884893" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ33050591" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ33221685" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ33384946" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ33554234" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33714713" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33885810" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ34054513" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ34225130" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ34394879" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ34559896" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ34717772" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ34884361" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ35056080" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ35223854" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ35389863" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ35560547" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ35726947" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ35892688" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ36058714" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ36225727" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ36387751" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ36551774" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ36716793" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ36880516" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ37043538" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ37374607" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ37546632" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ37711915" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ37878426" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ38041101" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ38219695" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ38404864" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ38564369" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ38720718" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ38883565" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ39046040" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ39209061" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ39376870" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ13507439" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13650986" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13796506" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13944523" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14089038" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14234055" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14378565" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14520589" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14665331" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14811357" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ14956867" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ15101897" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ15249920" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ15395437" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ15535456" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ15679969" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ15823315" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ15975825" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ16124912" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ16270422" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ16421387" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ16573169" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ16734909" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ16889422" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ17041607" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ17196561" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ17349099" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ17522125" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ17680637" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ17834884" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ17987404" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ18138574" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ18286091" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ18436115" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ18583629" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ18728653" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ18872163" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ19112806" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ19260077" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ19406348" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ19552210" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ19698630" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ19847069" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ20014433" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ20172946" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ20322918" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ20467322" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ20611831" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ20757854" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ20918888" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1872.166111738599</v>
+        <v>1872.166111748461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.372718673831553</v>
+        <v>0.372718673828997</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.74580838187364</v>
+        <v>31.74580838371008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8104570823207083</v>
+        <v>0.8104570823206774</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.7297702710899</v>
+        <v>315.7297702681293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002088986759169722</v>
+        <v>0.000208898676127455</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07840363701468595</v>
+        <v>-7.840363702275042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6805419696906506</v>
+        <v>0.6805419696588595</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002009574733865106</v>
+        <v>200.9574734284001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3446428903729978</v>
+        <v>0.3446428902644354</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.46595436325359</v>
+        <v>24.46595436325373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004646474273331105</v>
+        <v>0.004646474273330604</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6942.302130291928</v>
+        <v>-69.42302130291912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03485730743943848</v>
+        <v>0.034857307439439</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-961.8078079558979</v>
+        <v>-9.618078079558929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4722214450077369</v>
+        <v>0.4722214450077384</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1096.258413897507</v>
+        <v>10.96258413897495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7669117460399</v>
+        <v>0.7669117460399028</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.028097166465741</v>
+        <v>-7.028097166465646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8186662514819713</v>
+        <v>0.8186662514819738</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68143796386039</v>
+        <v>41.68143780646005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9873629104212049</v>
+        <v>0.9873629104688726</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-140.8255730053487</v>
+        <v>-140.8255729923683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4328676531011753</v>
+        <v>0.4328676531012005</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7804381519273</v>
+        <v>477.780438157618</v>
       </c>
       <c r="C4" t="n">
-        <v>3.737622681337416e-05</v>
+        <v>3.737622682267879e-05</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2192877570272908</v>
+        <v>21.92877570058668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3840966973210609</v>
+        <v>0.3840966973654061</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.517984897807066e-05</v>
+        <v>45.17984905954299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8699401246155065</v>
+        <v>0.8699401243860202</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.77709134136725</v>
+        <v>15.77709134136753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1397494027298397</v>
+        <v>0.1397494027298321</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6932.281119032512</v>
+        <v>-69.32281119032497</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0612402982362812</v>
+        <v>0.06124029823628129</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4130.305125694226</v>
+        <v>-41.30305125694227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01669261871108546</v>
+        <v>0.01669261871108542</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4524.265565653363</v>
+        <v>45.24265565653371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2437132879004647</v>
+        <v>0.243713287900464</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.33755372437074</v>
+        <v>54.33755372437102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1336646651176334</v>
+        <v>0.1336646651176313</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.44183451776189</v>
+        <v>1.441834522001045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995099134787057</v>
+        <v>0.9995099134772643</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.49852949563501</v>
+        <v>21.49852949522693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8830074191874613</v>
+        <v>0.8830074191874864</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.7915226129014</v>
+        <v>363.7915226115142</v>
       </c>
       <c r="C4" t="n">
-        <v>7.981077784094413e-05</v>
+        <v>7.981077789311884e-05</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1292525402399865</v>
+        <v>-12.92525402385136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5170430215653939</v>
+        <v>0.517043021571127</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002455880312436614</v>
+        <v>245.5880312563922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2479049197073929</v>
+        <v>0.2479049196976134</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.58672359955734</v>
+        <v>26.58672359955742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003376792249955664</v>
+        <v>0.003376792249955617</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5770.670342690536</v>
+        <v>-57.70670342690543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04976482574012036</v>
+        <v>0.04976482574011998</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.5109869984585</v>
+        <v>2.265109869984542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8691795222978493</v>
+        <v>0.8691795222978521</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6522.361586481631</v>
+        <v>65.22361586481614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05318087697384401</v>
+        <v>0.05318087697384428</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002885559367474144</v>
+        <v>-0.002885559367541646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999307213248867</v>
+        <v>0.9999307213248851</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631.5523973554982</v>
+        <v>631.5523973420586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7984601416614536</v>
+        <v>0.7984601416659252</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-78.25142424176966</v>
+        <v>-78.25142424356761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6901063472952662</v>
+        <v>0.6901063472953679</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.0969295311297</v>
+        <v>444.0969295337263</v>
       </c>
       <c r="C4" t="n">
-        <v>5.278255090517608e-05</v>
+        <v>5.278255091692604e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2300836923239598</v>
+        <v>23.00836923146396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3444983933743625</v>
+        <v>0.3444983933919419</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.304505980438238e-05</v>
+        <v>73.04505985560077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7535361295755608</v>
+        <v>0.7535361294010062</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.9130089357922</v>
+        <v>22.91300893579199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03955893435583295</v>
+        <v>0.03955893435583744</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5949.244737862326</v>
+        <v>-59.49244737862309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0747141908404087</v>
+        <v>0.07471419084040926</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4196.309416516606</v>
+        <v>-41.96309416516608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01246794922883908</v>
+        <v>0.01246794922883906</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3390.346204518667</v>
+        <v>-33.90346204518661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3978716343280945</v>
+        <v>0.3978716343280948</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.30734040853959</v>
+        <v>50.30734040853983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1297224660832226</v>
+        <v>0.1297224660832199</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.7364133747124</v>
+        <v>242.736413444356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9243517889809179</v>
+        <v>0.9243517889591508</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-232.1789589288621</v>
+        <v>-232.1789589133646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1828747562316429</v>
+        <v>0.1828747562316528</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>413.4384611336546</v>
+        <v>413.438461123524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001686824988040861</v>
+        <v>0.0001686824988034317</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2390404928657716</v>
+        <v>23.9040492867806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3544072911908095</v>
+        <v>0.354407291186752</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001310605653609061</v>
+        <v>-131.0605653537563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6681988953446167</v>
+        <v>0.668198895364014</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.35184625531246</v>
+        <v>20.35184625531228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05609255365746274</v>
+        <v>0.05609255365746434</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4146.308516104728</v>
+        <v>-41.46308516104712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2949853293128548</v>
+        <v>0.2949853293128563</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3903.792522023613</v>
+        <v>-39.0379252202362</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01807018705883395</v>
+        <v>0.01807018705883366</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3051.043453043154</v>
+        <v>30.51043453043155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4540650500621938</v>
+        <v>0.4540650500621922</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.96351509701014</v>
+        <v>56.96351509701017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123711360457027</v>
+        <v>0.1237113604570194</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1850.460982188355</v>
+        <v>1850.460982363234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5398893177396121</v>
+        <v>0.5398893176989543</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-203.3797815542734</v>
+        <v>-203.3797815648541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2283648396363534</v>
+        <v>0.2283648396363939</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.275130412097</v>
+        <v>448.2751304238402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001526641233356922</v>
+        <v>0.000152664123370179</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06853385778947552</v>
+        <v>6.853385780971276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7587164363501686</v>
+        <v>0.7587164362820016</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.272568670850225e-05</v>
+        <v>92.72568668888616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7011076180592828</v>
+        <v>0.7011076181182145</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.421267488229612</v>
+        <v>-9.421267488229642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5706013686200901</v>
+        <v>0.5706013686200816</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6324.246863910927</v>
+        <v>-63.24246863910918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05211090655695062</v>
+        <v>0.0521109065569508</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3692.375912471114</v>
+        <v>-36.92375912471127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02549446082260195</v>
+        <v>0.02549446082260169</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4261.993340443138</v>
+        <v>42.61993340443172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2936263304594028</v>
+        <v>0.2936263304593994</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.28181380443208</v>
+        <v>77.28181380443191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03967638140556161</v>
+        <v>0.03967638140556404</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649.4872857380633</v>
+        <v>649.4872856209545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8073487993641143</v>
+        <v>0.80734879939796</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-155.6777484619776</v>
+        <v>-155.6777484681098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3755528824620789</v>
+        <v>0.375552882462218</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7369173902866</v>
+        <v>438.7369173963419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001819222886919017</v>
+        <v>0.0001819222887209582</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1690005276797143</v>
+        <v>16.90005276948212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.559316366998788</v>
+        <v>0.5593163669624222</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.110254988739528e-05</v>
+        <v>-41.10254991728578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8972587851503881</v>
+        <v>0.8972587850737159</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.43438774543237</v>
+        <v>19.43438774543194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.085226178758359</v>
+        <v>0.08522617875836548</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5080.703339748304</v>
+        <v>-50.8070333974829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2128382808418247</v>
+        <v>0.2128382808418255</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3211.423849772053</v>
+        <v>-32.11423849772039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06461156692001786</v>
+        <v>0.06461156692001911</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.095010786059</v>
+        <v>3.960950107860356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9242236546789081</v>
+        <v>0.9242236546789128</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.07927328427036</v>
+        <v>49.07927328427139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1971016321552268</v>
+        <v>0.1971016321552196</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4430.912792495471</v>
+        <v>4430.912792810551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0847881266717327</v>
+        <v>0.0847881266493104</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-145.8687804675523</v>
+        <v>-145.8687804555264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.377160535640983</v>
+        <v>0.3771605356409508</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.7892400171569</v>
+        <v>296.789239994738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002961837824623859</v>
+        <v>0.002961837824655267</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04486695043431499</v>
+        <v>4.486695040880036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8418896091605839</v>
+        <v>0.841889609248845</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.66536815813539e-05</v>
+        <v>16.65368158229239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9460708811341183</v>
+        <v>0.946070881131419</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.282843845219203</v>
+        <v>-7.282843845219178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6211099490174555</v>
+        <v>0.6211099490174556</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5204.537366922692</v>
+        <v>-52.0453736692269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1062901728032467</v>
+        <v>0.1062901728032471</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3713.359762331457</v>
+        <v>-37.13359762331453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009128608136211407</v>
+        <v>0.00912860813621136</v>
       </c>
     </row>
     <row r="10">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-353.0565280341798</v>
+        <v>-3.530565280341804</v>
       </c>
       <c r="C10" t="n">
         <v>0.9229055250823395</v>
@@ -1789,7 +1789,7 @@
         <v>43.34269921090993</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1574740740394918</v>
+        <v>0.1574740740394917</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>596.5787309953412</v>
+        <v>596.5787312359334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8150402368412291</v>
+        <v>0.8150402367681426</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-360.4725779088378</v>
+        <v>-360.4725779123378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05993677268213687</v>
+        <v>0.05993677268213973</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.7314700560646</v>
+        <v>510.7314700368365</v>
       </c>
       <c r="C4" t="n">
-        <v>2.021800417106272e-05</v>
+        <v>2.021800416801703e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2758981041033818</v>
+        <v>27.5898104106821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2750403309000383</v>
+        <v>0.2750403308938852</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.711023978352498e-05</v>
+        <v>-97.1102397314103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7388348405411074</v>
+        <v>0.7388348406750251</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.56714827450799</v>
+        <v>24.56714827450683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02974257914073129</v>
+        <v>0.02974257914073939</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5761.90290268134</v>
+        <v>-57.61902902681292</v>
       </c>
       <c r="C8" t="n">
-        <v>0.153634063852742</v>
+        <v>0.153634063852738</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4975.665990612157</v>
+        <v>-49.75665990612133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002587098737995409</v>
+        <v>0.002587098737995488</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2820.291472928977</v>
+        <v>28.2029147292899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4893478305931436</v>
+        <v>0.4893478305931428</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.74718404947822</v>
+        <v>50.74718404947909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1631329885202212</v>
+        <v>0.1631329885202151</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1918.597476355149</v>
+        <v>-1918.597476376513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3817392107132845</v>
+        <v>0.3817392107086351</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-120.2931817093111</v>
+        <v>-120.2931817133026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3738193397138745</v>
+        <v>0.3738193397137771</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>436.7070619657433</v>
+        <v>436.7070619645626</v>
       </c>
       <c r="C4" t="n">
-        <v>4.280517716151219e-06</v>
+        <v>4.280517715786685e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07965785351428933</v>
+        <v>-7.965785352025705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6998000598670795</v>
+        <v>0.6998000598456062</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001896087581925824</v>
+        <v>189.6087582285561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3986524929418095</v>
+        <v>0.3986524928604444</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.73876472163757</v>
+        <v>29.73876472163755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0010604800012845</v>
+        <v>0.001060480001284437</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3893.211663620872</v>
+        <v>-38.93211663620828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1553376801011496</v>
+        <v>0.1553376801011556</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.0981196877065</v>
+        <v>1.110981196876971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9398267897367758</v>
+        <v>0.9398267897367808</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2802.612666695056</v>
+        <v>28.02612666695059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3954761322166197</v>
+        <v>0.3954761322166195</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.79823710188344</v>
+        <v>48.79823710188327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1616275066595929</v>
+        <v>0.1616275066595943</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-495.787068323214</v>
+        <v>-495.7870684277805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8668070381287265</v>
+        <v>0.8668070381010669</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-156.4183458509147</v>
+        <v>-156.4183458594853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.415159525064165</v>
+        <v>0.4151595250640395</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451.1770457950454</v>
+        <v>451.1770458043065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001150904626765399</v>
+        <v>0.0001150904626948405</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2065598225152377</v>
+        <v>20.65598225163045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4775277451706533</v>
+        <v>0.47752774516845</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.212486378772295e-05</v>
+        <v>92.12486381719674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7415146613918684</v>
+        <v>0.7415146613180719</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.27193568801191</v>
+        <v>21.27193568801209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06931248361280824</v>
+        <v>0.06931248361280332</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6493.011097052562</v>
+        <v>-64.93011097052572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09992889493287163</v>
+        <v>0.09992889493287124</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3571.547856248249</v>
+        <v>-35.71547856248242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05799537704695751</v>
+        <v>0.05799537704695809</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1788.750814530393</v>
+        <v>17.88750814530401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6693158678226321</v>
+        <v>0.6693158678226308</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.31757927059046</v>
+        <v>61.31757927059056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.115993155902668</v>
+        <v>0.1159931559026699</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1094.099444302254</v>
+        <v>1094.099444391088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7065022895132447</v>
+        <v>0.7065022894894646</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-130.4805516371183</v>
+        <v>-130.4805516417566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4755191420747201</v>
+        <v>0.4755191420746712</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450.3268531756436</v>
+        <v>450.326853177535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002237363197370443</v>
+        <v>0.0002237363197553236</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1927214548724754</v>
+        <v>19.2721454872226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5070121721190007</v>
+        <v>0.5070121721194943</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.214486550508306e-05</v>
+        <v>-62.14486549896765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8379479415836415</v>
+        <v>0.8379479415990514</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.17571079031769</v>
+        <v>18.17571079031755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1183739881325162</v>
+        <v>0.1183739881325243</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3899.160341709304</v>
+        <v>-38.99160341709306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3143332394697818</v>
+        <v>0.3143332394697815</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3318.36229102382</v>
+        <v>-33.1836229102382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06806406101721654</v>
+        <v>0.06806406101721643</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.2422307225434</v>
+        <v>1.442422307225456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.972910027391471</v>
+        <v>0.9729100273914706</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.83284340817718</v>
+        <v>35.83284340817764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3764272638621488</v>
+        <v>0.3764272638621408</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.659407097182</v>
+        <v>1324.659407117622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6414838233661081</v>
+        <v>0.6414838233609743</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26.15494083484933</v>
+        <v>-26.1549408353975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8847570897473096</v>
+        <v>0.8847570897473302</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.1294834018064</v>
+        <v>428.1294834016408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002042921913501584</v>
+        <v>0.0002042921913402569</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02709847499333419</v>
+        <v>2.709847499138593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9111699465745153</v>
+        <v>0.9111699465811469</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001260684490870467</v>
+        <v>126.0684491191002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6347816528042893</v>
+        <v>0.634781652727863</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.64504899793502</v>
+        <v>15.64504899793524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1556889198603843</v>
+        <v>0.1556889198603783</v>
       </c>
     </row>
     <row r="8">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6146.343923353305</v>
+        <v>-61.46343923353327</v>
       </c>
       <c r="C8" t="n">
         <v>0.08458081053832137</v>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2616.472693644426</v>
+        <v>-26.16472693644421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1125016944672169</v>
+        <v>0.1125016944672177</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1550.485208406155</v>
+        <v>15.50485208406144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7158003238184028</v>
+        <v>0.715800323818405</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.86244521071589</v>
+        <v>29.86244521071593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4448726632731087</v>
+        <v>0.4448726632731091</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2326.753562566196</v>
+        <v>-2326.753562820381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3864597449259797</v>
+        <v>0.3864597448757874</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-277.9284281228973</v>
+        <v>-277.9284281273345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09415633383031125</v>
+        <v>0.0941563338303075</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.5074869517725</v>
+        <v>531.5074869829687</v>
       </c>
       <c r="C4" t="n">
-        <v>1.554195974219e-06</v>
+        <v>1.554195974692944e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506202346972266</v>
+        <v>15.06202347085566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4964378312572064</v>
+        <v>0.4964378312250468</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001376000618519312</v>
+        <v>137.6000618381463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5727303643297091</v>
+        <v>0.5727303643741628</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.00918368577584</v>
+        <v>21.00918368577548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05311559613314103</v>
+        <v>0.05311559613314186</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5709.748448854093</v>
+        <v>-57.09748448854073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1131797173008415</v>
+        <v>0.1131797173008435</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3779.938618540723</v>
+        <v>-37.79938618540714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02639440505925049</v>
+        <v>0.02639440505925102</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3765.178801646462</v>
+        <v>37.65178801646432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3606718406682006</v>
+        <v>0.3606718406682038</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.55379889552563</v>
+        <v>99.55379889552566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009792006157260412</v>
+        <v>0.00979200615726045</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4193.275004624158</v>
+        <v>4193.275004466313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188600629503331</v>
+        <v>0.1886006295211335</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-272.702386717158</v>
+        <v>-272.7023866987224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1623249516304844</v>
+        <v>0.162324951630582</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.4949010626433</v>
+        <v>343.4949010723548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002460308113365882</v>
+        <v>0.002460308113003146</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002232694729747825</v>
+        <v>-0.2232694699923385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9923925251443668</v>
+        <v>0.9923925252460182</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.662760653670821e-05</v>
+        <v>46.62760653682622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8529820385636671</v>
+        <v>0.8529820385663713</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.247872792189302</v>
+        <v>-8.247872792190014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6357844613064061</v>
+        <v>0.6357844613063767</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5649.187976895455</v>
+        <v>-56.49187976895429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1027731006173559</v>
+        <v>0.1027731006173567</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3627.499515884968</v>
+        <v>-36.27499515884973</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02109874012281216</v>
+        <v>0.02109874012281211</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4078.469656832319</v>
+        <v>40.78469656832313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3238897542188707</v>
+        <v>0.3238897542188705</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.45820025467011</v>
+        <v>43.45820025467076</v>
       </c>
       <c r="C11" t="n">
-        <v>0.263637386621466</v>
+        <v>0.2636373866214589</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536.8095052813906</v>
+        <v>536.8095054480991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7992034903512533</v>
+        <v>0.7992034902907441</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-185.8169604376799</v>
+        <v>-185.8169604191644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2159023879991537</v>
+        <v>0.2159023879991292</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.7698800037541</v>
+        <v>415.7698800057152</v>
       </c>
       <c r="C4" t="n">
-        <v>1.503035652954463e-05</v>
+        <v>1.503035653040512e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05916215801361074</v>
+        <v>5.916215798826006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7943973996990892</v>
+        <v>0.7943973997864205</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001721848829699374</v>
+        <v>172.1848829789956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4590381394182506</v>
+        <v>0.4590381393924259</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.95985243829185</v>
+        <v>32.95985243829216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008665231259845646</v>
+        <v>0.0008665231259843861</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6841.476614996827</v>
+        <v>-68.4147661499682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04640276659645792</v>
+        <v>0.04640276659645809</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1686.54250229363</v>
+        <v>-16.86542502293635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2460112055947331</v>
+        <v>0.2460112055947318</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3915.030735939144</v>
+        <v>39.15030735939162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2485503489021125</v>
+        <v>0.2485503489021102</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.763293043669403</v>
+        <v>2.763293043669648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9297715675817022</v>
+        <v>0.9297715675816961</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-666.9202123356717</v>
+        <v>-666.9202123613359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8026042453258198</v>
+        <v>0.8026042453180114</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.8351722163076</v>
+        <v>-45.83517222105689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7957736932301764</v>
+        <v>0.7957736932301331</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>414.4966584978084</v>
+        <v>414.4966585010376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002092180835998138</v>
+        <v>0.0002092180836857319</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4377320569776131</v>
+        <v>43.77320569790713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1287957769459205</v>
+        <v>0.1287957769444043</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003902564042174841</v>
+        <v>-390.2564042118138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2561778844887342</v>
+        <v>0.2561778844987051</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.1096221747861</v>
+        <v>21.10962217478632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05380406602041131</v>
+        <v>0.0538040660204083</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2327.365467858301</v>
+        <v>-23.2736546785831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5459455024965284</v>
+        <v>0.5459455024965262</v>
       </c>
     </row>
     <row r="9">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4022.977238660426</v>
+        <v>-40.2297723866042</v>
       </c>
       <c r="C9" t="n">
         <v>0.01836843558500863</v>
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1637.383154009218</v>
+        <v>16.3738315400922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6714781314719775</v>
+        <v>0.6714781314719763</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.20486783377829</v>
+        <v>66.20486783377814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07362875880240091</v>
+        <v>0.0736287588024018</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2683.601466065375</v>
+        <v>2683.601465905382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2866720958259532</v>
+        <v>0.286672095850692</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.402046839185</v>
+        <v>166.4020468158164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3753323653293179</v>
+        <v>0.3753323653293772</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.8244566648898</v>
+        <v>243.8244566775912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04174540139491601</v>
+        <v>0.04174540136988185</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02492601775601933</v>
+        <v>-2.492601777349718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9146844008077955</v>
+        <v>0.9146844007482309</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.453930038007971e-05</v>
+        <v>84.53930035914868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7201109096675158</v>
+        <v>0.7201109097309246</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.71471529522938</v>
+        <v>15.71471529522956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1109111088326683</v>
+        <v>0.110911108832664</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5590.394922553744</v>
+        <v>-55.90394922553743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08220433421865779</v>
+        <v>0.08220433421865828</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2317.415948731375</v>
+        <v>-23.17415948731354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1436850528629284</v>
+        <v>0.1436850528629313</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4791.84547581737</v>
+        <v>-47.91845475817357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2303420092867415</v>
+        <v>0.2303420092867424</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.41150471624344</v>
+        <v>28.41150471624333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4009951562926121</v>
+        <v>0.4009951562926174</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-105.1934041250988</v>
+        <v>-105.1934040850138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9541347064271187</v>
+        <v>0.9541347064444249</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.3012590938424</v>
+        <v>-111.301259087218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4459284642040103</v>
+        <v>0.4459284642040191</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408.9116723320305</v>
+        <v>408.9116723236871</v>
       </c>
       <c r="C4" t="n">
-        <v>8.410660051760287e-06</v>
+        <v>8.410660045883005e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3591099266637942</v>
+        <v>35.91099266710033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1171548560233526</v>
+        <v>0.1171548560162541</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003037717385642846</v>
+        <v>-303.771738594617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2607540224285118</v>
+        <v>0.2607540223695808</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.33722730576706</v>
+        <v>26.33722730576709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001708747188892126</v>
+        <v>0.001708747188891994</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1928.127748501762</v>
+        <v>-19.2812774850179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4819453203077434</v>
+        <v>0.4819453203077408</v>
       </c>
     </row>
     <row r="9">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3293.77798462769</v>
+        <v>-32.9377798462769</v>
       </c>
       <c r="C9" t="n">
         <v>0.02547184076580536</v>
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3930.059237601061</v>
+        <v>39.30059237601058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1855488778056634</v>
+        <v>0.1855488778056632</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.55504929517508</v>
+        <v>28.55504929517535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3064889450761696</v>
+        <v>0.3064889450761655</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.6285395572218</v>
+        <v>686.6285398172747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7987502258483425</v>
+        <v>0.7987502257725521</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-135.6881825182351</v>
+        <v>-135.6881825183924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4542942910059273</v>
+        <v>0.4542942910059335</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.7726123987574</v>
+        <v>409.7726123939294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005687122226031268</v>
+        <v>0.0005687122225188992</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06691047742617087</v>
+        <v>6.691047742675742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8184140214281527</v>
+        <v>0.818414021426574</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.710348277498947e-05</v>
+        <v>47.10348276192886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8732161914018801</v>
+        <v>0.8732161914349359</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.40128028023523</v>
+        <v>19.40128028023522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08838482713585583</v>
+        <v>0.08838482713585354</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5795.874545155239</v>
+        <v>-57.95874545155246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1343401254880697</v>
+        <v>0.1343401254880688</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2782.945562519569</v>
+        <v>-27.82945562519565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1271432899439189</v>
+        <v>0.1271432899439197</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.2856494182852</v>
+        <v>8.12285649418294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8467190354595029</v>
+        <v>0.8467190354595012</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.56774522118965</v>
+        <v>51.56774522118971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1774930066849267</v>
+        <v>0.1774930066849247</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1670.223299382933</v>
+        <v>1670.223299384985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6081954480339438</v>
+        <v>0.6081954480334706</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-130.7119638506674</v>
+        <v>-130.7119638446823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4513406962755619</v>
+        <v>0.4513406962754108</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.4519387930948</v>
+        <v>460.4519387922352</v>
       </c>
       <c r="C4" t="n">
-        <v>8.96263438849361e-05</v>
+        <v>8.962634388198205e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1005086356344278</v>
+        <v>10.05086356491049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6773406375564545</v>
+        <v>0.6773406375136098</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.700505642906951e-05</v>
+        <v>67.00505641576623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7825400313093581</v>
+        <v>0.7825400313496632</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.827441309102825</v>
+        <v>-9.82744130910244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6399976449165387</v>
+        <v>0.6399976449165514</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4663.273426820426</v>
+        <v>-46.63273426820417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1451307290930085</v>
+        <v>0.1451307290930094</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2777.955010926613</v>
+        <v>-27.77955010926627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09072182572109444</v>
+        <v>0.09072182572109307</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>832.5879901388453</v>
+        <v>8.325879901388078</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8291448215798836</v>
+        <v>0.8291448215798912</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.55377736779356</v>
+        <v>76.55377736779378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06412871372098933</v>
+        <v>0.06412871372098855</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>869.5104079646499</v>
+        <v>869.5104079468783</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7543989437381534</v>
+        <v>0.7543989437415385</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.85418567096311</v>
+        <v>-16.85418566928503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9230460168926822</v>
+        <v>0.9230460168927037</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.2339272749979</v>
+        <v>387.2339272755343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004560110301970487</v>
+        <v>0.0004560110303015272</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065525692049177</v>
+        <v>10.65525692097893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6396786948660318</v>
+        <v>0.6396786948474652</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.791826649820684e-05</v>
+        <v>87.91826651393842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.729597626530135</v>
+        <v>0.7295976264810959</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.06644432455977</v>
+        <v>16.06644432455953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1248600957179219</v>
+        <v>0.1248600957179271</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6735.944732095565</v>
+        <v>-67.35944732095568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06380496720831373</v>
+        <v>0.0638049672083139</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3455.242258681496</v>
+        <v>-34.55242258681496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02985125119282058</v>
+        <v>0.02985125119282075</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.2249019759456</v>
+        <v>1.712249019759593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9703032832474063</v>
+        <v>0.9703032832474041</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.23954370664421</v>
+        <v>51.2395437066444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1673870807792007</v>
+        <v>0.1673870807791993</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2423.204164117515</v>
+        <v>-2423.204163432752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3290476204058733</v>
+        <v>0.329047620536284</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-449.9390393262613</v>
+        <v>-449.9390393548675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0120187492917443</v>
+        <v>0.01201874929173722</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.4023729143729</v>
+        <v>592.4023729139869</v>
       </c>
       <c r="C4" t="n">
-        <v>5.758696238760974e-07</v>
+        <v>5.758696238764238e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1327437740659531</v>
+        <v>13.27437740402498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5176824025156352</v>
+        <v>0.5176824025972941</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.512440935934981e-05</v>
+        <v>85.12440928404919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7026209443061031</v>
+        <v>0.7026209445560094</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.45307892972452</v>
+        <v>30.4530789297248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002290326481806509</v>
+        <v>0.002290326481806306</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6030.400404152111</v>
+        <v>-60.30400404152134</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04004632461168461</v>
+        <v>0.04004632461168372</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2466.952559269406</v>
+        <v>-24.66952559269397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08060966518675043</v>
+        <v>0.08060966518675143</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2917.342164464686</v>
+        <v>-29.17342164464712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3975699212204074</v>
+        <v>0.3975699212204032</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.9196906249405</v>
+        <v>103.9196906249402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003930761559799491</v>
+        <v>0.003930761559799319</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677.792974357468</v>
+        <v>677.7929742125029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8128254747611655</v>
+        <v>0.8128254748004602</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-261.7780157626456</v>
+        <v>-261.778015754319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1649689557531731</v>
+        <v>0.1649689557531743</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.6310897312148</v>
+        <v>411.6310897531905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002732752379462483</v>
+        <v>0.0002732752379435764</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04681531361690819</v>
+        <v>4.681531360072377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8546847484113507</v>
+        <v>0.8546847484615145</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001419059081715095</v>
+        <v>141.9059082044991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6251715295082445</v>
+        <v>0.6251715294300479</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.54657181740755</v>
+        <v>23.54657181740722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04229082038165228</v>
+        <v>0.04229082038165498</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7720.594508093118</v>
+        <v>-77.20594508093146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08356897858598202</v>
+        <v>0.08356897858598161</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2741.7017428283</v>
+        <v>-27.41701742828287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09523154224681324</v>
+        <v>0.09523154224681493</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1702.876422179426</v>
+        <v>17.02876422179412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6776786316625178</v>
+        <v>0.6776786316625205</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.66327128529691</v>
+        <v>43.66327128529687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2611975747911826</v>
+        <v>0.2611975747911832</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2117.58121362128</v>
+        <v>-2117.581213471126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3519918683553361</v>
+        <v>0.3519918683879462</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-465.3678442347961</v>
+        <v>-465.3678442262267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003012028031894508</v>
+        <v>0.003012028031896745</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.6800994444131</v>
+        <v>592.6800994576608</v>
       </c>
       <c r="C4" t="n">
-        <v>3.003126688154724e-08</v>
+        <v>3.003126687987669e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.242163767064306</v>
+        <v>24.21637671125248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.294405483793279</v>
+        <v>0.294405483698604</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.231849759887265e-05</v>
+        <v>-42.31849765797381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8619603261892772</v>
+        <v>0.8619603259974757</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.7294369431816</v>
+        <v>29.72943694318193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001628584456942532</v>
+        <v>0.001628584456942195</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5980.172493492631</v>
+        <v>-59.80172493492388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0863206182855807</v>
+        <v>0.08632061828559788</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3182.601704684391</v>
+        <v>-31.82601704684472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04070898599631025</v>
+        <v>0.04070898599630483</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1596.490474113518</v>
+        <v>-15.96490474113528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6514466334336377</v>
+        <v>0.6514466334336355</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.92583901409921</v>
+        <v>98.92583901409964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003537192275664658</v>
+        <v>0.003537192275664837</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1834.907301494685</v>
+        <v>1834.907301429816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4682217351254675</v>
+        <v>0.4682217351366555</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.8343310156435</v>
+        <v>64.83433100857752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7304834929878428</v>
+        <v>0.7304834929876747</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.0763041906392</v>
+        <v>301.0763042004075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008513662605549515</v>
+        <v>0.008513662595614384</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06778302139643877</v>
+        <v>6.77830214046039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7782011418286463</v>
+        <v>0.7782011418033721</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.136400123670611e-05</v>
+        <v>61.3640012370762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8227236907162533</v>
+        <v>0.822723690712775</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.39009767297672</v>
+        <v>19.39009767297554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08659848200387468</v>
+        <v>0.0865984820038985</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5801.870541973083</v>
+        <v>-58.01870541973071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09977624534923728</v>
+        <v>0.09977624534923785</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3433.845954088676</v>
+        <v>-34.3384595408866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02728837924266328</v>
+        <v>0.02728837924266387</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4098.652260597753</v>
+        <v>-40.9865226059774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3463048148237033</v>
+        <v>0.3463048148237043</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.02434263748584</v>
+        <v>42.02434263748663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2225656967126807</v>
+        <v>0.2225656967126727</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-490.9747716410529</v>
+        <v>-490.9747716409729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8638606794497817</v>
+        <v>0.863860679449805</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-147.0376207436337</v>
+        <v>-147.037620742252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.433791066781527</v>
+        <v>0.4337910667816643</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447.7851376862392</v>
+        <v>447.7851376910066</v>
       </c>
       <c r="C4" t="n">
-        <v>9.839704270976183e-05</v>
+        <v>9.839704272479119e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01432966332960361</v>
+        <v>1.432966332304943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9572878490253904</v>
+        <v>0.9572878490450254</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002169191839671718</v>
+        <v>216.9191839819687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4514161967403317</v>
+        <v>0.4514161967093604</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.49897398968704</v>
+        <v>19.49897398968609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08431815525513307</v>
+        <v>0.08431815525514608</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6026.979219700694</v>
+        <v>-60.26979219700692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1142577322272407</v>
+        <v>0.1142577322272411</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3099.823273875851</v>
+        <v>-30.99823273875853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07430064616195606</v>
+        <v>0.07430064616195546</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3442.066759938039</v>
+        <v>34.42066759938027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4165091923125379</v>
+        <v>0.4165091923125395</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.30672960430194</v>
+        <v>62.30672960430235</v>
       </c>
       <c r="C11" t="n">
-        <v>0.128133777623747</v>
+        <v>0.1281337776237453</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>446.9461658732116</v>
+        <v>446.9461657501079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8336876736668315</v>
+        <v>0.8336876737121731</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.6973918211987</v>
+        <v>101.6973918224925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4721519669621764</v>
+        <v>0.4721519669621598</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.0458876762015</v>
+        <v>327.0458876823319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003797283094596905</v>
+        <v>0.0003797283091818373</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03566059032264933</v>
+        <v>3.566059031934797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.856297918360151</v>
+        <v>0.8562979183733606</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.978058652073069e-05</v>
+        <v>39.78058650738109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8533218258475275</v>
+        <v>0.8533218258949169</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.07834177954055</v>
+        <v>24.07834177954044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006127440025026481</v>
+        <v>0.006127440025026749</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4121.93979515831</v>
+        <v>-41.2193979515831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1420567987743739</v>
+        <v>0.142056798774374</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-281.627289066548</v>
+        <v>-2.816272890665534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.832972034502661</v>
+        <v>0.8329720345026577</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4396.429942336695</v>
+        <v>43.96429942336696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1568921989703269</v>
+        <v>0.156892198970327</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.724762805648538</v>
+        <v>-3.724762805648353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9004005858965698</v>
+        <v>0.9004005858965748</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4029.066779417881</v>
+        <v>4029.066779882093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1838900806141747</v>
+        <v>0.1838900805646376</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-194.2691384112942</v>
+        <v>-194.2691384137965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2758506647153036</v>
+        <v>0.2758506647152619</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.2276305920092</v>
+        <v>380.2276305690774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005196473072964021</v>
+        <v>0.0005196473073068818</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06033216750693576</v>
+        <v>6.033216748873301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.793559297455153</v>
+        <v>0.7935592975157947</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.540164368827416e-05</v>
+        <v>25.40164365517842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9170593905219935</v>
+        <v>0.9170593906273098</v>
       </c>
     </row>
     <row r="7">
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.86667138762493</v>
+        <v>-13.86667138762491</v>
       </c>
       <c r="C7" t="n">
         <v>0.426216504441572</v>
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6076.497094611201</v>
+        <v>-60.7649709461119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0760580804803874</v>
+        <v>0.07605808048038723</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4115.868811615219</v>
+        <v>-41.15868811615238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01405000559678015</v>
+        <v>0.01405000559677978</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5477.957312026449</v>
+        <v>54.7795731202645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1886559693509722</v>
+        <v>0.1886559693509718</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.75253430604726</v>
+        <v>48.75253430604755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1697103302574355</v>
+        <v>0.1697103302574327</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-909.7845221806815</v>
+        <v>-909.7845221772136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6705497677124119</v>
+        <v>0.6705497677135677</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.14290669606942</v>
+        <v>57.14290669675131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.698434834001862</v>
+        <v>0.6984348340018794</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.2249605974726</v>
+        <v>390.2249605896538</v>
       </c>
       <c r="C4" t="n">
-        <v>1.782919233943824e-05</v>
+        <v>1.782919236954301e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1495037631048343</v>
+        <v>14.95037631019233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4480275402148479</v>
+        <v>0.4480275402241216</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.176720477526129e-05</v>
+        <v>-51.76720478585401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8097996926198823</v>
+        <v>0.8097996925828146</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.82158982736615</v>
+        <v>23.82158982736619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007568068123855728</v>
+        <v>0.007568068123855582</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4247.628989732631</v>
+        <v>-42.47628989732635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119478749034804</v>
+        <v>0.1194787490348041</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1187.4863887554</v>
+        <v>-11.87486388755394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3958921913642693</v>
+        <v>0.3958921913642715</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6440.575105243413</v>
+        <v>64.40575105243403</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05290859025066028</v>
+        <v>0.05290859025066068</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.60181818746938</v>
+        <v>24.60181818746943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4126598145085165</v>
+        <v>0.4126598145085163</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>830.9889564278749</v>
+        <v>830.9889562343019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.734249859147873</v>
+        <v>0.7342498592076019</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-372.4904130975505</v>
+        <v>-372.4904130775182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05837224165887715</v>
+        <v>0.05837224165889357</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.1800572023799</v>
+        <v>545.1800572432288</v>
       </c>
       <c r="C4" t="n">
-        <v>7.209592163322323e-06</v>
+        <v>7.209592163673061e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1643433595858822</v>
+        <v>16.43433596571495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5038133769362461</v>
+        <v>0.5038133767535944</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.127324771774872e-05</v>
+        <v>71.27324770433734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7824772621433107</v>
+        <v>0.7824772621763554</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.08317285268944</v>
+        <v>21.08317285268866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04939566604603141</v>
+        <v>0.04939566604603855</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7360.241187362432</v>
+        <v>-73.60241187362433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05461469022189553</v>
+        <v>0.0546146902218955</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4252.19236117578</v>
+        <v>-42.52192361175798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01336493503137454</v>
+        <v>0.01336493503137437</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1410.614560086204</v>
+        <v>14.10614560086208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7402406593537262</v>
+        <v>0.7402406593537256</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.03400017511247</v>
+        <v>51.03400017511332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1463120782283716</v>
+        <v>0.1463120782283663</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1507.235088883019</v>
+        <v>-1507.23508920771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6071117842153089</v>
+        <v>0.6071117841400184</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-212.7794120408572</v>
+        <v>-212.7794120320258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2395448021089695</v>
+        <v>0.2395448021089718</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.3584920214606</v>
+        <v>424.3584920441623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001527315352339219</v>
+        <v>0.0001527315352697354</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102028211502833</v>
+        <v>10.20282115286032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7300248457437846</v>
+        <v>0.7300248456759246</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.77577386589329e-05</v>
+        <v>47.75773869462455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8885861821929872</v>
+        <v>0.8885861821112139</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.54675717683082</v>
+        <v>28.54675717683038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02094353809589557</v>
+        <v>0.02094353809589765</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1884.980715588425</v>
+        <v>-18.84980715588414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6782129230827305</v>
+        <v>0.6782129230827341</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3282.82242460675</v>
+        <v>-32.82822424606752</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05224138188506094</v>
+        <v>0.05224138188506064</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3954.192441315674</v>
+        <v>39.54192441315655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3732163593242641</v>
+        <v>0.3732163593242651</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.66880500365123</v>
+        <v>66.66880500365173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09830123708039473</v>
+        <v>0.09830123708039316</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.046921993794</v>
+        <v>1095.046922145646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6951604151125692</v>
+        <v>0.6951604150707377</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-175.4041434234178</v>
+        <v>-175.4041434171208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3593446086608559</v>
+        <v>0.3593446086608083</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.5599857675977</v>
+        <v>380.5599857635228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001320079166583471</v>
+        <v>0.001320079166517706</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1106339290123124</v>
+        <v>11.06339289964182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6447883621309015</v>
+        <v>0.6447883621787096</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.674472133294499e-05</v>
+        <v>36.74472134057316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8903868612616102</v>
+        <v>0.8903868612360925</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.8859927231655</v>
+        <v>21.885992723165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0569253515315747</v>
+        <v>0.05692535153158004</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5766.056046162055</v>
+        <v>-57.66056046162034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1158543721146518</v>
+        <v>0.1158543721146523</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3392.710436986966</v>
+        <v>-33.92710436986962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04186666462353152</v>
+        <v>0.04186666462353131</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>593.6908676403541</v>
+        <v>5.936908676403604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.880801937249879</v>
+        <v>0.880801937249878</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.99484917593927</v>
+        <v>43.99484917593983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2375980865789511</v>
+        <v>0.2375980865789432</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3674.413957641217</v>
+        <v>3674.413957687318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218653813459011</v>
+        <v>0.2186538134561359</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-32.78671250205684</v>
+        <v>-32.78671250230741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8628655546027089</v>
+        <v>0.8628655546027412</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.1795045212266</v>
+        <v>365.1795045187293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006707866735915775</v>
+        <v>0.0006707866733782479</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06272674294810732</v>
+        <v>-6.272674295259041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7942388455841324</v>
+        <v>0.794238845570055</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001627120549385055</v>
+        <v>162.7120549390503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5309352156817185</v>
+        <v>0.5309352156973755</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.59819670547619</v>
+        <v>-15.59819670547638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3554503506355949</v>
+        <v>0.3554503506355876</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6937.027024497148</v>
+        <v>-69.37027024497138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05283422418223152</v>
+        <v>0.05283422418223226</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2665.90979041688</v>
+        <v>-26.65909790416874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09284266031191322</v>
+        <v>0.09284266031191338</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4633.423430245642</v>
+        <v>46.33423430245646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2264065182039837</v>
+        <v>0.2264065182039843</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.46443670848772</v>
+        <v>44.4644367084878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2133722131152323</v>
+        <v>0.2133722131152318</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2271.805982839825</v>
+        <v>2271.805982836888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3990801724556292</v>
+        <v>0.3990801724567853</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.734940257709553</v>
+        <v>-3.734940257798769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9786054706673253</v>
+        <v>0.9786054706673952</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.7064049015745</v>
+        <v>351.7064049015199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002592109384849372</v>
+        <v>0.0002592109384488827</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01307616482284851</v>
+        <v>1.307616482255145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9502001181076101</v>
+        <v>0.9502001181086809</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.231957466944766e-05</v>
+        <v>92.31957465411728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.661193432048254</v>
+        <v>0.6611934321021473</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.253375119455818</v>
+        <v>-8.253375119455839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.547007623563226</v>
+        <v>0.5470076235632257</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5473.26029915873</v>
+        <v>-54.7326029915876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05070349522570727</v>
+        <v>0.05070349522570625</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2585.718422165804</v>
+        <v>-25.85718422165825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06484739278871224</v>
+        <v>0.0648473927887105</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2670.891893207857</v>
+        <v>-26.70891893207862</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4506339253726934</v>
+        <v>0.4506339253726918</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.84708037187164</v>
+        <v>80.84708037187141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02717829390197486</v>
+        <v>0.02717829390197624</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321.7803797009901</v>
+        <v>321.7803797226543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9044619029664495</v>
+        <v>0.9044619029600174</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-249.0420583259141</v>
+        <v>-249.042058319664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1818800340684212</v>
+        <v>0.1818800340684473</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.8239856392865</v>
+        <v>391.8239856551553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007311897086010465</v>
+        <v>0.0007311897085638813</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2190802948523359</v>
+        <v>21.90802948684295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.402012236344695</v>
+        <v>0.4020122363109658</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.597208544235626e-07</v>
+        <v>0.559720851139673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9983442752353525</v>
+        <v>0.998344275245048</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.72301323236733</v>
+        <v>22.72301323236717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04443731186896355</v>
+        <v>0.04443731186896618</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5915.536785753341</v>
+        <v>-59.15536785753339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1104264596991067</v>
+        <v>0.1104264596991062</v>
       </c>
     </row>
     <row r="9">
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3946.46187519226</v>
+        <v>-39.46461875192259</v>
       </c>
       <c r="C9" t="n">
         <v>0.03007775887208323</v>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1470.375230928144</v>
+        <v>14.70375230928151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.712279250934778</v>
+        <v>0.7122792509347768</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.88753711999181</v>
+        <v>60.88753711999168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09458001852858389</v>
+        <v>0.09458001852858634</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1096.569091248351</v>
+        <v>1096.56909115138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6599221068028797</v>
+        <v>0.6599221068312788</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-159.8673634419247</v>
+        <v>-159.8673634578797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3752177288811426</v>
+        <v>0.3752177288811617</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.3890092719507</v>
+        <v>400.3890092854019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001173065984968897</v>
+        <v>0.000117306598559103</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05658007783732678</v>
+        <v>-5.658007785111797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8077519551481736</v>
+        <v>0.8077519551040879</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002452813685051336</v>
+        <v>245.2813685289681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3496638611163548</v>
+        <v>0.349663861067003</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.08804943218176</v>
+        <v>24.08804943218104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03410323863314813</v>
+        <v>0.03410323863315322</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5443.017116858504</v>
+        <v>-54.4301711685851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1479081307460099</v>
+        <v>0.1479081307460098</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3442.986076983523</v>
+        <v>-34.42986076983532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02369034910200848</v>
+        <v>0.02369034910200829</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>512.3803953922634</v>
+        <v>5.123803953922689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9066744885827411</v>
+        <v>0.90667448858274</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.25310806850955</v>
+        <v>38.25310806851064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2925322561604927</v>
+        <v>0.2925322561604756</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3224.424055116301</v>
+        <v>-3224.424054995998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2494246622480741</v>
+        <v>0.2494246622633546</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-109.8282725354507</v>
+        <v>-109.8282725348276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5620862168761358</v>
+        <v>0.5620862168762647</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>524.5880851144811</v>
+        <v>524.588085110229</v>
       </c>
       <c r="C4" t="n">
-        <v>1.173342297994533e-05</v>
+        <v>1.173342297775728e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1205098482137665</v>
+        <v>12.05098481998665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6490655266423613</v>
+        <v>0.6490655266782193</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001218809683543298</v>
+        <v>121.8809683646941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6601603626382013</v>
+        <v>0.6601603626136787</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.26964150873564</v>
+        <v>23.26964150873601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03906686544146461</v>
+        <v>0.03906686544146214</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6121.836767051745</v>
+        <v>-61.21836767051764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09210507174042164</v>
+        <v>0.09210507174042101</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1972.822020790035</v>
+        <v>-19.72822020790032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24664748695098</v>
+        <v>0.2466474869509812</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1295.4046879876</v>
+        <v>12.95404687987568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7410901996033844</v>
+        <v>0.74109019960339</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.66233184190285</v>
+        <v>98.66233184190202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01408308093599728</v>
+        <v>0.01408308093599667</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.74670004407926</v>
+        <v>83.74670013500509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9729039464505058</v>
+        <v>0.9729039464212548</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-61.89240234732651</v>
+        <v>-61.89240234627118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.691869905431703</v>
+        <v>0.6918699054315793</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>402.221625283015</v>
+        <v>402.2216252807185</v>
       </c>
       <c r="C4" t="n">
-        <v>5.990098532922888e-05</v>
+        <v>5.990098530916721e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09066571099007489</v>
+        <v>9.066571099424166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6683837880484332</v>
+        <v>0.6683837880348016</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.439066567217996e-05</v>
+        <v>44.3906656332536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8408347606657384</v>
+        <v>0.8408347607986709</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.04025948087912</v>
+        <v>25.04025948087924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007582017598423267</v>
+        <v>0.007582017598422941</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5227.915982914085</v>
+        <v>-52.27915982914094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108710154876596</v>
+        <v>0.1087101548765952</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1675.318808362596</v>
+        <v>-16.75318808362609</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2733825442659499</v>
+        <v>0.2733825442659464</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4750.991580322812</v>
+        <v>47.50991580322851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2100577142559713</v>
+        <v>0.2100577142559673</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.7655552989424</v>
+        <v>19.76555529894269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5455354283888054</v>
+        <v>0.5455354283887994</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4293.521688937848</v>
+        <v>4293.521688985644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1204867099556707</v>
+        <v>0.1204867099516056</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-94.49075258335301</v>
+        <v>-94.49075258343046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5542324953803441</v>
+        <v>0.5542324953804123</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.5296463175825</v>
+        <v>367.5296463103192</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008039108051833193</v>
+        <v>0.0008039108048670048</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1067239761540118</v>
+        <v>10.67239761328439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.662459030906589</v>
+        <v>0.6624590309726688</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001498147212836597</v>
+        <v>-149.8147212834511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6029837827317852</v>
+        <v>0.6029837827395155</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.87610816003973</v>
+        <v>-10.87610816003953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4801923583613568</v>
+        <v>0.4801923583613585</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3708.839374973923</v>
+        <v>-37.08839374973992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2530773774193341</v>
+        <v>0.2530773774193278</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3031.724077261839</v>
+        <v>-30.31724077261767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04843131659583147</v>
+        <v>0.04843131659583605</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1945.654935671484</v>
+        <v>19.45654935671499</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5895742713817635</v>
+        <v>0.5895742713817601</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.11778707180079</v>
+        <v>31.11778707180024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3743545848522458</v>
+        <v>0.3743545848522625</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>663.3310114878032</v>
+        <v>663.3310112898462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8215503687784341</v>
+        <v>0.8215503688312191</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-241.639549152325</v>
+        <v>-241.6395491475149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1184186374866045</v>
+        <v>0.1184186374866533</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.9005191616734</v>
+        <v>466.9005191591256</v>
       </c>
       <c r="C4" t="n">
-        <v>1.166188969752961e-05</v>
+        <v>1.166188969719716e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.109082227751033</v>
+        <v>10.90822277364407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6195614302545724</v>
+        <v>0.6195614303018151</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.274320860107918e-05</v>
+        <v>12.74320862519949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9599071830497408</v>
+        <v>0.9599071829741074</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.717827730747649</v>
+        <v>-1.717827730747774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9150965808623029</v>
+        <v>0.9150965808622963</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4472.123872518169</v>
+        <v>-44.72123872518168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162799707501516</v>
+        <v>0.1627997075015161</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3854.598829554696</v>
+        <v>-38.54598829554696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01386706382639406</v>
+        <v>0.013867063826394</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3813.301230972018</v>
+        <v>38.13301230972007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3015998076143959</v>
+        <v>0.301599807614397</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.6076256977217</v>
+        <v>88.60762569772174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01496241181914941</v>
+        <v>0.01496241181914895</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372.08285654174</v>
+        <v>1372.082856720856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6345797823934547</v>
+        <v>0.6345797823465489</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-121.8856720617394</v>
+        <v>-121.8856720667688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5377000290425731</v>
+        <v>0.5377000290424756</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>413.9102279031266</v>
+        <v>413.9102279079508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004033074581894776</v>
+        <v>0.0004033074582340953</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07601450270612026</v>
+        <v>7.601450271421733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7879888227181671</v>
+        <v>0.7879888226959326</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.57361561224918e-05</v>
+        <v>55.73615610902755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8505094492505022</v>
+        <v>0.850509449288731</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.60173404001236</v>
+        <v>17.60173404001196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1350366913397559</v>
+        <v>0.1350366913397569</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5512.157214124902</v>
+        <v>-55.12157214124907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1863519415937428</v>
+        <v>0.1863519415937434</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3208.039821889157</v>
+        <v>-32.08039821889152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06303814241288275</v>
+        <v>0.063038142412883</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.3809031819164</v>
+        <v>8.543809031819023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8461094491326628</v>
+        <v>0.8461094491326655</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.26157894124781</v>
+        <v>39.26157894124739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3138609330484657</v>
+        <v>0.3138609330484785</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.359920310966</v>
+        <v>1941.359920175678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.307589563213795</v>
+        <v>0.3075895632376969</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.70985213798593</v>
+        <v>88.70985213273156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5459409043561338</v>
+        <v>0.5459409043561512</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3463416784732</v>
+        <v>262.3463416874979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005142061787476599</v>
+        <v>0.005142061781867084</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0342952743064262</v>
+        <v>-3.429527429947283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8484909775193756</v>
+        <v>0.8484909775485059</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.218503214978015e-05</v>
+        <v>82.18503214233988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6759385205569546</v>
+        <v>0.6759385205921133</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.89457115300465</v>
+        <v>25.89457115300496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00203191539515109</v>
+        <v>0.002031915395150747</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5279.540584032316</v>
+        <v>-52.79540584032398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06108159421527503</v>
+        <v>0.06108159421527359</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1087.683158253792</v>
+        <v>-10.87683158253794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4043663396749597</v>
+        <v>0.4043663396749602</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>611.4235869039967</v>
+        <v>6.114235869040279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8548337330551252</v>
+        <v>0.8548337330551176</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.265961890019035</v>
+        <v>-3.265961890018851</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9043856384311324</v>
+        <v>0.904385638431138</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.12404871893159</v>
+        <v>-9.124048695806778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9974053598735693</v>
+        <v>0.9974053598801674</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.3046411890532</v>
+        <v>-16.30464118853862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9314342041583887</v>
+        <v>0.9314342041582551</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.7787377681028</v>
+        <v>464.7787377684621</v>
       </c>
       <c r="C4" t="n">
-        <v>5.433648083372334e-05</v>
+        <v>5.433648084329495e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1011199876965451</v>
+        <v>10.11199876963619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.688644998904376</v>
+        <v>0.688644998904979</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001065933025882558</v>
+        <v>106.5933026233666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7009776266793049</v>
+        <v>0.7009776265843504</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.99866946812617</v>
+        <v>17.99866946812616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1075367089347537</v>
+        <v>0.1075367089347533</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6063.09455999238</v>
+        <v>-60.63094559992362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1140055468788125</v>
+        <v>0.114005546878813</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2472.093192266312</v>
+        <v>-24.72093192266318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1339525891023733</v>
+        <v>0.1339525891023725</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2365.836297453754</v>
+        <v>23.65836297453725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5865779960869928</v>
+        <v>0.5865779960869972</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.14151228026439</v>
+        <v>38.14151228026424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3411998988585602</v>
+        <v>0.3411998988585619</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1013.021410139561</v>
+        <v>-1013.021410136021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6879725469830802</v>
+        <v>0.6879725469840796</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-256.9725191709415</v>
+        <v>-256.9725191627492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1375080527445719</v>
+        <v>0.1375080527445919</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.3025202807855</v>
+        <v>464.302520268694</v>
       </c>
       <c r="C4" t="n">
-        <v>5.544316332443641e-05</v>
+        <v>5.54431633197172e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2007498468764697</v>
+        <v>20.07498468733088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4323314256620989</v>
+        <v>0.4323314256694907</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.021435500812126e-05</v>
+        <v>60.21435502874425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8399566246194636</v>
+        <v>0.8399566245674693</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.40902270261583</v>
+        <v>27.4090227026158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01777508462089077</v>
+        <v>0.01777508462089122</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4456.01724173356</v>
+        <v>-44.56017241733552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2064063720517433</v>
+        <v>0.206406372051746</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4324.752333991303</v>
+        <v>-43.247523339913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01205966856847306</v>
+        <v>0.01205966856847307</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4082.352138241164</v>
+        <v>40.82352138241146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3086570744467702</v>
+        <v>0.3086570744467708</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.91326065399934</v>
+        <v>62.91326065399935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07160897008192198</v>
+        <v>0.07160897008192092</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-55.87938885036419</v>
+        <v>-55.87938884151936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9829670872746723</v>
+        <v>0.9829670872773666</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-253.2811542439948</v>
+        <v>-253.2811542403776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.155325469362519</v>
+        <v>0.1553254693625577</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410.6914100830539</v>
+        <v>410.6914100807629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002861264612023738</v>
+        <v>0.0002861264612030213</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1903582101060532</v>
+        <v>19.03582101085529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.477085213263801</v>
+        <v>0.4770852132580139</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.291676272112613e-05</v>
+        <v>22.91676271439846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9353413781920544</v>
+        <v>0.9353413782099531</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.81462198333583</v>
+        <v>23.81462198333584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03237884310750052</v>
+        <v>0.03237884310750072</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5892.771675751592</v>
+        <v>-58.92771675751592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09047462508789708</v>
+        <v>0.09047462508789869</v>
       </c>
     </row>
     <row r="9">
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3305.374780466565</v>
+        <v>-33.05374780466565</v>
       </c>
       <c r="C9" t="n">
         <v>0.06984158905051334</v>
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.4118475636114</v>
+        <v>7.424118475635979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.848227515946452</v>
+        <v>0.8482275159464547</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.51134347350197</v>
+        <v>62.51134347350205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09120448079833493</v>
+        <v>0.09120448079833594</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-287.3308011384706</v>
+        <v>-287.3308011263298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9002978743010644</v>
+        <v>0.9002978743054108</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.40128075877914</v>
+        <v>-12.40128075816278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9358241853006027</v>
+        <v>0.9358241853005718</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.5846084860144</v>
+        <v>367.5846084851255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003874012479845541</v>
+        <v>0.0003874012477182115</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09702997518709602</v>
+        <v>9.702997518780144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6181290189881239</v>
+        <v>0.6181290189859882</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.423161408429122e-05</v>
+        <v>24.23161406899442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9106138333344085</v>
+        <v>0.9106138333901914</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.93163792332142</v>
+        <v>26.93163792332155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004460609612471245</v>
+        <v>0.004460609612470599</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4661.679338454749</v>
+        <v>-46.61679338454724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1024032246708872</v>
+        <v>0.1024032246708927</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1250.555301279207</v>
+        <v>-12.50555301279204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3938911576367954</v>
+        <v>0.3938911576367968</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3878.218496653014</v>
+        <v>38.78218496652999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2472538980670624</v>
+        <v>0.2472538980670618</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.10270610233723</v>
+        <v>20.10270610233725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5216504519896119</v>
+        <v>0.521650451989613</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1435.06140829643</v>
+        <v>1435.061408550489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6470148584319015</v>
+        <v>0.6470148583726079</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-163.4455809109709</v>
+        <v>-163.4455809111618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3297974781697381</v>
+        <v>0.3297974781696625</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>437.2181895847107</v>
+        <v>437.2181895665415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001622410191593301</v>
+        <v>0.0001622410191125697</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07292126734625884</v>
+        <v>7.292126737747852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7914464672989017</v>
+        <v>0.7914464672105124</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.158575382220522e-05</v>
+        <v>31.58575378815254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.916906511053477</v>
+        <v>0.9169065111387313</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.542558307892516</v>
+        <v>-3.542558307892648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8344020166237746</v>
+        <v>0.834402016623769</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4817.847714410407</v>
+        <v>-48.17847714410436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2503742490404581</v>
+        <v>0.2503742490404569</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2892.390663331634</v>
+        <v>-28.92390663331632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07469046463983033</v>
+        <v>0.07469046463982995</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2362.709267297985</v>
+        <v>23.62709267297996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.574320249380937</v>
+        <v>0.5743202493809352</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.73803324825515</v>
+        <v>72.73803324825519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06319003106193528</v>
+        <v>0.06319003106193549</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-166.4326675045777</v>
+        <v>-166.4326673090036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9474336798646086</v>
+        <v>0.9474336799261172</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-325.6130595432478</v>
+        <v>-325.6130595288938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1248561108908802</v>
+        <v>0.1248561108909003</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.0956022884699</v>
+        <v>390.0956022795368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003251767638004472</v>
+        <v>0.0003251767638502997</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2036665193957737</v>
+        <v>20.36665194237504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4069410602970235</v>
+        <v>0.4069410602342388</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.152382799310722e-05</v>
+        <v>-51.52382804039649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8497903077888566</v>
+        <v>0.8497903076486064</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.79546021241243</v>
+        <v>23.79546021241249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03646990877863157</v>
+        <v>0.03646990877863086</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6047.203010259343</v>
+        <v>-60.47203010259346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09145417381382637</v>
+        <v>0.09145417381382638</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3863.376983781112</v>
+        <v>-38.63376983781129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02664610422128066</v>
+        <v>0.02664610422128019</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3575.208473588911</v>
+        <v>35.75208473588916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4035085229644727</v>
+        <v>0.403508522964472</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.04195155971729</v>
+        <v>71.04195155971738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05330319315190531</v>
+        <v>0.05330319315190488</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1874.051248458579</v>
+        <v>1874.051248491447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4592897757754468</v>
+        <v>0.459289775766066</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-72.10274433975144</v>
+        <v>-72.1027443394523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6778284091729927</v>
+        <v>0.6778284091730151</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.6349740551007</v>
+        <v>364.6349740561396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007941016246285674</v>
+        <v>0.0007941016247052715</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06449807173577171</v>
+        <v>-6.449807174353779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790289908390542</v>
+        <v>0.7902899083676701</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001703711343833195</v>
+        <v>170.3711343911717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4940115475657306</v>
+        <v>0.4940115475469595</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.40479756301136</v>
+        <v>22.40479756301135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04013474766190305</v>
+        <v>0.04013474766190332</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3780.272935499274</v>
+        <v>-37.8027293549928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2698843932207142</v>
+        <v>0.2698843932207137</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2830.240200742652</v>
+        <v>-28.30240200742663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08987171900584062</v>
+        <v>0.08987171900583929</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3231.71617257728</v>
+        <v>-32.31716172577249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4528060840032103</v>
+        <v>0.4528060840032135</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.02575077416925</v>
+        <v>31.02575077416959</v>
       </c>
       <c r="C11" t="n">
-        <v>0.405005031872449</v>
+        <v>0.4050050318724437</v>
       </c>
     </row>
   </sheetData>
